--- a/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="J2" t="n">
         <v>4.75</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.83</v>
@@ -855,13 +855,13 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
         <v>4.33</v>
@@ -875,10 +875,10 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -999,27 +999,27 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
         <v>5.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>1.25</v>
@@ -1137,13 +1137,13 @@
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
         <v>4.5</v>
@@ -1161,10 +1161,10 @@
         <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="W5" t="n">
         <v>1.3</v>
@@ -1209,7 +1209,7 @@
         <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL5" t="n">
         <v>13</v>
@@ -1282,22 +1282,22 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
         <v>2.07</v>
@@ -1306,10 +1306,10 @@
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
         <v>1.3</v>
@@ -1439,10 +1439,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1498,7 +1498,7 @@
         <v>151</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>21</v>
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
@@ -1568,10 +1568,10 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1580,10 +1580,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1600,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1642,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN8" t="n">
         <v>8.5</v>
@@ -1721,10 +1721,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>2.07</v>
@@ -1848,7 +1848,7 @@
         <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>2.3</v>
@@ -1866,10 +1866,10 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
         <v>2.03</v>
@@ -1929,10 +1929,10 @@
         <v>151</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN10" t="n">
         <v>8.5</v>
@@ -2011,28 +2011,28 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y11" t="n">
         <v>2.1</v>
@@ -2044,10 +2044,10 @@
         <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2062,13 +2062,13 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="n">
         <v>451</v>
@@ -2077,7 +2077,7 @@
         <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>34</v>
@@ -2086,7 +2086,7 @@
         <v>201</v>
       </c>
       <c r="AP11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ11" t="n">
         <v>81</v>
@@ -2147,7 +2147,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -2156,10 +2156,10 @@
         <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2188,7 +2188,7 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>34</v>
@@ -2197,7 +2197,7 @@
         <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
         <v>8.5</v>
@@ -2224,7 +2224,7 @@
         <v>9.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2297,10 +2297,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2317,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA13" t="n">
         <v>7.5</v>
@@ -2338,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2724,10 +2724,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S16" t="n">
         <v>2.05</v>
@@ -2875,10 +2875,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -3014,10 +3014,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R18" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
         <v>2.75</v>
@@ -3432,13 +3432,13 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
         <v>2.2</v>
@@ -3485,7 +3485,7 @@
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -3561,7 +3561,7 @@
         <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
         <v>1.83</v>
@@ -3615,13 +3615,13 @@
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4029,10 +4029,10 @@
         <v>2.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S25" t="n">
         <v>4.8</v>
@@ -4181,7 +4181,7 @@
         <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4289,22 +4289,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>2.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
         <v>1.83</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1.14</v>
@@ -4322,7 +4322,7 @@
         <v>3.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4345,10 +4345,10 @@
         <v>1.57</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
@@ -4369,7 +4369,7 @@
         <v>5.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>81</v>
@@ -4381,19 +4381,19 @@
         <v>6.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4463,7 +4463,7 @@
         <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -4608,7 +4608,7 @@
         <v>3.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -4737,7 +4737,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -4746,10 +4746,10 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="S30" t="n">
         <v>1.93</v>
@@ -4815,7 +4815,7 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>41</v>
@@ -4876,7 +4876,7 @@
         <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4897,10 +4897,10 @@
         <v>2.38</v>
       </c>
       <c r="S31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
         <v>2.38</v>
@@ -4915,7 +4915,7 @@
         <v>3.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z31" t="n">
         <v>2.25</v>
@@ -4924,7 +4924,7 @@
         <v>15</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>13</v>
@@ -4933,7 +4933,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>29</v>
@@ -5006,16 +5006,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
         <v>2.5</v>
@@ -5060,28 +5060,28 @@
         <v>4</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Z32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA32" t="n">
         <v>19</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="n">
         <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
         <v>21</v>
@@ -5099,7 +5099,7 @@
         <v>67</v>
       </c>
       <c r="AL32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM32" t="n">
         <v>15</v>
@@ -5111,7 +5111,7 @@
         <v>21</v>
       </c>
       <c r="AP32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ32" t="n">
         <v>17</v>
@@ -5310,22 +5310,22 @@
         <v>3.1</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R34" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5433,22 +5433,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H35" t="n">
         <v>4.75</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -5463,10 +5463,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -5501,16 +5501,16 @@
         <v>10</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
         <v>26</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI35" t="n">
         <v>21</v>
@@ -5522,7 +5522,7 @@
         <v>351</v>
       </c>
       <c r="AL35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM35" t="n">
         <v>29</v>
@@ -6569,28 +6569,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
         <v>2.1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L43" t="n">
         <v>2.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
         <v>1.22</v>
@@ -6599,10 +6599,10 @@
         <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R43" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6613,19 +6613,19 @@
         <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB43" t="n">
         <v>17</v>
@@ -6640,13 +6640,13 @@
         <v>23</v>
       </c>
       <c r="AF43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI43" t="n">
         <v>13</v>
@@ -6658,7 +6658,7 @@
         <v>151</v>
       </c>
       <c r="AL43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM43" t="n">
         <v>11</v>
@@ -6667,10 +6667,10 @@
         <v>9</v>
       </c>
       <c r="AO43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ43" t="n">
         <v>23</v>
@@ -6710,19 +6710,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L44" t="n">
         <v>4</v>
@@ -6740,10 +6740,10 @@
         <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -7290,16 +7290,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J48" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
@@ -7308,10 +7308,10 @@
         <v>4.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
         <v>1.29</v>
@@ -7320,10 +7320,10 @@
         <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R48" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S48" t="n">
         <v>2.6</v>
@@ -7332,10 +7332,10 @@
         <v>1.49</v>
       </c>
       <c r="U48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W48" t="n">
         <v>1.4</v>
@@ -7353,16 +7353,16 @@
         <v>7.5</v>
       </c>
       <c r="AB48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC48" t="n">
         <v>9</v>
       </c>
-      <c r="AC48" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF48" t="n">
         <v>26</v>
@@ -7371,7 +7371,7 @@
         <v>10</v>
       </c>
       <c r="AH48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
         <v>15</v>
@@ -7383,10 +7383,10 @@
         <v>251</v>
       </c>
       <c r="AL48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN48" t="n">
         <v>13</v>
@@ -7395,10 +7395,10 @@
         <v>41</v>
       </c>
       <c r="AP48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>41</v>
       </c>
       <c r="AR48" t="n">
         <v>1.45</v>
@@ -7451,7 +7451,7 @@
         <v>2.3</v>
       </c>
       <c r="K49" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L49" t="n">
         <v>4.5</v>
@@ -7502,7 +7502,7 @@
         <v>8.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC49" t="n">
         <v>8.5</v>
@@ -7517,7 +7517,7 @@
         <v>21</v>
       </c>
       <c r="AG49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH49" t="n">
         <v>7.5</v>
@@ -7588,16 +7588,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K50" t="n">
         <v>2.2</v>
@@ -7606,10 +7606,10 @@
         <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
         <v>1.29</v>
@@ -7651,7 +7651,7 @@
         <v>8</v>
       </c>
       <c r="AB50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC50" t="n">
         <v>9</v>
@@ -7684,7 +7684,7 @@
         <v>12</v>
       </c>
       <c r="AM50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN50" t="n">
         <v>13</v>
@@ -7696,7 +7696,7 @@
         <v>29</v>
       </c>
       <c r="AQ50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR50" t="n">
         <v>1.44</v>
@@ -7737,16 +7737,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
         <v>3.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
         <v>2.1</v>
@@ -7767,18 +7767,18 @@
         <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R51" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W51" t="n">
         <v>1.4</v>
@@ -7793,7 +7793,7 @@
         <v>2.05</v>
       </c>
       <c r="AA51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB51" t="n">
         <v>12</v>
@@ -7808,7 +7808,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG51" t="n">
         <v>9.5</v>
@@ -7823,16 +7823,16 @@
         <v>41</v>
       </c>
       <c r="AK51" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO51" t="n">
         <v>34</v>
@@ -7878,19 +7878,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
         <v>2.15</v>
       </c>
       <c r="J52" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L52" t="n">
         <v>2.75</v>
@@ -7902,24 +7902,24 @@
         <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R52" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V52" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W52" t="n">
         <v>1.36</v>
@@ -7928,10 +7928,10 @@
         <v>3</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA52" t="n">
         <v>11</v>
@@ -7952,10 +7952,10 @@
         <v>29</v>
       </c>
       <c r="AG52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI52" t="n">
         <v>13</v>
@@ -8019,13 +8019,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H53" t="n">
         <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
         <v>2.5</v>
@@ -8079,34 +8079,34 @@
         <v>2.25</v>
       </c>
       <c r="AA53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB53" t="n">
         <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD53" t="n">
         <v>17</v>
       </c>
       <c r="AE53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF53" t="n">
         <v>21</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK53" t="n">
         <v>126</v>
@@ -8164,22 +8164,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H54" t="n">
         <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K54" t="n">
         <v>2.25</v>
       </c>
       <c r="L54" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
@@ -8188,24 +8188,24 @@
         <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R54" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W54" t="n">
         <v>1.33</v>
@@ -8220,22 +8220,22 @@
         <v>2.25</v>
       </c>
       <c r="AA54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC54" t="n">
         <v>10</v>
       </c>
-      <c r="AB54" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE54" t="n">
         <v>19</v>
       </c>
       <c r="AF54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG54" t="n">
         <v>13</v>
@@ -8250,7 +8250,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL54" t="n">
         <v>11</v>
@@ -8262,13 +8262,13 @@
         <v>10</v>
       </c>
       <c r="AO54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8311,7 +8311,7 @@
         <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J55" t="n">
         <v>2.88</v>
@@ -8320,16 +8320,16 @@
         <v>1.91</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
         <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P55" t="n">
         <v>2.5</v>
@@ -8350,7 +8350,7 @@
         <v>5.5</v>
       </c>
       <c r="V55" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W55" t="n">
         <v>1.57</v>
@@ -8371,7 +8371,7 @@
         <v>8</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD55" t="n">
         <v>17</v>
@@ -8401,7 +8401,7 @@
         <v>8</v>
       </c>
       <c r="AM55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN55" t="n">
         <v>15</v>
@@ -8472,13 +8472,13 @@
         <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
         <v>8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P56" t="n">
         <v>3.25</v>
@@ -8499,7 +8499,7 @@
         <v>3.75</v>
       </c>
       <c r="V56" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W56" t="n">
         <v>1.44</v>
@@ -8603,40 +8603,40 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J57" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L57" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
         <v>7</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P57" t="n">
         <v>2.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -8644,7 +8644,7 @@
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W57" t="n">
         <v>1.57</v>
@@ -8653,16 +8653,16 @@
         <v>2.25</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA57" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC57" t="n">
         <v>17</v>
@@ -8695,13 +8695,13 @@
         <v>5</v>
       </c>
       <c r="AM57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP57" t="n">
         <v>19</v>
@@ -8710,10 +8710,10 @@
         <v>41</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="58">
@@ -8766,13 +8766,13 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
         <v>10</v>
       </c>
       <c r="O58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P58" t="n">
         <v>3.5</v>
@@ -8789,7 +8789,7 @@
         <v>3.25</v>
       </c>
       <c r="V58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W58" t="n">
         <v>1.4</v>
@@ -9330,31 +9330,31 @@
         <v>1.91</v>
       </c>
       <c r="M62" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N62" t="n">
         <v>17</v>
       </c>
       <c r="O62" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R62" t="n">
         <v>2.35</v>
       </c>
       <c r="S62" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T62" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U62" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="V62" t="n">
         <v>1.5</v>
@@ -9475,13 +9475,13 @@
         <v>3.5</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N63" t="n">
         <v>9.5</v>
       </c>
       <c r="O63" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P63" t="n">
         <v>3.4</v>
@@ -9498,7 +9498,7 @@
         <v>3.5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W63" t="n">
         <v>1.44</v>
@@ -9619,16 +9619,16 @@
         <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R64" t="n">
         <v>2.1</v>
@@ -9640,10 +9640,10 @@
         <v>1.74</v>
       </c>
       <c r="U64" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V64" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W64" t="n">
         <v>1.33</v>
@@ -9761,13 +9761,13 @@
         <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
         <v>9.5</v>
       </c>
       <c r="O65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P65" t="n">
         <v>3.5</v>
@@ -9784,7 +9784,7 @@
         <v>3.4</v>
       </c>
       <c r="V65" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W65" t="n">
         <v>1.4</v>
@@ -9884,13 +9884,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H66" t="n">
         <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J66" t="n">
         <v>1.91</v>
@@ -9902,13 +9902,13 @@
         <v>7</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P66" t="n">
         <v>4.33</v>
@@ -9922,10 +9922,10 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V66" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W66" t="n">
         <v>1.33</v>
@@ -10028,10 +10028,10 @@
         <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J67" t="n">
         <v>4.5</v>
@@ -10043,13 +10043,13 @@
         <v>2.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N67" t="n">
         <v>11</v>
       </c>
       <c r="O67" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P67" t="n">
         <v>3.5</v>
@@ -10066,7 +10066,7 @@
         <v>3.25</v>
       </c>
       <c r="V67" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W67" t="n">
         <v>1.4</v>
@@ -10166,7 +10166,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H68" t="n">
         <v>3.25</v>
@@ -10184,30 +10184,30 @@
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
         <v>10</v>
       </c>
       <c r="O68" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P68" t="n">
         <v>3.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R68" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V68" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W68" t="n">
         <v>1.44</v>
@@ -10307,7 +10307,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H69" t="n">
         <v>4.75</v>
@@ -10325,13 +10325,13 @@
         <v>8</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
         <v>11</v>
       </c>
       <c r="O69" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P69" t="n">
         <v>3.75</v>
@@ -10348,7 +10348,7 @@
         <v>3.25</v>
       </c>
       <c r="V69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W69" t="n">
         <v>1.36</v>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>3.25</v>
@@ -10463,16 +10463,16 @@
         <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M70" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P70" t="n">
         <v>3.25</v>
@@ -10489,7 +10489,7 @@
         <v>3.75</v>
       </c>
       <c r="V70" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W70" t="n">
         <v>1.44</v>
@@ -10510,7 +10510,7 @@
         <v>15</v>
       </c>
       <c r="AC70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD70" t="n">
         <v>34</v>
@@ -10607,13 +10607,13 @@
         <v>3.4</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
         <v>10</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P71" t="n">
         <v>3.4</v>
@@ -10630,7 +10630,7 @@
         <v>3.5</v>
       </c>
       <c r="V71" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W71" t="n">
         <v>1.4</v>
@@ -10748,22 +10748,22 @@
         <v>8</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N72" t="n">
         <v>11</v>
       </c>
       <c r="O72" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
@@ -10771,7 +10771,7 @@
         <v>3</v>
       </c>
       <c r="V72" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W72" t="n">
         <v>1.33</v>
@@ -10889,13 +10889,13 @@
         <v>2.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N73" t="n">
         <v>10</v>
       </c>
       <c r="O73" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P73" t="n">
         <v>3.5</v>
@@ -10912,7 +10912,7 @@
         <v>3.5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W73" t="n">
         <v>1.44</v>
@@ -11030,13 +11030,13 @@
         <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
         <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P74" t="n">
         <v>3.4</v>
@@ -11053,7 +11053,7 @@
         <v>3.5</v>
       </c>
       <c r="V74" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W74" t="n">
         <v>1.44</v>
@@ -11171,13 +11171,13 @@
         <v>5.5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N75" t="n">
         <v>11</v>
       </c>
       <c r="O75" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P75" t="n">
         <v>3.75</v>
@@ -11194,7 +11194,7 @@
         <v>3.2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W75" t="n">
         <v>1.36</v>
@@ -11312,22 +11312,22 @@
         <v>3.1</v>
       </c>
       <c r="M76" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N76" t="n">
         <v>9</v>
       </c>
       <c r="O76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P76" t="n">
         <v>3.2</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R76" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -11335,7 +11335,7 @@
         <v>4</v>
       </c>
       <c r="V76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W76" t="n">
         <v>1.44</v>
@@ -11453,13 +11453,13 @@
         <v>3.4</v>
       </c>
       <c r="M77" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P77" t="n">
         <v>3.75</v>
@@ -11476,7 +11476,7 @@
         <v>3.4</v>
       </c>
       <c r="V77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W77" t="n">
         <v>1.4</v>
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H78" t="n">
         <v>3.6</v>
@@ -11606,10 +11606,10 @@
         <v>3.25</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R78" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11717,7 +11717,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
@@ -11726,7 +11726,7 @@
         <v>3.2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K79" t="n">
         <v>2.2</v>
@@ -11858,7 +11858,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
@@ -11867,7 +11867,7 @@
         <v>3.6</v>
       </c>
       <c r="J80" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
@@ -12005,16 +12005,16 @@
         <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J81" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K81" t="n">
         <v>2.2</v>
       </c>
       <c r="L81" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M81" t="n">
         <v>1.05</v>
@@ -12055,7 +12055,7 @@
         <v>2</v>
       </c>
       <c r="AA81" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB81" t="n">
         <v>15</v>
@@ -12140,22 +12140,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I82" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
         <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L82" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M82" t="n">
         <v>1.05</v>
@@ -12199,13 +12199,13 @@
         <v>8.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE82" t="n">
         <v>19</v>
@@ -12229,7 +12229,7 @@
         <v>201</v>
       </c>
       <c r="AL82" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM82" t="n">
         <v>15</v>
@@ -12238,7 +12238,7 @@
         <v>11</v>
       </c>
       <c r="AO82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP82" t="n">
         <v>23</v>
@@ -12281,7 +12281,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H83" t="n">
         <v>3.4</v>
@@ -12431,7 +12431,7 @@
         <v>3.3</v>
       </c>
       <c r="J84" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K84" t="n">
         <v>2.1</v>
@@ -12998,7 +12998,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H88" t="n">
         <v>3.6</v>
@@ -13016,10 +13016,10 @@
         <v>5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O88" t="n">
         <v>1.29</v>
@@ -13078,7 +13078,7 @@
         <v>7</v>
       </c>
       <c r="AI88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ88" t="n">
         <v>51</v>
@@ -13283,16 +13283,16 @@
         <v>4.9</v>
       </c>
       <c r="H90" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I90" t="n">
         <v>1.5</v>
       </c>
       <c r="J90" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="K90" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L90" t="n">
         <v>1.93</v>
@@ -13310,24 +13310,24 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V90" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Z90" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="AA90" t="n">
         <v>16.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC90" t="n">
         <v>13.5</v>
@@ -13336,13 +13336,13 @@
         <v>70</v>
       </c>
       <c r="AE90" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AF90" t="n">
         <v>29</v>
       </c>
       <c r="AG90" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH90" t="n">
         <v>7.9</v>
@@ -13366,13 +13366,13 @@
         <v>7.1</v>
       </c>
       <c r="AO90" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP90" t="n">
         <v>9</v>
       </c>
       <c r="AQ90" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr"/>
@@ -13412,19 +13412,19 @@
         <v>1.7</v>
       </c>
       <c r="H91" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I91" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J91" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K91" t="n">
         <v>2.37</v>
       </c>
       <c r="L91" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -13447,25 +13447,25 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Z91" t="n">
-        <v>2.34</v>
+        <v>2.37</v>
       </c>
       <c r="AA91" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB91" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC91" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD91" t="n">
         <v>12</v>
       </c>
       <c r="AE91" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF91" t="n">
         <v>15.5</v>
@@ -13486,19 +13486,19 @@
         <v>175</v>
       </c>
       <c r="AL91" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM91" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN91" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AO91" t="n">
         <v>45</v>
       </c>
       <c r="AP91" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ91" t="n">
         <v>24</v>
@@ -13697,13 +13697,13 @@
         <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N93" t="n">
         <v>9.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P93" t="n">
         <v>3.4</v>
@@ -13720,7 +13720,7 @@
         <v>3.5</v>
       </c>
       <c r="V93" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W93" t="n">
         <v>1.44</v>
@@ -13838,13 +13838,13 @@
         <v>4.75</v>
       </c>
       <c r="M94" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N94" t="n">
         <v>13</v>
       </c>
       <c r="O94" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -13861,7 +13861,7 @@
         <v>2.75</v>
       </c>
       <c r="V94" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W94" t="n">
         <v>1.33</v>
@@ -13960,43 +13960,105 @@
           <t>Kolkheti 1913</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.3</v>
+      </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.8</v>
+      </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
+      <c r="U95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>1.32</v>
+      </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="inlineStr"/>
-      <c r="AH95" t="inlineStr"/>
-      <c r="AI95" t="inlineStr"/>
-      <c r="AJ95" t="inlineStr"/>
-      <c r="AK95" t="inlineStr"/>
-      <c r="AL95" t="inlineStr"/>
-      <c r="AM95" t="inlineStr"/>
-      <c r="AN95" t="inlineStr"/>
-      <c r="AO95" t="inlineStr"/>
-      <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
+      <c r="Y95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>24</v>
+      </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>
     </row>
@@ -14121,13 +14183,13 @@
         <v>3.6</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N97" t="n">
         <v>10</v>
       </c>
       <c r="O97" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P97" t="n">
         <v>3.25</v>
@@ -14144,7 +14206,7 @@
         <v>3.75</v>
       </c>
       <c r="V97" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W97" t="n">
         <v>1.44</v>
@@ -14262,19 +14324,19 @@
         <v>4.75</v>
       </c>
       <c r="M98" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N98" t="n">
         <v>15</v>
       </c>
       <c r="O98" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P98" t="n">
         <v>4.33</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R98" t="n">
         <v>2.15</v>
@@ -14282,10 +14344,10 @@
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V98" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W98" t="n">
         <v>1.33</v>
@@ -14294,7 +14356,7 @@
         <v>3.25</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z98" t="n">
         <v>2.1</v>
@@ -14403,19 +14465,19 @@
         <v>3.2</v>
       </c>
       <c r="M99" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N99" t="n">
         <v>13</v>
       </c>
       <c r="O99" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R99" t="n">
         <v>2.05</v>
@@ -14426,7 +14488,7 @@
         <v>2.75</v>
       </c>
       <c r="V99" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W99" t="n">
         <v>1.36</v>
@@ -14435,7 +14497,7 @@
         <v>3</v>
       </c>
       <c r="Y99" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z99" t="n">
         <v>2.2</v>
@@ -14544,19 +14606,19 @@
         <v>2.75</v>
       </c>
       <c r="M100" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N100" t="n">
         <v>15</v>
       </c>
       <c r="O100" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P100" t="n">
         <v>4.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R100" t="n">
         <v>2.25</v>
@@ -14571,7 +14633,7 @@
         <v>2.5</v>
       </c>
       <c r="V100" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W100" t="n">
         <v>1.3</v>
@@ -14580,10 +14642,10 @@
         <v>3.4</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z100" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA100" t="n">
         <v>13</v>
@@ -14689,19 +14751,19 @@
         <v>3.5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N101" t="n">
         <v>15</v>
       </c>
       <c r="O101" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R101" t="n">
         <v>2.3</v>
@@ -14713,10 +14775,10 @@
         <v>1.88</v>
       </c>
       <c r="U101" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V101" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W101" t="n">
         <v>1.29</v>
@@ -14725,7 +14787,7 @@
         <v>3.5</v>
       </c>
       <c r="Y101" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z101" t="n">
         <v>2.5</v>
@@ -14834,19 +14896,19 @@
         <v>2.88</v>
       </c>
       <c r="M102" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N102" t="n">
         <v>17</v>
       </c>
       <c r="O102" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R102" t="n">
         <v>2.35</v>
@@ -14858,10 +14920,10 @@
         <v>1.93</v>
       </c>
       <c r="U102" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V102" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W102" t="n">
         <v>1.29</v>
@@ -14870,7 +14932,7 @@
         <v>3.5</v>
       </c>
       <c r="Y102" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z102" t="n">
         <v>2.5</v>
@@ -14979,19 +15041,19 @@
         <v>2.88</v>
       </c>
       <c r="M103" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N103" t="n">
         <v>13</v>
       </c>
       <c r="O103" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R103" t="n">
         <v>2.1</v>
@@ -14999,10 +15061,10 @@
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V103" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W103" t="n">
         <v>1.33</v>
@@ -15011,7 +15073,7 @@
         <v>3.25</v>
       </c>
       <c r="Y103" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z103" t="n">
         <v>2.2</v>
@@ -15120,19 +15182,19 @@
         <v>4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N104" t="n">
         <v>13</v>
       </c>
       <c r="O104" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R104" t="n">
         <v>2.1</v>
@@ -15140,10 +15202,10 @@
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V104" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W104" t="n">
         <v>1.33</v>
@@ -15152,7 +15214,7 @@
         <v>3.25</v>
       </c>
       <c r="Y104" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z104" t="n">
         <v>2.2</v>
@@ -15267,24 +15329,24 @@
         <v>13</v>
       </c>
       <c r="O105" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P105" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R105" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V105" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W105" t="n">
         <v>1.36</v>
@@ -15408,28 +15470,28 @@
         <v>17</v>
       </c>
       <c r="O106" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P106" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R106" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S106" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T106" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U106" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V106" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W106" t="n">
         <v>1.29</v>
@@ -15994,13 +16056,13 @@
         <v>4.33</v>
       </c>
       <c r="M110" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N110" t="n">
         <v>11</v>
       </c>
       <c r="O110" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P110" t="n">
         <v>3.5</v>
@@ -16017,7 +16079,7 @@
         <v>3.4</v>
       </c>
       <c r="V110" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W110" t="n">
         <v>1.4</v>
@@ -16135,13 +16197,13 @@
         <v>2.6</v>
       </c>
       <c r="M111" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N111" t="n">
         <v>11</v>
       </c>
       <c r="O111" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P111" t="n">
         <v>3.5</v>
@@ -16158,7 +16220,7 @@
         <v>3.25</v>
       </c>
       <c r="V111" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W111" t="n">
         <v>1.4</v>
@@ -16276,13 +16338,13 @@
         <v>3.5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N112" t="n">
         <v>11</v>
       </c>
       <c r="O112" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P112" t="n">
         <v>3.75</v>
@@ -16299,7 +16361,7 @@
         <v>3</v>
       </c>
       <c r="V112" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W112" t="n">
         <v>1.36</v>
@@ -16399,31 +16461,31 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>3.3</v>
       </c>
       <c r="I113" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J113" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K113" t="n">
         <v>2.2</v>
       </c>
       <c r="L113" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M113" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N113" t="n">
         <v>11</v>
       </c>
       <c r="O113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P113" t="n">
         <v>3.75</v>
@@ -16440,13 +16502,13 @@
         <v>3.25</v>
       </c>
       <c r="V113" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W113" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X113" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y113" t="n">
         <v>1.67</v>
@@ -16455,16 +16517,16 @@
         <v>2.1</v>
       </c>
       <c r="AA113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC113" t="n">
         <v>11</v>
       </c>
-      <c r="AB113" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>12</v>
-      </c>
       <c r="AD113" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE113" t="n">
         <v>23</v>
@@ -16488,19 +16550,19 @@
         <v>201</v>
       </c>
       <c r="AL113" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN113" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO113" t="n">
         <v>21</v>
       </c>
       <c r="AP113" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ113" t="n">
         <v>26</v>
@@ -16558,13 +16620,13 @@
         <v>4</v>
       </c>
       <c r="M114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N114" t="n">
         <v>19</v>
       </c>
       <c r="O114" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P114" t="n">
         <v>5.5</v>
@@ -16581,7 +16643,7 @@
         <v>2.2</v>
       </c>
       <c r="V114" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W114" t="n">
         <v>1.25</v>
@@ -16955,22 +17017,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J117" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K117" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L117" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
@@ -16978,10 +17040,10 @@
         <v>1.31</v>
       </c>
       <c r="P117" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R117" t="n">
         <v>1.7</v>
@@ -16989,10 +17051,10 @@
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="V117" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W117" t="n">
         <v>1.42</v>
@@ -17007,19 +17069,19 @@
         <v>1.93</v>
       </c>
       <c r="AA117" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC117" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD117" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE117" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF117" t="n">
         <v>32</v>
@@ -17031,31 +17093,31 @@
         <v>6</v>
       </c>
       <c r="AI117" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ117" t="n">
         <v>60</v>
       </c>
       <c r="AK117" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL117" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AM117" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN117" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO117" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP117" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ117" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR117" t="inlineStr"/>
       <c r="AS117" t="inlineStr"/>
@@ -17092,7 +17154,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H118" t="n">
         <v>3.1</v>
@@ -17142,10 +17204,10 @@
         <v>2.5</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA118" t="n">
         <v>6.5</v>
@@ -17283,7 +17345,7 @@
         <v>3.25</v>
       </c>
       <c r="Y119" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z119" t="n">
         <v>2.2</v>
@@ -18230,10 +18292,10 @@
         <v>3.3</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J126" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K126" t="n">
         <v>2.05</v>
@@ -18242,36 +18304,36 @@
         <v>4.5</v>
       </c>
       <c r="M126" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N126" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O126" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P126" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R126" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V126" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W126" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X126" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y126" t="n">
         <v>1.95</v>
@@ -18283,7 +18345,7 @@
         <v>6.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC126" t="n">
         <v>9</v>
@@ -18298,13 +18360,13 @@
         <v>29</v>
       </c>
       <c r="AG126" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH126" t="n">
         <v>6.5</v>
       </c>
       <c r="AI126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ126" t="n">
         <v>51</v>
@@ -18365,13 +18427,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>3.5</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J127" t="n">
         <v>2.88</v>
@@ -18383,13 +18445,13 @@
         <v>3.4</v>
       </c>
       <c r="M127" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N127" t="n">
         <v>13</v>
       </c>
       <c r="O127" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P127" t="n">
         <v>4.33</v>
@@ -18407,10 +18469,10 @@
         <v>1.8</v>
       </c>
       <c r="U127" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V127" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W127" t="n">
         <v>1.33</v>
@@ -18428,13 +18490,13 @@
         <v>10</v>
       </c>
       <c r="AB127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC127" t="n">
         <v>9.5</v>
       </c>
       <c r="AD127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE127" t="n">
         <v>17</v>
@@ -18467,7 +18529,7 @@
         <v>11</v>
       </c>
       <c r="AO127" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP127" t="n">
         <v>21</v>
@@ -18528,13 +18590,13 @@
         <v>5</v>
       </c>
       <c r="M128" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N128" t="n">
         <v>8</v>
       </c>
       <c r="O128" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P128" t="n">
         <v>2.75</v>
@@ -18551,7 +18613,7 @@
         <v>4</v>
       </c>
       <c r="V128" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W128" t="n">
         <v>1.5</v>
@@ -18669,30 +18731,30 @@
         <v>4.5</v>
       </c>
       <c r="M129" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N129" t="n">
         <v>15</v>
       </c>
       <c r="O129" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P129" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R129" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V129" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W129" t="n">
         <v>1.3</v>
@@ -18810,13 +18872,13 @@
         <v>6</v>
       </c>
       <c r="M130" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N130" t="n">
         <v>7</v>
       </c>
       <c r="O130" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P130" t="n">
         <v>2.5</v>
@@ -18833,7 +18895,7 @@
         <v>5</v>
       </c>
       <c r="V130" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W130" t="n">
         <v>1.57</v>
@@ -19223,13 +19285,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H133" t="n">
         <v>3.1</v>
       </c>
       <c r="I133" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J133" t="n">
         <v>4</v>
@@ -19241,10 +19303,10 @@
         <v>2.88</v>
       </c>
       <c r="M133" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N133" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O133" t="n">
         <v>1.33</v>
@@ -19279,7 +19341,7 @@
         <v>1.83</v>
       </c>
       <c r="AA133" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB133" t="n">
         <v>17</v>
@@ -19297,7 +19359,7 @@
         <v>41</v>
       </c>
       <c r="AG133" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH133" t="n">
         <v>6</v>
@@ -19315,13 +19377,13 @@
         <v>7</v>
       </c>
       <c r="AM133" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN133" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO133" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP133" t="n">
         <v>19</v>
@@ -19509,13 +19571,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H135" t="n">
         <v>3.3</v>
       </c>
       <c r="I135" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
         <v>2.88</v>
@@ -19524,13 +19586,13 @@
         <v>2.25</v>
       </c>
       <c r="L135" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M135" t="n">
         <v>1.04</v>
       </c>
       <c r="N135" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O135" t="n">
         <v>1.22</v>
@@ -19571,7 +19633,7 @@
         <v>12</v>
       </c>
       <c r="AC135" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD135" t="n">
         <v>21</v>
@@ -19604,7 +19666,7 @@
         <v>17</v>
       </c>
       <c r="AN135" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO135" t="n">
         <v>34</v>
@@ -19650,19 +19712,19 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H136" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I136" t="n">
         <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K136" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L136" t="n">
         <v>2.6</v>
@@ -19676,10 +19738,10 @@
         <v>3.3</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R136" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
@@ -19705,43 +19767,43 @@
         <v>8.5</v>
       </c>
       <c r="AB136" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC136" t="n">
         <v>9.75</v>
       </c>
       <c r="AD136" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE136" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF136" t="n">
         <v>28</v>
       </c>
       <c r="AG136" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH136" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AI136" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ136" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK136" t="n">
         <v>300</v>
       </c>
       <c r="AL136" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AM136" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN136" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AO136" t="n">
         <v>15</v>
@@ -19821,7 +19883,7 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V137" t="n">
         <v>1.23</v>
@@ -19833,10 +19895,10 @@
         <v>2.3</v>
       </c>
       <c r="Y137" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Z137" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AA137" t="n">
         <v>6.2</v>
@@ -19954,18 +20016,18 @@
         <v>3.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R138" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V138" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W138" t="n">
         <v>1.4</v>
@@ -20080,13 +20142,13 @@
         <v>2.2</v>
       </c>
       <c r="L139" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M139" t="n">
         <v>1.04</v>
       </c>
       <c r="N139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O139" t="n">
         <v>1.25</v>
@@ -20115,10 +20177,10 @@
         <v>3</v>
       </c>
       <c r="Y139" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="Z139" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA139" t="n">
         <v>11</v>
@@ -20136,7 +20198,7 @@
         <v>26</v>
       </c>
       <c r="AF139" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG139" t="n">
         <v>12</v>
@@ -20151,7 +20213,7 @@
         <v>41</v>
       </c>
       <c r="AK139" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL139" t="n">
         <v>8.5</v>
@@ -20206,13 +20268,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>3.6</v>
       </c>
       <c r="I140" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J140" t="n">
         <v>3.25</v>
@@ -20236,7 +20298,7 @@
         <v>4</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R140" t="n">
         <v>2.05</v>
@@ -20256,7 +20318,7 @@
         <v>3</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z140" t="n">
         <v>2.2</v>
@@ -20271,7 +20333,7 @@
         <v>10</v>
       </c>
       <c r="AD140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE140" t="n">
         <v>21</v>
@@ -20310,7 +20372,7 @@
         <v>19</v>
       </c>
       <c r="AQ140" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr"/>
@@ -20380,19 +20442,19 @@
         <v>1.57</v>
       </c>
       <c r="R141" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S141" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T141" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U141" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V141" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W141" t="n">
         <v>1.3</v>
@@ -20401,7 +20463,7 @@
         <v>3.4</v>
       </c>
       <c r="Y141" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z141" t="n">
         <v>2.25</v>
@@ -20492,13 +20554,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
         <v>3.8</v>
       </c>
       <c r="I142" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J142" t="n">
         <v>2.6</v>
@@ -20507,7 +20569,7 @@
         <v>2.3</v>
       </c>
       <c r="L142" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M142" t="n">
         <v>1.04</v>
@@ -20522,7 +20584,7 @@
         <v>4.33</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R142" t="n">
         <v>2.1</v>
@@ -20542,7 +20604,7 @@
         <v>3.25</v>
       </c>
       <c r="Y142" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z142" t="n">
         <v>2.2</v>
@@ -20557,7 +20619,7 @@
         <v>8.5</v>
       </c>
       <c r="AD142" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE142" t="n">
         <v>15</v>
@@ -20581,7 +20643,7 @@
         <v>151</v>
       </c>
       <c r="AL142" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM142" t="n">
         <v>19</v>
@@ -20633,27 +20695,27 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="H143" t="n">
         <v>3.45</v>
       </c>
       <c r="I143" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="J143" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K143" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L143" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P143" t="n">
         <v>3.5</v>
@@ -20662,38 +20724,38 @@
         <v>1.65</v>
       </c>
       <c r="R143" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="V143" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Z143" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AA143" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AB143" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC143" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD143" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE143" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF143" t="n">
         <v>26</v>
@@ -20702,10 +20764,10 @@
         <v>12.5</v>
       </c>
       <c r="AH143" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI143" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ143" t="n">
         <v>45</v>
@@ -20714,19 +20776,19 @@
         <v>300</v>
       </c>
       <c r="AL143" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM143" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN143" t="n">
         <v>9</v>
       </c>
       <c r="AO143" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP143" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ143" t="n">
         <v>23</v>
@@ -21336,13 +21398,13 @@
         <v>4.75</v>
       </c>
       <c r="M148" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N148" t="n">
         <v>8</v>
       </c>
       <c r="O148" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P148" t="n">
         <v>3.25</v>
@@ -21359,7 +21421,7 @@
         <v>3.75</v>
       </c>
       <c r="V148" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W148" t="n">
         <v>1.44</v>
@@ -21477,22 +21539,22 @@
         <v>5.5</v>
       </c>
       <c r="M149" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N149" t="n">
         <v>11</v>
       </c>
       <c r="O149" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P149" t="n">
         <v>3.75</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R149" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S149" t="n">
         <v>2.46</v>
@@ -21504,7 +21566,7 @@
         <v>3</v>
       </c>
       <c r="V149" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W149" t="n">
         <v>1.36</v>
@@ -21608,22 +21670,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J150" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K150" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L150" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M150" t="n">
         <v>1.06</v>
@@ -21632,16 +21694,16 @@
         <v>7.3</v>
       </c>
       <c r="O150" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P150" t="n">
         <v>3.2</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R150" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S150" t="n">
         <v>1.88</v>
@@ -21662,10 +21724,10 @@
         <v>2.67</v>
       </c>
       <c r="Y150" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AA150" t="n">
         <v>6.5</v>
@@ -21677,7 +21739,7 @@
         <v>8.5</v>
       </c>
       <c r="AD150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE150" t="n">
         <v>13</v>
@@ -21689,13 +21751,13 @@
         <v>10</v>
       </c>
       <c r="AH150" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI150" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ150" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK150" t="n">
         <v>351</v>
@@ -21704,22 +21766,22 @@
         <v>15</v>
       </c>
       <c r="AM150" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN150" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO150" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP150" t="n">
         <v>51</v>
-      </c>
-      <c r="AP150" t="n">
-        <v>41</v>
       </c>
       <c r="AQ150" t="n">
         <v>51</v>
       </c>
       <c r="AR150" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AS150" t="n">
         <v>2.7</v>
@@ -21775,13 +21837,13 @@
         <v>5</v>
       </c>
       <c r="M151" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N151" t="n">
         <v>9.5</v>
       </c>
       <c r="O151" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P151" t="n">
         <v>3.4</v>
@@ -21802,7 +21864,7 @@
         <v>3.5</v>
       </c>
       <c r="V151" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W151" t="n">
         <v>1.44</v>
@@ -21924,13 +21986,13 @@
         <v>4</v>
       </c>
       <c r="M152" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N152" t="n">
         <v>8.5</v>
       </c>
       <c r="O152" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P152" t="n">
         <v>3.25</v>
@@ -21947,7 +22009,7 @@
         <v>3.75</v>
       </c>
       <c r="V152" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W152" t="n">
         <v>1.44</v>
@@ -22065,13 +22127,13 @@
         <v>3.2</v>
       </c>
       <c r="M153" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N153" t="n">
         <v>13</v>
       </c>
       <c r="O153" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P153" t="n">
         <v>4.33</v>
@@ -22085,10 +22147,10 @@
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V153" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W153" t="n">
         <v>1.33</v>
@@ -22206,10 +22268,10 @@
         <v>3.4</v>
       </c>
       <c r="M154" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O154" t="n">
         <v>1.36</v>
@@ -22218,10 +22280,10 @@
         <v>3</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R154" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
@@ -22470,31 +22532,31 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I156" t="n">
         <v>2.37</v>
       </c>
       <c r="J156" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K156" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L156" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M156" t="n">
         <v>1.09</v>
       </c>
       <c r="N156" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O156" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P156" t="n">
         <v>2.75</v>
@@ -22508,73 +22570,73 @@
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="V156" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W156" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X156" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Y156" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AA156" t="n">
         <v>8.5</v>
       </c>
       <c r="AB156" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC156" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD156" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF156" t="n">
         <v>40</v>
       </c>
-      <c r="AE156" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>37</v>
-      </c>
       <c r="AG156" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AH156" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AI156" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ156" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK156" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AL156" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AM156" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AN156" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AO156" t="n">
         <v>25</v>
       </c>
       <c r="AP156" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ156" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR156" t="inlineStr"/>
       <c r="AS156" t="inlineStr"/>
@@ -22782,10 +22844,10 @@
         <v>3</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R158" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
@@ -23055,7 +23117,7 @@
         <v>1.07</v>
       </c>
       <c r="N160" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O160" t="n">
         <v>1.36</v>
@@ -23884,13 +23946,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H166" t="n">
         <v>3.5</v>
       </c>
       <c r="I166" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J166" t="n">
         <v>3</v>
@@ -23902,10 +23964,10 @@
         <v>3.2</v>
       </c>
       <c r="M166" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N166" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O166" t="n">
         <v>1.25</v>
@@ -23979,7 +24041,7 @@
         <v>15</v>
       </c>
       <c r="AN166" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO166" t="n">
         <v>26</v>
@@ -23988,7 +24050,7 @@
         <v>21</v>
       </c>
       <c r="AQ166" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR166" t="inlineStr"/>
       <c r="AS166" t="inlineStr"/>
@@ -24169,7 +24231,7 @@
         <v>1.14</v>
       </c>
       <c r="H168" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I168" t="n">
         <v>17</v>
@@ -24178,7 +24240,7 @@
         <v>1.5</v>
       </c>
       <c r="K168" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L168" t="n">
         <v>11</v>
@@ -24190,16 +24252,16 @@
         <v>23</v>
       </c>
       <c r="O168" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P168" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R168" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
@@ -24222,7 +24284,7 @@
         <v>1.8</v>
       </c>
       <c r="AA168" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB168" t="n">
         <v>8</v>
@@ -24240,13 +24302,13 @@
         <v>26</v>
       </c>
       <c r="AG168" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH168" t="n">
         <v>15</v>
       </c>
       <c r="AI168" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ168" t="n">
         <v>51</v>
@@ -24258,19 +24320,19 @@
         <v>41</v>
       </c>
       <c r="AM168" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN168" t="n">
         <v>41</v>
       </c>
       <c r="AO168" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP168" t="n">
+        <v>101</v>
+      </c>
+      <c r="AQ168" t="n">
         <v>81</v>
-      </c>
-      <c r="AQ168" t="n">
-        <v>67</v>
       </c>
       <c r="AR168" t="inlineStr"/>
       <c r="AS168" t="inlineStr"/>
@@ -24307,13 +24369,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H169" t="n">
         <v>3.1</v>
       </c>
       <c r="I169" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J169" t="n">
         <v>4</v>
@@ -24331,10 +24393,10 @@
         <v>7.5</v>
       </c>
       <c r="O169" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P169" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q169" t="n">
         <v>2.3</v>
@@ -24387,16 +24449,16 @@
         <v>6</v>
       </c>
       <c r="AI169" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ169" t="n">
         <v>51</v>
       </c>
       <c r="AK169" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL169" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM169" t="n">
         <v>10</v>
@@ -24484,16 +24546,16 @@
         <v>2.3</v>
       </c>
       <c r="S170" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T170" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U170" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V170" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W170" t="n">
         <v>1.29</v>
@@ -24679,7 +24741,7 @@
         <v>51</v>
       </c>
       <c r="AK171" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL171" t="n">
         <v>15</v>
@@ -25029,7 +25091,7 @@
         <v>4.5</v>
       </c>
       <c r="J174" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K174" t="n">
         <v>2.1</v>
@@ -26289,63 +26351,63 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H183" t="n">
         <v>3.4</v>
       </c>
       <c r="I183" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J183" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K183" t="n">
         <v>2.15</v>
       </c>
       <c r="L183" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="M183" t="n">
         <v>1.07</v>
       </c>
       <c r="N183" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="O183" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P183" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Q183" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R183" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V183" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W183" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X183" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Y183" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Z183" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="AA183" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB183" t="n">
         <v>8.25</v>
@@ -26357,31 +26419,31 @@
         <v>15</v>
       </c>
       <c r="AE183" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF183" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG183" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AH183" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI183" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ183" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK183" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AL183" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM183" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN183" t="n">
         <v>14</v>
@@ -26604,7 +26666,7 @@
         <v>2.4</v>
       </c>
       <c r="R185" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
@@ -26746,18 +26808,18 @@
         <v>3.75</v>
       </c>
       <c r="Q186" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R186" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V186" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W186" t="n">
         <v>1.36</v>
@@ -26857,22 +26919,22 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H187" t="n">
         <v>3.1</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J187" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K187" t="n">
         <v>2.1</v>
       </c>
       <c r="L187" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M187" t="n">
         <v>1.07</v>
@@ -26890,7 +26952,7 @@
         <v>2.05</v>
       </c>
       <c r="R187" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
@@ -26916,16 +26978,16 @@
         <v>8</v>
       </c>
       <c r="AB187" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC187" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD187" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE187" t="n">
         <v>21</v>
-      </c>
-      <c r="AE187" t="n">
-        <v>19</v>
       </c>
       <c r="AF187" t="n">
         <v>29</v>
@@ -26937,7 +26999,7 @@
         <v>6</v>
       </c>
       <c r="AI187" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ187" t="n">
         <v>51</v>
@@ -26946,7 +27008,7 @@
         <v>251</v>
       </c>
       <c r="AL187" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM187" t="n">
         <v>15</v>
@@ -26955,10 +27017,10 @@
         <v>11</v>
       </c>
       <c r="AO187" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP187" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ187" t="n">
         <v>34</v>
@@ -27310,10 +27372,10 @@
         <v>3</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R190" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
@@ -27735,24 +27797,24 @@
         <v>15</v>
       </c>
       <c r="O193" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P193" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q193" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R193" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V193" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W193" t="n">
         <v>1.33</v>
@@ -27870,16 +27932,16 @@
         <v>5</v>
       </c>
       <c r="M194" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N194" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O194" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P194" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q194" t="n">
         <v>1.7</v>
@@ -28279,111 +28341,111 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H197" t="n">
         <v>3.95</v>
       </c>
       <c r="I197" t="n">
+        <v>6</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L197" t="n">
         <v>5.8</v>
       </c>
-      <c r="J197" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K197" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L197" t="n">
-        <v>5.6</v>
-      </c>
       <c r="M197" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N197" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="O197" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P197" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q197" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="R197" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="V197" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W197" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X197" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Y197" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="Z197" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="AA197" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AB197" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="AC197" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD197" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE197" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF197" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG197" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AH197" t="n">
         <v>7.7</v>
       </c>
       <c r="AI197" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AJ197" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AK197" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AL197" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM197" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN197" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO197" t="n">
         <v>120</v>
       </c>
       <c r="AP197" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AQ197" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR197" t="inlineStr"/>
       <c r="AS197" t="inlineStr"/>
@@ -28914,13 +28976,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H202" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I202" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J202" t="n">
         <v>4.75</v>
@@ -28979,13 +29041,13 @@
         <v>15</v>
       </c>
       <c r="AD202" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE202" t="n">
         <v>34</v>
       </c>
       <c r="AF202" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG202" t="n">
         <v>13</v>
@@ -29006,13 +29068,13 @@
         <v>8</v>
       </c>
       <c r="AM202" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN202" t="n">
         <v>8.5</v>
       </c>
       <c r="AO202" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP202" t="n">
         <v>13</v>
@@ -29055,7 +29117,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H203" t="n">
         <v>4.5</v>
@@ -29076,7 +29138,7 @@
         <v>1.03</v>
       </c>
       <c r="N203" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O203" t="n">
         <v>1.17</v>
@@ -29091,10 +29153,10 @@
         <v>2.35</v>
       </c>
       <c r="S203" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T203" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U203" t="n">
         <v>2.38</v>
@@ -29133,13 +29195,13 @@
         <v>21</v>
       </c>
       <c r="AG203" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH203" t="n">
         <v>9</v>
       </c>
       <c r="AI203" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ203" t="n">
         <v>41</v>
@@ -29157,7 +29219,7 @@
         <v>17</v>
       </c>
       <c r="AO203" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP203" t="n">
         <v>41</v>
@@ -29209,7 +29271,7 @@
         <v>2.55</v>
       </c>
       <c r="J204" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K204" t="n">
         <v>2.1</v>
@@ -29218,10 +29280,10 @@
         <v>3.4</v>
       </c>
       <c r="M204" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N204" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O204" t="n">
         <v>1.33</v>
@@ -29256,10 +29318,10 @@
         <v>1.91</v>
       </c>
       <c r="AA204" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB204" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC204" t="n">
         <v>10</v>
@@ -29571,10 +29633,10 @@
         <v>4</v>
       </c>
       <c r="M207" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N207" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O207" t="n">
         <v>1.29</v>
@@ -29831,7 +29893,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="H209" t="n">
         <v>2.82</v>
@@ -29840,13 +29902,13 @@
         <v>2.77</v>
       </c>
       <c r="J209" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K209" t="n">
         <v>1.83</v>
       </c>
       <c r="L209" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M209" t="n">
         <v>1.1</v>
@@ -29887,13 +29949,13 @@
         <v>1.65</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB209" t="n">
         <v>12</v>
       </c>
       <c r="AC209" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD209" t="n">
         <v>32</v>
@@ -29920,22 +29982,22 @@
         <v>1000</v>
       </c>
       <c r="AL209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AM209" t="n">
         <v>12.5</v>
       </c>
       <c r="AN209" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO209" t="n">
         <v>35</v>
       </c>
       <c r="AP209" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ209" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR209" t="inlineStr"/>
       <c r="AS209" t="inlineStr"/>
@@ -29972,30 +30034,30 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H210" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I210" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J210" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K210" t="n">
         <v>2.1</v>
       </c>
       <c r="L210" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P210" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q210" t="n">
         <v>1.93</v>
@@ -30006,10 +30068,10 @@
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="V210" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W210" t="n">
         <v>1.42</v>
@@ -30024,7 +30086,7 @@
         <v>1.65</v>
       </c>
       <c r="AA210" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB210" t="n">
         <v>6.6</v>
@@ -30033,7 +30095,7 @@
         <v>8.25</v>
       </c>
       <c r="AD210" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE210" t="n">
         <v>13.5</v>
@@ -30045,34 +30107,34 @@
         <v>9</v>
       </c>
       <c r="AH210" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI210" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AJ210" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK210" t="n">
         <v>900</v>
       </c>
       <c r="AL210" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM210" t="n">
         <v>35</v>
       </c>
       <c r="AN210" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO210" t="n">
         <v>120</v>
       </c>
       <c r="AP210" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AQ210" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR210" t="inlineStr"/>
       <c r="AS210" t="inlineStr"/>
@@ -30109,22 +30171,22 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H211" t="n">
         <v>3.3</v>
       </c>
       <c r="I211" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J211" t="n">
         <v>2.75</v>
       </c>
       <c r="K211" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L211" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M211" t="n">
         <v>1.04</v>
@@ -30159,10 +30221,10 @@
         <v>3.25</v>
       </c>
       <c r="Y211" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z211" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA211" t="n">
         <v>10</v>
@@ -30171,7 +30233,7 @@
         <v>12</v>
       </c>
       <c r="AC211" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD211" t="n">
         <v>21</v>
@@ -30180,7 +30242,7 @@
         <v>17</v>
       </c>
       <c r="AF211" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG211" t="n">
         <v>13</v>
@@ -30192,7 +30254,7 @@
         <v>11</v>
       </c>
       <c r="AJ211" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK211" t="n">
         <v>126</v>
@@ -30406,7 +30468,7 @@
         <v>2.3</v>
       </c>
       <c r="L213" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M213" t="n">
         <v>1.03</v>
@@ -30421,10 +30483,10 @@
         <v>4.5</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R213" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S213" t="n">
         <v>2.03</v>
@@ -30475,16 +30537,16 @@
         <v>7</v>
       </c>
       <c r="AI213" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ213" t="n">
         <v>34</v>
       </c>
       <c r="AK213" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL213" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM213" t="n">
         <v>13</v>
@@ -30966,19 +31028,19 @@
         <v>2.05</v>
       </c>
       <c r="H217" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I217" t="n">
         <v>3.4</v>
       </c>
       <c r="J217" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K217" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L217" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M217" t="n">
         <v>1.03</v>
@@ -30987,28 +31049,28 @@
         <v>15</v>
       </c>
       <c r="O217" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P217" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q217" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R217" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S217" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T217" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U217" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V217" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W217" t="n">
         <v>1.3</v>
@@ -31017,10 +31079,10 @@
         <v>3.4</v>
       </c>
       <c r="Y217" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z217" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA217" t="n">
         <v>10</v>
@@ -31044,19 +31106,19 @@
         <v>15</v>
       </c>
       <c r="AH217" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI217" t="n">
         <v>12</v>
       </c>
       <c r="AJ217" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK217" t="n">
         <v>126</v>
       </c>
       <c r="AL217" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM217" t="n">
         <v>19</v>
@@ -31273,28 +31335,28 @@
         <v>15</v>
       </c>
       <c r="O219" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P219" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q219" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R219" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S219" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T219" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U219" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V219" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W219" t="n">
         <v>1.3</v>
@@ -31424,10 +31486,10 @@
         <v>4.5</v>
       </c>
       <c r="Q220" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R220" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S220" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -993,7 +993,7 @@
         <v>2.63</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1028,16 +1028,16 @@
         <v>3.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1052,13 +1052,13 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1079,7 +1079,7 @@
         <v>81</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1155,10 +1155,10 @@
         <v>2.3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
         <v>2.5</v>
@@ -1264,28 +1264,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1294,10 +1294,10 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
         <v>2.07</v>
@@ -1306,10 +1306,10 @@
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
         <v>1.3</v>
@@ -1327,16 +1327,16 @@
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>26</v>
@@ -1354,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
@@ -1363,13 +1363,13 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
@@ -1550,22 +1550,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1580,10 +1580,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1745,13 +1745,13 @@
         <v>3.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1760,16 +1760,16 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>6.5</v>
@@ -1793,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
@@ -1839,10 +1839,10 @@
         <v>4.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
         <v>4.5</v>
@@ -1890,10 +1890,10 @@
         <v>3.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -1981,13 +1981,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
         <v>1.62</v>
@@ -2017,10 +2017,10 @@
         <v>2.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -2041,13 +2041,13 @@
         <v>1.67</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2071,7 +2071,7 @@
         <v>81</v>
       </c>
       <c r="AK11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
@@ -2083,13 +2083,13 @@
         <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AQ11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2311,10 +2311,10 @@
         <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y13" t="n">
         <v>1.8</v>
@@ -2353,7 +2353,7 @@
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
@@ -2553,13 +2553,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
@@ -2571,10 +2571,10 @@
         <v>2.05</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -2631,7 +2631,7 @@
         <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>8.5</v>
@@ -2655,7 +2655,7 @@
         <v>8.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>11</v>
@@ -2846,10 +2846,10 @@
         <v>1.44</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -2879,10 +2879,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -2906,7 +2906,7 @@
         <v>8.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
         <v>8</v>
@@ -2924,7 +2924,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -2936,10 +2936,10 @@
         <v>201</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
         <v>17</v>
@@ -3167,10 +3167,10 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
         <v>1.5</v>
@@ -3270,28 +3270,28 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J20" t="n">
         <v>4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.33</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
@@ -3306,10 +3306,10 @@
         <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T20" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
@@ -3324,25 +3324,25 @@
         <v>3.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
         <v>41</v>
       </c>
       <c r="AE20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
         <v>29</v>
@@ -3372,7 +3372,7 @@
         <v>8.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>13</v>
@@ -3436,19 +3436,19 @@
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3574,10 +3574,10 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.57</v>
@@ -3586,16 +3586,16 @@
         <v>2.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U22" t="n">
         <v>6</v>
@@ -3735,10 +3735,10 @@
         <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
         <v>2.95</v>
@@ -3819,7 +3819,7 @@
         <v>1.56</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="24">
@@ -4214,7 +4214,7 @@
         <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
         <v>29</v>
@@ -4226,7 +4226,7 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AH26" t="n">
         <v>5.5</v>
@@ -4311,10 +4311,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.57</v>
@@ -4594,13 +4594,13 @@
         <v>1.83</v>
       </c>
       <c r="L29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>1.67</v>
@@ -4623,16 +4623,16 @@
         <v>1.11</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA29" t="n">
         <v>4.5</v>
@@ -4641,13 +4641,13 @@
         <v>7</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>51</v>
@@ -4674,16 +4674,16 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP29" t="n">
         <v>51</v>
       </c>
       <c r="AQ29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -4901,10 +4901,10 @@
         <v>2.38</v>
       </c>
       <c r="S31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
         <v>2.38</v>
@@ -4946,7 +4946,7 @@
         <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" t="n">
         <v>13</v>
@@ -5028,10 +5028,10 @@
         <v>2.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O32" t="n">
         <v>1.13</v>
@@ -5155,13 +5155,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J33" t="n">
         <v>4.75</v>
@@ -5170,7 +5170,7 @@
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -5179,16 +5179,16 @@
         <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R33" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5199,10 +5199,10 @@
         <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y33" t="n">
         <v>1.8</v>
@@ -5211,10 +5211,10 @@
         <v>1.95</v>
       </c>
       <c r="AA33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
         <v>15</v>
@@ -5241,7 +5241,7 @@
         <v>51</v>
       </c>
       <c r="AK33" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL33" t="n">
         <v>7.5</v>
@@ -5259,7 +5259,7 @@
         <v>15</v>
       </c>
       <c r="AQ33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
@@ -5296,22 +5296,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
         <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -5352,19 +5352,19 @@
         <v>2.05</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
         <v>29</v>
@@ -5373,7 +5373,7 @@
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI34" t="n">
         <v>13</v>
@@ -5388,19 +5388,19 @@
         <v>9</v>
       </c>
       <c r="AM34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>26</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>29</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5878,22 +5878,22 @@
         <v>3.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R38" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5916,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="AA38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
         <v>12</v>
@@ -5934,7 +5934,7 @@
         <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
         <v>6.5</v>
@@ -5943,13 +5943,13 @@
         <v>15</v>
       </c>
       <c r="AJ38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK38" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM38" t="n">
         <v>15</v>
@@ -6001,40 +6001,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="J39" t="n">
         <v>4.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S39" t="n">
         <v>2.05</v>
@@ -6043,16 +6043,16 @@
         <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X39" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y39" t="n">
         <v>1.7</v>
@@ -6064,7 +6064,7 @@
         <v>13</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
         <v>13</v>
@@ -6094,7 +6094,7 @@
         <v>201</v>
       </c>
       <c r="AL39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM39" t="n">
         <v>9</v>
@@ -6149,7 +6149,7 @@
         <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
         <v>4.33</v>
@@ -6161,13 +6161,13 @@
         <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -6244,13 +6244,13 @@
         <v>15</v>
       </c>
       <c r="AO40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP40" t="n">
         <v>34</v>
       </c>
       <c r="AQ40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6287,13 +6287,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J41" t="n">
         <v>1.83</v>
@@ -6305,10 +6305,10 @@
         <v>7.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
@@ -6343,7 +6343,7 @@
         <v>1.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
         <v>6.5</v>
@@ -6358,13 +6358,13 @@
         <v>11</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG41" t="n">
         <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI41" t="n">
         <v>21</v>
@@ -6373,7 +6373,7 @@
         <v>67</v>
       </c>
       <c r="AK41" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="n">
         <v>19</v>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
@@ -6868,10 +6868,10 @@
         <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L45" t="n">
         <v>5.5</v>
@@ -6951,7 +6951,7 @@
         <v>12</v>
       </c>
       <c r="AM45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN45" t="n">
         <v>17</v>
@@ -7000,13 +7000,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J46" t="n">
         <v>2.75</v>
@@ -7018,10 +7018,10 @@
         <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -7056,7 +7056,7 @@
         <v>1.83</v>
       </c>
       <c r="AA46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
         <v>9</v>
@@ -7092,7 +7092,7 @@
         <v>11</v>
       </c>
       <c r="AM46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
         <v>15</v>
@@ -7163,34 +7163,34 @@
         <v>3.2</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V47" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.29</v>
       </c>
       <c r="W47" t="n">
         <v>1.44</v>
@@ -7256,10 +7256,10 @@
         <v>29</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="48">
@@ -7303,7 +7303,7 @@
         <v>3.7</v>
       </c>
       <c r="J48" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K48" t="n">
         <v>2.2</v>
@@ -7312,10 +7312,10 @@
         <v>4.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
         <v>1.29</v>
@@ -7366,7 +7366,7 @@
         <v>17</v>
       </c>
       <c r="AE48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
         <v>26</v>
@@ -7402,7 +7402,7 @@
         <v>29</v>
       </c>
       <c r="AQ48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR48" t="n">
         <v>1.45</v>
@@ -7506,7 +7506,7 @@
         <v>8.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC49" t="n">
         <v>8.5</v>
@@ -7610,10 +7610,10 @@
         <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
         <v>1.29</v>
@@ -7664,7 +7664,7 @@
         <v>17</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF50" t="n">
         <v>26</v>
@@ -7700,7 +7700,7 @@
         <v>29</v>
       </c>
       <c r="AQ50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR50" t="n">
         <v>1.44</v>
@@ -7762,7 +7762,7 @@
         <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>1.29</v>
@@ -7771,18 +7771,18 @@
         <v>3.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W51" t="n">
         <v>1.4</v>
@@ -7900,16 +7900,16 @@
         <v>2.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q52" t="n">
         <v>1.7</v>
@@ -8168,16 +8168,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
         <v>2.25</v>
@@ -8192,24 +8192,24 @@
         <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W54" t="n">
         <v>1.33</v>
@@ -8230,7 +8230,7 @@
         <v>15</v>
       </c>
       <c r="AC54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
         <v>29</v>
@@ -8269,7 +8269,7 @@
         <v>23</v>
       </c>
       <c r="AP54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ54" t="n">
         <v>23</v>
@@ -8327,10 +8327,10 @@
         <v>4.75</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>1.5</v>
@@ -8420,10 +8420,10 @@
         <v>51</v>
       </c>
       <c r="AR55" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="56">
@@ -8476,10 +8476,10 @@
         <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O56" t="n">
         <v>1.33</v>
@@ -8488,10 +8488,10 @@
         <v>3.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R56" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S56" t="n">
         <v>3.05</v>
@@ -8607,13 +8607,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
@@ -8622,7 +8622,7 @@
         <v>1.91</v>
       </c>
       <c r="L57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.11</v>
@@ -8684,7 +8684,7 @@
         <v>6</v>
       </c>
       <c r="AH57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI57" t="n">
         <v>23</v>
@@ -8699,7 +8699,7 @@
         <v>4.75</v>
       </c>
       <c r="AM57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
@@ -8773,7 +8773,7 @@
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
         <v>1.29</v>
@@ -9175,13 +9175,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H61" t="n">
         <v>3.45</v>
       </c>
       <c r="I61" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J61" t="n">
         <v>3.5</v>
@@ -9190,7 +9190,7 @@
         <v>2.12</v>
       </c>
       <c r="L61" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9231,10 +9231,10 @@
         <v>2.05</v>
       </c>
       <c r="AA61" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC61" t="n">
         <v>11.25</v>
@@ -9243,10 +9243,10 @@
         <v>40</v>
       </c>
       <c r="AE61" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF61" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG61" t="n">
         <v>8</v>
@@ -9264,10 +9264,10 @@
         <v>500</v>
       </c>
       <c r="AL61" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN61" t="n">
         <v>9.5</v>
@@ -9279,7 +9279,7 @@
         <v>19</v>
       </c>
       <c r="AQ61" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -9346,16 +9346,16 @@
         <v>5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R62" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S62" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T62" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U62" t="n">
         <v>2.38</v>
@@ -9482,7 +9482,7 @@
         <v>1.06</v>
       </c>
       <c r="N63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O63" t="n">
         <v>1.3</v>
@@ -9491,18 +9491,18 @@
         <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V63" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W63" t="n">
         <v>1.44</v>
@@ -9938,10 +9938,10 @@
         <v>3.25</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA66" t="n">
         <v>7</v>
@@ -10079,10 +10079,10 @@
         <v>2.75</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA67" t="n">
         <v>12</v>
@@ -10103,7 +10103,7 @@
         <v>41</v>
       </c>
       <c r="AG67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH67" t="n">
         <v>7</v>
@@ -10220,10 +10220,10 @@
         <v>2.63</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA68" t="n">
         <v>7.5</v>
@@ -10364,7 +10364,7 @@
         <v>2.25</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA69" t="n">
         <v>6.5</v>
@@ -10452,13 +10452,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
         <v>3.25</v>
       </c>
       <c r="I70" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J70" t="n">
         <v>3.75</v>
@@ -10467,7 +10467,7 @@
         <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
@@ -10502,10 +10502,10 @@
         <v>2.63</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA70" t="n">
         <v>9</v>
@@ -10514,7 +10514,7 @@
         <v>15</v>
       </c>
       <c r="AC70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD70" t="n">
         <v>34</v>
@@ -10752,10 +10752,10 @@
         <v>8</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O72" t="n">
         <v>1.25</v>
@@ -11037,7 +11037,7 @@
         <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O74" t="n">
         <v>1.33</v>
@@ -11187,10 +11187,10 @@
         <v>3.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R75" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -11298,16 +11298,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>3.2</v>
       </c>
       <c r="I76" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J76" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K76" t="n">
         <v>2.05</v>
@@ -11354,16 +11354,16 @@
         <v>1.83</v>
       </c>
       <c r="AA76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB76" t="n">
         <v>15</v>
       </c>
       <c r="AC76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE76" t="n">
         <v>26</v>
@@ -11396,7 +11396,7 @@
         <v>9.5</v>
       </c>
       <c r="AO76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP76" t="n">
         <v>21</v>
@@ -11469,18 +11469,18 @@
         <v>3.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R77" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W77" t="n">
         <v>1.4</v>
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H78" t="n">
         <v>3.6</v>
@@ -11592,7 +11592,7 @@
         <v>2.3</v>
       </c>
       <c r="K78" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L78" t="n">
         <v>5.5</v>
@@ -11604,24 +11604,24 @@
         <v>9</v>
       </c>
       <c r="O78" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P78" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R78" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V78" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W78" t="n">
         <v>1.44</v>
@@ -11630,13 +11630,13 @@
         <v>2.63</v>
       </c>
       <c r="Y78" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA78" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB78" t="n">
         <v>7.5</v>
@@ -11660,13 +11660,13 @@
         <v>7</v>
       </c>
       <c r="AI78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ78" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK78" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL78" t="n">
         <v>12</v>
@@ -11684,7 +11684,7 @@
         <v>41</v>
       </c>
       <c r="AQ78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11721,13 +11721,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J79" t="n">
         <v>2.88</v>
@@ -11736,7 +11736,7 @@
         <v>2.2</v>
       </c>
       <c r="L79" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -11771,13 +11771,13 @@
         <v>2.75</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z79" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB79" t="n">
         <v>11</v>
@@ -11810,22 +11810,22 @@
         <v>201</v>
       </c>
       <c r="AL79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM79" t="n">
         <v>17</v>
       </c>
       <c r="AN79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO79" t="n">
         <v>34</v>
       </c>
       <c r="AP79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11862,22 +11862,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I80" t="n">
         <v>3.4</v>
       </c>
-      <c r="I80" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J80" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
         <v>1.06</v>
@@ -11892,10 +11892,10 @@
         <v>3.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -11921,19 +11921,19 @@
         <v>7.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC80" t="n">
         <v>9</v>
       </c>
       <c r="AD80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE80" t="n">
         <v>17</v>
       </c>
       <c r="AF80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG80" t="n">
         <v>10</v>
@@ -11951,16 +11951,16 @@
         <v>251</v>
       </c>
       <c r="AL80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN80" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP80" t="n">
         <v>29</v>
@@ -12033,18 +12033,18 @@
         <v>3.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R81" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V81" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W81" t="n">
         <v>1.4</v>
@@ -12092,7 +12092,7 @@
         <v>201</v>
       </c>
       <c r="AL81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM81" t="n">
         <v>11</v>
@@ -12588,7 +12588,7 @@
         <v>1.08</v>
       </c>
       <c r="N85" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O85" t="n">
         <v>1.4</v>
@@ -12597,18 +12597,18 @@
         <v>2.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R85" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V85" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W85" t="n">
         <v>1.5</v>
@@ -12712,13 +12712,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H86" t="n">
         <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J86" t="n">
         <v>2.6</v>
@@ -12772,7 +12772,7 @@
         <v>2</v>
       </c>
       <c r="AA86" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB86" t="n">
         <v>9.5</v>
@@ -12857,28 +12857,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H87" t="n">
         <v>3.4</v>
       </c>
       <c r="I87" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K87" t="n">
         <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O87" t="n">
         <v>1.4</v>
@@ -12916,13 +12916,13 @@
         <v>7.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD87" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE87" t="n">
         <v>23</v>
@@ -12931,7 +12931,7 @@
         <v>34</v>
       </c>
       <c r="AG87" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH87" t="n">
         <v>6.5</v>
@@ -12949,16 +12949,16 @@
         <v>7</v>
       </c>
       <c r="AM87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN87" t="n">
         <v>10</v>
       </c>
       <c r="AO87" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP87" t="n">
         <v>23</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>21</v>
       </c>
       <c r="AQ87" t="n">
         <v>34</v>
@@ -13164,7 +13164,7 @@
         <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O89" t="n">
         <v>1.33</v>
@@ -13173,10 +13173,10 @@
         <v>3.25</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R89" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
@@ -13322,10 +13322,10 @@
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Z90" t="n">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
       <c r="AA90" t="n">
         <v>15.5</v>
@@ -13413,40 +13413,40 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H91" t="n">
         <v>4.1</v>
       </c>
       <c r="I91" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="J91" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K91" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L91" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R91" t="n">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="V91" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
@@ -13460,16 +13460,16 @@
         <v>8.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AC91" t="n">
         <v>7.1</v>
       </c>
       <c r="AD91" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE91" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF91" t="n">
         <v>15.5</v>
@@ -13490,22 +13490,22 @@
         <v>175</v>
       </c>
       <c r="AL91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM91" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN91" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO91" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP91" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ91" t="n">
         <v>27</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>26</v>
       </c>
       <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr"/>
@@ -13560,13 +13560,13 @@
         <v>2.3</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
         <v>10</v>
       </c>
       <c r="O92" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P92" t="n">
         <v>3.25</v>
@@ -13583,7 +13583,7 @@
         <v>3.75</v>
       </c>
       <c r="V92" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="W92" t="n">
         <v>1.44</v>
@@ -13701,13 +13701,13 @@
         <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N93" t="n">
         <v>9.5</v>
       </c>
       <c r="O93" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="P93" t="n">
         <v>3.4</v>
@@ -13724,7 +13724,7 @@
         <v>3.5</v>
       </c>
       <c r="V93" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W93" t="n">
         <v>1.44</v>
@@ -13824,13 +13824,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I94" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
         <v>2.2</v>
@@ -13842,10 +13842,10 @@
         <v>5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N94" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O94" t="n">
         <v>1.2</v>
@@ -13892,7 +13892,7 @@
         <v>12</v>
       </c>
       <c r="AE94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF94" t="n">
         <v>23</v>
@@ -13907,7 +13907,7 @@
         <v>15</v>
       </c>
       <c r="AJ94" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK94" t="n">
         <v>201</v>
@@ -13919,7 +13919,7 @@
         <v>26</v>
       </c>
       <c r="AN94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO94" t="n">
         <v>51</v>
@@ -14243,13 +14243,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H97" t="n">
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J97" t="n">
         <v>2.25</v>
@@ -14302,7 +14302,7 @@
         <v>8.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC97" t="n">
         <v>8.5</v>
@@ -14314,13 +14314,13 @@
         <v>13</v>
       </c>
       <c r="AF97" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG97" t="n">
         <v>13</v>
       </c>
       <c r="AH97" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI97" t="n">
         <v>15</v>
@@ -14335,7 +14335,7 @@
         <v>15</v>
       </c>
       <c r="AM97" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN97" t="n">
         <v>15</v>
@@ -14384,13 +14384,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>3.3</v>
       </c>
       <c r="I98" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J98" t="n">
         <v>3.1</v>
@@ -14399,7 +14399,7 @@
         <v>2.25</v>
       </c>
       <c r="L98" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M98" t="n">
         <v>1.04</v>
@@ -14473,7 +14473,7 @@
         <v>151</v>
       </c>
       <c r="AL98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM98" t="n">
         <v>15</v>
@@ -15245,10 +15245,10 @@
         <v>2.2</v>
       </c>
       <c r="H104" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J104" t="n">
         <v>2.88</v>
@@ -15260,10 +15260,10 @@
         <v>3.6</v>
       </c>
       <c r="M104" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O104" t="n">
         <v>1.25</v>
@@ -15272,10 +15272,10 @@
         <v>3.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R104" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -15298,7 +15298,7 @@
         <v>2.1</v>
       </c>
       <c r="AA104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB104" t="n">
         <v>11</v>
@@ -15313,13 +15313,13 @@
         <v>17</v>
       </c>
       <c r="AF104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH104" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI104" t="n">
         <v>13</v>
@@ -15543,13 +15543,13 @@
         <v>2.1</v>
       </c>
       <c r="L106" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M106" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O106" t="n">
         <v>1.33</v>
@@ -15558,10 +15558,10 @@
         <v>3.25</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R106" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S106" t="n">
         <v>3.05</v>
@@ -15597,7 +15597,7 @@
         <v>10</v>
       </c>
       <c r="AD106" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE106" t="n">
         <v>21</v>
@@ -15826,13 +15826,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>5.5</v>
       </c>
       <c r="I108" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J108" t="n">
         <v>1.67</v>
@@ -15841,7 +15841,7 @@
         <v>2.5</v>
       </c>
       <c r="L108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M108" t="n">
         <v>1.06</v>
@@ -15880,10 +15880,10 @@
         <v>3</v>
       </c>
       <c r="Y108" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA108" t="n">
         <v>5.5</v>
@@ -15931,7 +15931,7 @@
         <v>251</v>
       </c>
       <c r="AP108" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AQ108" t="n">
         <v>126</v>
@@ -15975,22 +15975,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H109" t="n">
         <v>3.4</v>
       </c>
       <c r="I109" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J109" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K109" t="n">
         <v>2.2</v>
       </c>
       <c r="L109" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M109" t="n">
         <v>1.06</v>
@@ -16005,18 +16005,18 @@
         <v>3.5</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R109" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V109" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W109" t="n">
         <v>1.4</v>
@@ -16040,7 +16040,7 @@
         <v>8.5</v>
       </c>
       <c r="AD109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE109" t="n">
         <v>15</v>
@@ -16070,7 +16070,7 @@
         <v>21</v>
       </c>
       <c r="AN109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO109" t="n">
         <v>41</v>
@@ -16428,10 +16428,10 @@
         <v>3.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R112" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16448,7 +16448,7 @@
         <v>2.75</v>
       </c>
       <c r="Y112" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z112" t="n">
         <v>2.1</v>
@@ -16539,10 +16539,10 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I113" t="n">
         <v>4.2</v>
@@ -16554,7 +16554,7 @@
         <v>2.5</v>
       </c>
       <c r="L113" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M113" t="n">
         <v>1.02</v>
@@ -16569,7 +16569,7 @@
         <v>5.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R113" t="n">
         <v>2.5</v>
@@ -16589,10 +16589,10 @@
         <v>3.75</v>
       </c>
       <c r="Y113" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z113" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA113" t="n">
         <v>11</v>
@@ -16616,7 +16616,7 @@
         <v>19</v>
       </c>
       <c r="AH113" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI113" t="n">
         <v>13</v>
@@ -16954,33 +16954,33 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="H116" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I116" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="J116" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K116" t="n">
         <v>2.1</v>
       </c>
       <c r="L116" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P116" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R116" t="n">
         <v>1.7</v>
@@ -17006,49 +17006,49 @@
         <v>1.91</v>
       </c>
       <c r="AA116" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB116" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD116" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE116" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF116" t="n">
         <v>30</v>
       </c>
       <c r="AG116" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH116" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI116" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ116" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK116" t="n">
         <v>500</v>
       </c>
       <c r="AL116" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AM116" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN116" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO116" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP116" t="n">
         <v>22</v>
@@ -17796,13 +17796,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J122" t="n">
         <v>3</v>
@@ -17852,7 +17852,7 @@
         <v>1.8</v>
       </c>
       <c r="AA122" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB122" t="n">
         <v>10</v>
@@ -17873,7 +17873,7 @@
         <v>7.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI122" t="n">
         <v>15</v>
@@ -17967,10 +17967,10 @@
         <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R123" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
@@ -18241,30 +18241,30 @@
         <v>4.5</v>
       </c>
       <c r="M125" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O125" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P125" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R125" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V125" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W125" t="n">
         <v>1.5</v>
@@ -18394,10 +18394,10 @@
         <v>4</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R126" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S126" t="n">
         <v>2.05</v>
@@ -18527,10 +18527,10 @@
         <v>4.75</v>
       </c>
       <c r="M127" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N127" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O127" t="n">
         <v>1.4</v>
@@ -18791,16 +18791,16 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H129" t="n">
         <v>3.6</v>
       </c>
       <c r="I129" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J129" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K129" t="n">
         <v>1.95</v>
@@ -18809,10 +18809,10 @@
         <v>6</v>
       </c>
       <c r="M129" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O129" t="n">
         <v>1.5</v>
@@ -18850,10 +18850,10 @@
         <v>5</v>
       </c>
       <c r="AB129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC129" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD129" t="n">
         <v>13</v>
@@ -18874,7 +18874,7 @@
         <v>23</v>
       </c>
       <c r="AJ129" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK129" t="n">
         <v>101</v>
@@ -18886,7 +18886,7 @@
         <v>23</v>
       </c>
       <c r="AN129" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO129" t="n">
         <v>51</v>
@@ -18954,42 +18954,42 @@
         <v>4.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N130" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O130" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P130" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R130" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V130" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W130" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X130" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y130" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z130" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA130" t="n">
         <v>6</v>
@@ -19010,10 +19010,10 @@
         <v>41</v>
       </c>
       <c r="AG130" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI130" t="n">
         <v>19</v>
@@ -19031,22 +19031,22 @@
         <v>17</v>
       </c>
       <c r="AN130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO130" t="n">
         <v>41</v>
       </c>
       <c r="AP130" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ130" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR130" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="131">
@@ -19225,16 +19225,16 @@
         <v>4.2</v>
       </c>
       <c r="H132" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I132" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J132" t="n">
         <v>4.5</v>
       </c>
       <c r="K132" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L132" t="n">
         <v>2.63</v>
@@ -19272,10 +19272,10 @@
         <v>2.63</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z132" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA132" t="n">
         <v>11</v>
@@ -19302,13 +19302,13 @@
         <v>6.5</v>
       </c>
       <c r="AI132" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ132" t="n">
         <v>51</v>
       </c>
       <c r="AK132" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL132" t="n">
         <v>6.5</v>
@@ -19470,10 +19470,10 @@
         <v>41</v>
       </c>
       <c r="AR133" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -19923,13 +19923,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H137" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I137" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J137" t="n">
         <v>5</v>
@@ -19938,7 +19938,7 @@
         <v>2.2</v>
       </c>
       <c r="L137" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M137" t="n">
         <v>1.05</v>
@@ -19979,7 +19979,7 @@
         <v>1.95</v>
       </c>
       <c r="AA137" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB137" t="n">
         <v>23</v>
@@ -20024,7 +20024,7 @@
         <v>13</v>
       </c>
       <c r="AP137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ137" t="n">
         <v>26</v>
@@ -20064,28 +20064,28 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H138" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I138" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K138" t="n">
         <v>2.2</v>
       </c>
       <c r="L138" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M138" t="n">
         <v>1.04</v>
       </c>
       <c r="N138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O138" t="n">
         <v>1.25</v>
@@ -20114,28 +20114,28 @@
         <v>3</v>
       </c>
       <c r="Y138" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z138" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB138" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC138" t="n">
         <v>12</v>
       </c>
       <c r="AD138" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE138" t="n">
         <v>26</v>
       </c>
       <c r="AF138" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG138" t="n">
         <v>12</v>
@@ -20150,22 +20150,22 @@
         <v>41</v>
       </c>
       <c r="AK138" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL138" t="n">
         <v>8.5</v>
       </c>
       <c r="AM138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN138" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO138" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP138" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ138" t="n">
         <v>23</v>
@@ -20367,7 +20367,7 @@
         <v>1.03</v>
       </c>
       <c r="N140" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O140" t="n">
         <v>1.17</v>
@@ -20376,22 +20376,22 @@
         <v>5</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R140" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S140" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T140" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U140" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V140" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W140" t="n">
         <v>1.3</v>
@@ -20521,10 +20521,10 @@
         <v>4.33</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R141" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
@@ -20765,44 +20765,44 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="H143" t="n">
         <v>3.35</v>
       </c>
       <c r="I143" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="J143" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K143" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L143" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P143" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R143" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="V143" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W143" t="n">
         <v>1.39</v>
@@ -20811,61 +20811,61 @@
         <v>2.57</v>
       </c>
       <c r="Y143" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Z143" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AA143" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC143" t="n">
         <v>9.75</v>
       </c>
-      <c r="AB143" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD143" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE143" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ143" t="n">
         <v>25</v>
-      </c>
-      <c r="AF143" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG143" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AH143" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ143" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK143" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL143" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM143" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AO143" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP143" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ143" t="n">
-        <v>26</v>
       </c>
       <c r="AR143" t="inlineStr"/>
       <c r="AS143" t="inlineStr"/>
@@ -20905,19 +20905,19 @@
         <v>2.15</v>
       </c>
       <c r="H144" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I144" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J144" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="K144" t="n">
         <v>2.07</v>
       </c>
       <c r="L144" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
@@ -20925,7 +20925,7 @@
         <v>1.32</v>
       </c>
       <c r="P144" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="Q144" t="n">
         <v>1.93</v>
@@ -20942,10 +20942,10 @@
         <v>1.27</v>
       </c>
       <c r="W144" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X144" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="Y144" t="n">
         <v>1.72</v>
@@ -20954,25 +20954,25 @@
         <v>1.9</v>
       </c>
       <c r="AA144" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AB144" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC144" t="n">
         <v>8.75</v>
       </c>
       <c r="AD144" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE144" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF144" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG144" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH144" t="n">
         <v>6</v>
@@ -20981,28 +20981,28 @@
         <v>13.5</v>
       </c>
       <c r="AJ144" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK144" t="n">
         <v>500</v>
       </c>
       <c r="AL144" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AM144" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN144" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO144" t="n">
         <v>45</v>
       </c>
       <c r="AP144" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ144" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR144" t="inlineStr"/>
       <c r="AS144" t="inlineStr"/>
@@ -21039,7 +21039,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H145" t="n">
         <v>3.8</v>
@@ -21054,13 +21054,13 @@
         <v>2.5</v>
       </c>
       <c r="L145" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M145" t="n">
         <v>1.02</v>
       </c>
       <c r="N145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O145" t="n">
         <v>1.13</v>
@@ -21128,13 +21128,13 @@
         <v>81</v>
       </c>
       <c r="AL145" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM145" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO145" t="n">
         <v>34</v>
@@ -21143,7 +21143,7 @@
         <v>21</v>
       </c>
       <c r="AQ145" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR145" t="inlineStr"/>
       <c r="AS145" t="inlineStr"/>
@@ -21201,13 +21201,13 @@
         <v>1.08</v>
       </c>
       <c r="N146" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O146" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P146" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q146" t="n">
         <v>2.25</v>
@@ -21321,22 +21321,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="H147" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I147" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J147" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K147" t="n">
         <v>2.1</v>
       </c>
       <c r="L147" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M147" t="n">
         <v>1.08</v>
@@ -21351,10 +21351,10 @@
         <v>3.25</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R147" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
@@ -21380,16 +21380,16 @@
         <v>6.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC147" t="n">
         <v>9</v>
       </c>
       <c r="AD147" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE147" t="n">
         <v>15</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>17</v>
       </c>
       <c r="AF147" t="n">
         <v>29</v>
@@ -21398,22 +21398,22 @@
         <v>8</v>
       </c>
       <c r="AH147" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ147" t="n">
         <v>51</v>
       </c>
       <c r="AK147" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM147" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN147" t="n">
         <v>17</v>
@@ -21425,7 +21425,7 @@
         <v>41</v>
       </c>
       <c r="AQ147" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -21492,16 +21492,16 @@
         <v>3.75</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R148" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S148" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="T148" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U148" t="n">
         <v>3</v>
@@ -21573,10 +21573,10 @@
         <v>41</v>
       </c>
       <c r="AR148" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -21623,7 +21623,7 @@
         <v>2</v>
       </c>
       <c r="K149" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L149" t="n">
         <v>7</v>
@@ -21632,19 +21632,19 @@
         <v>1.06</v>
       </c>
       <c r="N149" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O149" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P149" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R149" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S149" t="n">
         <v>1.88</v>
@@ -21653,10 +21653,10 @@
         <v>1.98</v>
       </c>
       <c r="U149" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="V149" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W149" t="n">
         <v>1.42</v>
@@ -21671,7 +21671,7 @@
         <v>1.7</v>
       </c>
       <c r="AA149" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB149" t="n">
         <v>6.5</v>
@@ -21704,7 +21704,7 @@
         <v>351</v>
       </c>
       <c r="AL149" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM149" t="n">
         <v>34</v>
@@ -21722,10 +21722,10 @@
         <v>51</v>
       </c>
       <c r="AR149" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="150">
@@ -21760,28 +21760,28 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H150" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I150" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J150" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K150" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L150" t="n">
         <v>5</v>
       </c>
       <c r="M150" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N150" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O150" t="n">
         <v>1.3</v>
@@ -21790,16 +21790,16 @@
         <v>3.4</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R150" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S150" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T150" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U150" t="n">
         <v>3.5</v>
@@ -21808,10 +21808,10 @@
         <v>1.29</v>
       </c>
       <c r="W150" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X150" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y150" t="n">
         <v>1.83</v>
@@ -21829,7 +21829,7 @@
         <v>8.5</v>
       </c>
       <c r="AD150" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE150" t="n">
         <v>15</v>
@@ -21838,7 +21838,7 @@
         <v>29</v>
       </c>
       <c r="AG150" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH150" t="n">
         <v>7</v>
@@ -21853,10 +21853,10 @@
         <v>301</v>
       </c>
       <c r="AL150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM150" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN150" t="n">
         <v>15</v>
@@ -21871,10 +21871,10 @@
         <v>41</v>
       </c>
       <c r="AR150" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="151">
@@ -21930,7 +21930,7 @@
         <v>1.07</v>
       </c>
       <c r="N151" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O151" t="n">
         <v>1.33</v>
@@ -21939,10 +21939,10 @@
         <v>3.25</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R151" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
@@ -22050,22 +22050,22 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H152" t="n">
         <v>3.1</v>
       </c>
       <c r="I152" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J152" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K152" t="n">
         <v>2.25</v>
       </c>
       <c r="L152" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M152" t="n">
         <v>1.04</v>
@@ -22118,7 +22118,7 @@
         <v>26</v>
       </c>
       <c r="AE152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF152" t="n">
         <v>26</v>
@@ -22151,7 +22151,7 @@
         <v>26</v>
       </c>
       <c r="AP152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ152" t="n">
         <v>26</v>
@@ -22473,13 +22473,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H155" t="n">
         <v>3.2</v>
       </c>
       <c r="I155" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J155" t="n">
         <v>4</v>
@@ -22488,13 +22488,13 @@
         <v>2.05</v>
       </c>
       <c r="L155" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M155" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N155" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O155" t="n">
         <v>1.36</v>
@@ -22532,13 +22532,13 @@
         <v>9</v>
       </c>
       <c r="AB155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC155" t="n">
         <v>12</v>
       </c>
       <c r="AD155" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE155" t="n">
         <v>29</v>
@@ -22565,13 +22565,13 @@
         <v>7</v>
       </c>
       <c r="AM155" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN155" t="n">
         <v>9.5</v>
       </c>
       <c r="AO155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP155" t="n">
         <v>19</v>
@@ -22755,22 +22755,22 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H157" t="n">
         <v>3</v>
       </c>
       <c r="I157" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J157" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K157" t="n">
         <v>2</v>
       </c>
       <c r="L157" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M157" t="n">
         <v>1.08</v>
@@ -22811,19 +22811,19 @@
         <v>1.91</v>
       </c>
       <c r="AA157" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC157" t="n">
         <v>10</v>
       </c>
       <c r="AD157" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE157" t="n">
         <v>23</v>
-      </c>
-      <c r="AE157" t="n">
-        <v>21</v>
       </c>
       <c r="AF157" t="n">
         <v>34</v>
@@ -22844,22 +22844,22 @@
         <v>301</v>
       </c>
       <c r="AL157" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN157" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO157" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ157" t="n">
         <v>34</v>
-      </c>
-      <c r="AP157" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ157" t="n">
-        <v>41</v>
       </c>
       <c r="AR157" t="inlineStr"/>
       <c r="AS157" t="inlineStr"/>
@@ -22896,40 +22896,40 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H158" t="n">
         <v>3.75</v>
       </c>
       <c r="I158" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J158" t="n">
         <v>5.5</v>
       </c>
       <c r="K158" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L158" t="n">
         <v>2.3</v>
       </c>
       <c r="M158" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O158" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P158" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R158" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
@@ -22940,10 +22940,10 @@
         <v>1.29</v>
       </c>
       <c r="W158" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X158" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y158" t="n">
         <v>1.95</v>
@@ -22970,19 +22970,19 @@
         <v>41</v>
       </c>
       <c r="AG158" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH158" t="n">
         <v>7</v>
       </c>
       <c r="AI158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ158" t="n">
         <v>51</v>
       </c>
       <c r="AK158" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL158" t="n">
         <v>6.5</v>
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H160" t="n">
         <v>3.1</v>
       </c>
       <c r="I160" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J160" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K160" t="n">
         <v>1.95</v>
@@ -23341,10 +23341,10 @@
         <v>5.5</v>
       </c>
       <c r="M161" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O161" t="n">
         <v>1.36</v>
@@ -23409,7 +23409,7 @@
         <v>67</v>
       </c>
       <c r="AK161" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL161" t="n">
         <v>11</v>
@@ -23482,10 +23482,10 @@
         <v>4.75</v>
       </c>
       <c r="M162" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N162" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O162" t="n">
         <v>1.36</v>
@@ -23494,10 +23494,10 @@
         <v>3</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R162" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H164" t="n">
         <v>3.5</v>
@@ -23755,7 +23755,7 @@
         <v>3.6</v>
       </c>
       <c r="J164" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K164" t="n">
         <v>2.1</v>
@@ -23764,10 +23764,10 @@
         <v>4</v>
       </c>
       <c r="M164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N164" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O164" t="n">
         <v>1.29</v>
@@ -23776,10 +23776,10 @@
         <v>3.5</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R164" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
@@ -23805,22 +23805,22 @@
         <v>8</v>
       </c>
       <c r="AB164" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC164" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD164" t="n">
         <v>17</v>
       </c>
       <c r="AE164" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF164" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG164" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH164" t="n">
         <v>7</v>
@@ -23829,13 +23829,13 @@
         <v>15</v>
       </c>
       <c r="AJ164" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK164" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AL164" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM164" t="n">
         <v>19</v>
@@ -24058,18 +24058,18 @@
         <v>3.5</v>
       </c>
       <c r="Q166" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R166" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V166" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W166" t="n">
         <v>1.4</v>
@@ -24172,16 +24172,16 @@
         <v>1.14</v>
       </c>
       <c r="H167" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J167" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K167" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L167" t="n">
         <v>11</v>
@@ -24225,19 +24225,19 @@
         <v>1.8</v>
       </c>
       <c r="AA167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC167" t="n">
         <v>11</v>
-      </c>
-      <c r="AB167" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC167" t="n">
-        <v>10</v>
       </c>
       <c r="AD167" t="n">
         <v>7.5</v>
       </c>
       <c r="AE167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF167" t="n">
         <v>26</v>
@@ -24252,10 +24252,10 @@
         <v>26</v>
       </c>
       <c r="AJ167" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK167" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL167" t="n">
         <v>41</v>
@@ -24273,7 +24273,7 @@
         <v>101</v>
       </c>
       <c r="AQ167" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR167" t="inlineStr"/>
       <c r="AS167" t="inlineStr"/>
@@ -24316,16 +24316,16 @@
         <v>3.1</v>
       </c>
       <c r="I168" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J168" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K168" t="n">
         <v>2</v>
       </c>
       <c r="L168" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M168" t="n">
         <v>1.08</v>
@@ -24402,13 +24402,13 @@
         <v>7</v>
       </c>
       <c r="AM168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN168" t="n">
         <v>10</v>
       </c>
-      <c r="AN168" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AO168" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP168" t="n">
         <v>21</v>
@@ -24620,16 +24620,16 @@
         <v>9</v>
       </c>
       <c r="O170" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P170" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R170" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S170" t="inlineStr"/>
       <c r="T170" t="inlineStr"/>
@@ -24743,7 +24743,7 @@
         <v>3.3</v>
       </c>
       <c r="I171" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J171" t="n">
         <v>2.75</v>
@@ -24796,7 +24796,7 @@
         <v>6</v>
       </c>
       <c r="AB171" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC171" t="n">
         <v>9.5</v>
@@ -24826,7 +24826,7 @@
         <v>1250</v>
       </c>
       <c r="AL171" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM171" t="n">
         <v>17</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H174" t="n">
         <v>3.55</v>
       </c>
       <c r="I174" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J174" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K174" t="n">
         <v>2.15</v>
@@ -25182,10 +25182,10 @@
         <v>2.45</v>
       </c>
       <c r="M174" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N174" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O174" t="n">
         <v>1.27</v>
@@ -25197,54 +25197,54 @@
         <v>1.8</v>
       </c>
       <c r="R174" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="V174" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W174" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X174" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Y174" t="n">
         <v>1.7</v>
       </c>
       <c r="Z174" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AA174" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB174" t="n">
         <v>24</v>
       </c>
       <c r="AC174" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD174" t="n">
         <v>65</v>
       </c>
       <c r="AE174" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF174" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG174" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH174" t="n">
         <v>7.2</v>
       </c>
       <c r="AI174" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ174" t="n">
         <v>65</v>
@@ -25253,22 +25253,22 @@
         <v>500</v>
       </c>
       <c r="AL174" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AM174" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AN174" t="n">
         <v>8.75</v>
       </c>
       <c r="AO174" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP174" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ174" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR174" t="inlineStr"/>
       <c r="AS174" t="inlineStr"/>
@@ -26010,22 +26010,22 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="H180" t="n">
         <v>3.05</v>
       </c>
       <c r="I180" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="J180" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K180" t="n">
         <v>2.07</v>
       </c>
       <c r="L180" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="M180" t="n">
         <v>1.08</v>
@@ -26054,10 +26054,10 @@
         <v>1.25</v>
       </c>
       <c r="W180" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X180" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Y180" t="n">
         <v>1.8</v>
@@ -26066,19 +26066,19 @@
         <v>1.9</v>
       </c>
       <c r="AA180" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC180" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD180" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE180" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF180" t="n">
         <v>35</v>
@@ -26099,22 +26099,22 @@
         <v>600</v>
       </c>
       <c r="AL180" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM180" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN180" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO180" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP180" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ180" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26292,84 +26292,84 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I182" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J182" t="n">
         <v>2.3</v>
       </c>
       <c r="K182" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L182" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="M182" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N182" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="O182" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P182" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Q182" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R182" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="V182" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W182" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X182" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="Y182" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z182" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA182" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB182" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AC182" t="n">
         <v>8.25</v>
       </c>
       <c r="AD182" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE182" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF182" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG182" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH182" t="n">
         <v>6.9</v>
-      </c>
-      <c r="AH182" t="n">
-        <v>6.7</v>
       </c>
       <c r="AI182" t="n">
         <v>16.5</v>
@@ -26381,16 +26381,16 @@
         <v>700</v>
       </c>
       <c r="AL182" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM182" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN182" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO182" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP182" t="n">
         <v>45</v>
@@ -26595,7 +26595,7 @@
         <v>1.08</v>
       </c>
       <c r="N184" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O184" t="n">
         <v>1.44</v>
@@ -26763,10 +26763,10 @@
         <v>1.33</v>
       </c>
       <c r="W185" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X185" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y185" t="n">
         <v>1.67</v>
@@ -26775,7 +26775,7 @@
         <v>2.1</v>
       </c>
       <c r="AA185" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB185" t="n">
         <v>12</v>
@@ -26805,7 +26805,7 @@
         <v>41</v>
       </c>
       <c r="AK185" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL185" t="n">
         <v>10</v>
@@ -26878,10 +26878,10 @@
         <v>3.6</v>
       </c>
       <c r="M186" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N186" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O186" t="n">
         <v>1.3</v>
@@ -27019,30 +27019,30 @@
         <v>2.75</v>
       </c>
       <c r="M187" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N187" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O187" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P187" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R187" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V187" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W187" t="n">
         <v>1.5</v>
@@ -27283,13 +27283,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H189" t="n">
         <v>3.4</v>
       </c>
       <c r="I189" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J189" t="n">
         <v>2.63</v>
@@ -27298,33 +27298,33 @@
         <v>2.05</v>
       </c>
       <c r="L189" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M189" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N189" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O189" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P189" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R189" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V189" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W189" t="n">
         <v>1.44</v>
@@ -27333,10 +27333,10 @@
         <v>2.63</v>
       </c>
       <c r="Y189" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z189" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA189" t="n">
         <v>6.5</v>
@@ -27348,13 +27348,13 @@
         <v>9</v>
       </c>
       <c r="AD189" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE189" t="n">
         <v>17</v>
       </c>
       <c r="AF189" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG189" t="n">
         <v>8.5</v>
@@ -27369,16 +27369,16 @@
         <v>51</v>
       </c>
       <c r="AK189" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AL189" t="n">
         <v>10</v>
       </c>
       <c r="AM189" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN189" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO189" t="n">
         <v>41</v>
@@ -27424,7 +27424,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H190" t="n">
         <v>3.5</v>
@@ -27436,16 +27436,16 @@
         <v>2.3</v>
       </c>
       <c r="K190" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L190" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M190" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N190" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O190" t="n">
         <v>1.5</v>
@@ -27513,28 +27513,28 @@
         <v>101</v>
       </c>
       <c r="AL190" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM190" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN190" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO190" t="n">
         <v>81</v>
       </c>
       <c r="AP190" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ190" t="n">
         <v>67</v>
       </c>
-      <c r="AQ190" t="n">
-        <v>81</v>
-      </c>
       <c r="AR190" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="191">
@@ -27714,22 +27714,22 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H192" t="n">
         <v>4.75</v>
       </c>
       <c r="I192" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J192" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K192" t="n">
         <v>2.4</v>
       </c>
       <c r="L192" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M192" t="n">
         <v>1.03</v>
@@ -27744,10 +27744,10 @@
         <v>4</v>
       </c>
       <c r="Q192" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R192" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
@@ -27788,10 +27788,10 @@
         <v>26</v>
       </c>
       <c r="AG192" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH192" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI192" t="n">
         <v>19</v>
@@ -27803,7 +27803,7 @@
         <v>301</v>
       </c>
       <c r="AL192" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM192" t="n">
         <v>34</v>
@@ -28020,28 +28020,28 @@
         <v>15</v>
       </c>
       <c r="O194" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P194" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q194" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R194" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S194" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T194" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U194" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V194" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W194" t="n">
         <v>1.29</v>
@@ -28282,28 +28282,28 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H196" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I196" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J196" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="K196" t="n">
         <v>2.22</v>
       </c>
       <c r="L196" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M196" t="n">
         <v>1.05</v>
       </c>
       <c r="N196" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O196" t="n">
         <v>1.26</v>
@@ -28320,70 +28320,70 @@
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="V196" t="n">
         <v>1.37</v>
       </c>
       <c r="W196" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X196" t="n">
         <v>2.8</v>
       </c>
       <c r="Y196" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Z196" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AA196" t="n">
         <v>6.6</v>
       </c>
       <c r="AB196" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC196" t="n">
         <v>8</v>
       </c>
       <c r="AD196" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE196" t="n">
         <v>12</v>
       </c>
       <c r="AF196" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG196" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH196" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AI196" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ196" t="n">
         <v>80</v>
       </c>
       <c r="AK196" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL196" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM196" t="n">
         <v>40</v>
       </c>
       <c r="AN196" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO196" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP196" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ196" t="n">
         <v>60</v>
@@ -28704,43 +28704,113 @@
           <t>Muang Thong Utd</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N199" t="n">
+        <v>8</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P199" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.02</v>
+      </c>
       <c r="S199" t="inlineStr"/>
       <c r="T199" t="inlineStr"/>
-      <c r="U199" t="inlineStr"/>
-      <c r="V199" t="inlineStr"/>
-      <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr"/>
-      <c r="Y199" t="inlineStr"/>
-      <c r="Z199" t="inlineStr"/>
-      <c r="AA199" t="inlineStr"/>
-      <c r="AB199" t="inlineStr"/>
-      <c r="AC199" t="inlineStr"/>
-      <c r="AD199" t="inlineStr"/>
-      <c r="AE199" t="inlineStr"/>
-      <c r="AF199" t="inlineStr"/>
-      <c r="AG199" t="inlineStr"/>
-      <c r="AH199" t="inlineStr"/>
-      <c r="AI199" t="inlineStr"/>
-      <c r="AJ199" t="inlineStr"/>
-      <c r="AK199" t="inlineStr"/>
-      <c r="AL199" t="inlineStr"/>
-      <c r="AM199" t="inlineStr"/>
-      <c r="AN199" t="inlineStr"/>
-      <c r="AO199" t="inlineStr"/>
-      <c r="AP199" t="inlineStr"/>
-      <c r="AQ199" t="inlineStr"/>
+      <c r="U199" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>28</v>
+      </c>
       <c r="AR199" t="inlineStr"/>
       <c r="AS199" t="inlineStr"/>
     </row>
@@ -28935,10 +29005,10 @@
         <v>2.3</v>
       </c>
       <c r="M201" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N201" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O201" t="n">
         <v>1.22</v>
@@ -28947,10 +29017,10 @@
         <v>4</v>
       </c>
       <c r="Q201" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R201" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S201" t="inlineStr"/>
       <c r="T201" t="inlineStr"/>
@@ -29064,7 +29134,7 @@
         <v>4.5</v>
       </c>
       <c r="I202" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J202" t="n">
         <v>2</v>
@@ -29112,10 +29182,10 @@
         <v>3.5</v>
       </c>
       <c r="Y202" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z202" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA202" t="n">
         <v>9</v>
@@ -29700,41 +29770,41 @@
         <v>12.5</v>
       </c>
       <c r="H207" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I207" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J207" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="K207" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="L207" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P207" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q207" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R207" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="V207" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W207" t="n">
         <v>1.39</v>
@@ -29743,10 +29813,10 @@
         <v>2.57</v>
       </c>
       <c r="Y207" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="Z207" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AA207" t="n">
         <v>26</v>
@@ -29758,7 +29828,7 @@
         <v>45</v>
       </c>
       <c r="AD207" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE207" t="n">
         <v>250</v>
@@ -29767,37 +29837,37 @@
         <v>200</v>
       </c>
       <c r="AG207" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH207" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AH207" t="n">
-        <v>12</v>
       </c>
       <c r="AI207" t="n">
         <v>37</v>
       </c>
       <c r="AJ207" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AK207" t="n">
         <v>101</v>
       </c>
       <c r="AL207" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AM207" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AN207" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO207" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AP207" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ207" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR207" t="inlineStr"/>
       <c r="AS207" t="inlineStr"/>
@@ -29834,16 +29904,16 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="H208" t="n">
         <v>2.82</v>
       </c>
       <c r="I208" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J208" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K208" t="n">
         <v>1.83</v>
@@ -29890,16 +29960,16 @@
         <v>1.65</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB208" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC208" t="n">
         <v>10.25</v>
       </c>
       <c r="AD208" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE208" t="n">
         <v>27</v>
@@ -29923,13 +29993,13 @@
         <v>1000</v>
       </c>
       <c r="AL208" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AM208" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN208" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO208" t="n">
         <v>35</v>
@@ -30253,28 +30323,28 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H211" t="n">
         <v>3.1</v>
       </c>
       <c r="I211" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J211" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K211" t="n">
         <v>2.1</v>
       </c>
       <c r="L211" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M211" t="n">
         <v>1.06</v>
       </c>
       <c r="N211" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O211" t="n">
         <v>1.29</v>
@@ -30283,10 +30353,10 @@
         <v>3.5</v>
       </c>
       <c r="Q211" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R211" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S211" t="inlineStr"/>
       <c r="T211" t="inlineStr"/>
@@ -30345,13 +30415,13 @@
         <v>9.5</v>
       </c>
       <c r="AM211" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN211" t="n">
         <v>11</v>
       </c>
       <c r="AO211" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP211" t="n">
         <v>21</v>
@@ -30394,13 +30464,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H212" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I212" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J212" t="n">
         <v>3.4</v>
@@ -30442,19 +30512,19 @@
         <v>1.44</v>
       </c>
       <c r="W212" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X212" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y212" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z212" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA212" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB212" t="n">
         <v>17</v>
@@ -30463,7 +30533,7 @@
         <v>11</v>
       </c>
       <c r="AD212" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE212" t="n">
         <v>21</v>
@@ -30481,7 +30551,7 @@
         <v>12</v>
       </c>
       <c r="AJ212" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK212" t="n">
         <v>126</v>
@@ -30493,16 +30563,16 @@
         <v>13</v>
       </c>
       <c r="AN212" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO212" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP212" t="n">
         <v>17</v>
       </c>
       <c r="AQ212" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR212" t="inlineStr"/>
       <c r="AS212" t="inlineStr"/>
@@ -30557,30 +30627,30 @@
         <v>5.5</v>
       </c>
       <c r="M213" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N213" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O213" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P213" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R213" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V213" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W213" t="n">
         <v>1.36</v>
@@ -30680,16 +30750,16 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H214" t="n">
         <v>4</v>
       </c>
       <c r="I214" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J214" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K214" t="n">
         <v>2.3</v>
@@ -30701,7 +30771,7 @@
         <v>1.04</v>
       </c>
       <c r="N214" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O214" t="n">
         <v>1.22</v>
@@ -30710,10 +30780,10 @@
         <v>4</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R214" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
@@ -30742,13 +30812,13 @@
         <v>8</v>
       </c>
       <c r="AC214" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD214" t="n">
         <v>12</v>
       </c>
       <c r="AE214" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF214" t="n">
         <v>23</v>
@@ -30766,10 +30836,10 @@
         <v>51</v>
       </c>
       <c r="AK214" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL214" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM214" t="n">
         <v>29</v>
@@ -31542,107 +31612,107 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I220" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="J220" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="K220" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L220" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P220" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q220" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R220" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="V220" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W220" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X220" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="Y220" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="Z220" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AA220" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB220" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC220" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD220" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE220" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF220" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG220" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AH220" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI220" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AJ220" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK220" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL220" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM220" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN220" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO220" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP220" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ220" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR220" t="inlineStr"/>
       <c r="AS220" t="inlineStr"/>
@@ -31679,108 +31749,108 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="H221" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J221" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L221" t="n">
         <v>2.8</v>
       </c>
-      <c r="I221" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J221" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K221" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L221" t="n">
-        <v>2.87</v>
-      </c>
       <c r="M221" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N221" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O221" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P221" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="Q221" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R221" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="V221" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W221" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X221" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y221" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Z221" t="n">
         <v>1.65</v>
       </c>
       <c r="AA221" t="n">
-        <v>7.7</v>
+        <v>8.75</v>
       </c>
       <c r="AB221" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC221" t="n">
         <v>13</v>
       </c>
       <c r="AD221" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE221" t="n">
         <v>40</v>
       </c>
       <c r="AF221" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG221" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AH221" t="n">
         <v>5.6</v>
       </c>
       <c r="AI221" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ221" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK221" t="n">
         <v>101</v>
       </c>
       <c r="AL221" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AM221" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AN221" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AO221" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP221" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ221" t="n">
         <v>40</v>
@@ -31823,27 +31893,27 @@
         <v>2.12</v>
       </c>
       <c r="H222" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I222" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J222" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K222" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L222" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P222" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q222" t="n">
         <v>1.93</v>
@@ -31869,19 +31939,19 @@
         <v>1.72</v>
       </c>
       <c r="Z222" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AA222" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB222" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AC222" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD222" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE222" t="n">
         <v>17.5</v>
@@ -31893,10 +31963,10 @@
         <v>8.75</v>
       </c>
       <c r="AH222" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI222" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ222" t="n">
         <v>65</v>
@@ -31908,7 +31978,7 @@
         <v>9.75</v>
       </c>
       <c r="AM222" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN222" t="n">
         <v>11.5</v>
@@ -31917,7 +31987,7 @@
         <v>50</v>
       </c>
       <c r="AP222" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ222" t="n">
         <v>37</v>
@@ -31957,83 +32027,83 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H223" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I223" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J223" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="K223" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L223" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P223" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q223" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R223" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S223" t="inlineStr"/>
       <c r="T223" t="inlineStr"/>
       <c r="U223" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="V223" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W223" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X223" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="Y223" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Z223" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AA223" t="n">
         <v>6.8</v>
       </c>
       <c r="AB223" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AC223" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD223" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE223" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF223" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG223" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AH223" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AI223" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ223" t="n">
         <v>80</v>
@@ -32042,13 +32112,13 @@
         <v>800</v>
       </c>
       <c r="AL223" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AM223" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN223" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO223" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
         <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>1.83</v>
@@ -1052,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>9.5</v>
@@ -1073,7 +1073,7 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
         <v>81</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1155,10 +1155,10 @@
         <v>2.3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
         <v>2.5</v>
@@ -1209,10 +1209,10 @@
         <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1427,10 +1427,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>1.75</v>
@@ -1848,10 +1848,10 @@
         <v>4.5</v>
       </c>
       <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
         <v>2.38</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1860,10 +1860,10 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
         <v>1.67</v>
@@ -1878,10 +1878,10 @@
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
         <v>1.33</v>
@@ -1899,13 +1899,13 @@
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="n">
         <v>34</v>
@@ -1990,13 +1990,13 @@
         <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K11" t="n">
         <v>2.75</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2035,19 +2035,19 @@
         <v>3.75</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA11" t="n">
         <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2062,16 +2062,16 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>81</v>
       </c>
       <c r="AK11" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
@@ -2083,13 +2083,13 @@
         <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>81</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>67</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2126,10 +2126,10 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>2.38</v>
@@ -2144,10 +2144,10 @@
         <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -2182,7 +2182,7 @@
         <v>1.91</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
@@ -2879,10 +2879,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -2906,7 +2906,7 @@
         <v>8.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC17" t="n">
         <v>8</v>
@@ -2933,7 +2933,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
@@ -3018,10 +3018,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
         <v>23</v>
@@ -3285,7 +3285,7 @@
         <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
@@ -3565,7 +3565,7 @@
         <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
         <v>1.83</v>
@@ -3574,10 +3574,10 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O22" t="n">
         <v>1.57</v>
@@ -3619,13 +3619,13 @@
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -3735,10 +3735,10 @@
         <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
         <v>2.95</v>
@@ -4723,10 +4723,10 @@
         <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
         <v>2.3</v>
@@ -4741,7 +4741,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -4750,10 +4750,10 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S30" t="n">
         <v>1.88</v>
@@ -4783,7 +4783,7 @@
         <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
@@ -4792,7 +4792,7 @@
         <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>19</v>
@@ -4810,7 +4810,7 @@
         <v>34</v>
       </c>
       <c r="AK30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
         <v>1.8</v>
@@ -4877,7 +4877,7 @@
         <v>4.33</v>
       </c>
       <c r="K31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
         <v>2.38</v>
@@ -4886,46 +4886,46 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S31" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V31" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
         <v>21</v>
@@ -4937,16 +4937,16 @@
         <v>41</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
         <v>13</v>
@@ -4955,10 +4955,10 @@
         <v>41</v>
       </c>
       <c r="AK31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
@@ -5010,13 +5010,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J32" t="n">
         <v>3.4</v>
@@ -5025,7 +5025,7 @@
         <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
@@ -5070,7 +5070,7 @@
         <v>2.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB32" t="n">
         <v>21</v>
@@ -5094,13 +5094,13 @@
         <v>8.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ32" t="n">
         <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL32" t="n">
         <v>15</v>
@@ -5296,13 +5296,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J34" t="n">
         <v>3.5</v>
@@ -5311,7 +5311,7 @@
         <v>2.2</v>
       </c>
       <c r="L34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -5326,10 +5326,10 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5382,7 +5382,7 @@
         <v>41</v>
       </c>
       <c r="AK34" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL34" t="n">
         <v>9</v>
@@ -5578,87 +5578,87 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="H36" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L36" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="V36" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W36" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X36" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AA36" t="n">
         <v>12</v>
       </c>
       <c r="AB36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC36" t="n">
         <v>9.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG36" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH36" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI36" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ36" t="n">
         <v>37</v>
@@ -5667,22 +5667,22 @@
         <v>200</v>
       </c>
       <c r="AL36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN36" t="n">
         <v>9.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP36" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5719,63 +5719,63 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K37" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R37" t="n">
         <v>2.22</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.12</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="V37" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X37" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AA37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB37" t="n">
         <v>14</v>
@@ -5784,43 +5784,43 @@
         <v>9.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE37" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH37" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AI37" t="n">
         <v>12</v>
       </c>
       <c r="AJ37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="n">
         <v>250</v>
       </c>
       <c r="AL37" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN37" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO37" t="n">
         <v>27</v>
       </c>
       <c r="AP37" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ37" t="n">
         <v>23</v>
@@ -5884,16 +5884,16 @@
         <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -6004,7 +6004,7 @@
         <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
         <v>1.8</v>
@@ -6025,10 +6025,10 @@
         <v>13</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>1.75</v>
@@ -6043,10 +6043,10 @@
         <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W39" t="n">
         <v>1.36</v>
@@ -6055,13 +6055,13 @@
         <v>3</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB39" t="n">
         <v>21</v>
@@ -6106,7 +6106,7 @@
         <v>15</v>
       </c>
       <c r="AP39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ39" t="n">
         <v>23</v>
@@ -6714,19 +6714,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L44" t="n">
         <v>4</v>
@@ -6791,7 +6791,7 @@
         <v>7</v>
       </c>
       <c r="AH44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI44" t="n">
         <v>19</v>
@@ -6803,7 +6803,7 @@
         <v>1250</v>
       </c>
       <c r="AL44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM44" t="n">
         <v>13</v>
@@ -6821,10 +6821,10 @@
         <v>41</v>
       </c>
       <c r="AR44" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="45">
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
@@ -6877,10 +6877,10 @@
         <v>5.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
         <v>1.33</v>
@@ -6909,10 +6909,10 @@
         <v>2.63</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA45" t="n">
         <v>6.5</v>
@@ -6939,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="AI45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="n">
         <v>51</v>
@@ -7018,10 +7018,10 @@
         <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -7056,7 +7056,7 @@
         <v>1.83</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
         <v>9</v>
@@ -7148,31 +7148,31 @@
         <v>2.75</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
         <v>2.45</v>
       </c>
       <c r="J47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K47" t="n">
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
         <v>2</v>
@@ -7193,16 +7193,16 @@
         <v>1.3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA47" t="n">
         <v>9</v>
@@ -7220,10 +7220,10 @@
         <v>23</v>
       </c>
       <c r="AF47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH47" t="n">
         <v>6.5</v>
@@ -7235,10 +7235,10 @@
         <v>51</v>
       </c>
       <c r="AK47" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM47" t="n">
         <v>12</v>
@@ -7259,7 +7259,7 @@
         <v>1.52</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="48">
@@ -7294,13 +7294,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J48" t="n">
         <v>2.6</v>
@@ -7312,10 +7312,10 @@
         <v>4.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O48" t="n">
         <v>1.29</v>
@@ -7324,10 +7324,10 @@
         <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R48" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S48" t="n">
         <v>2.6</v>
@@ -7336,10 +7336,10 @@
         <v>1.49</v>
       </c>
       <c r="U48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W48" t="n">
         <v>1.4</v>
@@ -7357,10 +7357,10 @@
         <v>7.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD48" t="n">
         <v>17</v>
@@ -7443,13 +7443,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>3.9</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J49" t="n">
         <v>2.3</v>
@@ -7458,7 +7458,7 @@
         <v>2.38</v>
       </c>
       <c r="L49" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7512,7 +7512,7 @@
         <v>8.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE49" t="n">
         <v>13</v>
@@ -7545,7 +7545,7 @@
         <v>15</v>
       </c>
       <c r="AO49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP49" t="n">
         <v>34</v>
@@ -7610,10 +7610,10 @@
         <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
         <v>1.29</v>
@@ -7900,16 +7900,16 @@
         <v>2.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P52" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
         <v>1.7</v>
@@ -8023,16 +8023,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H53" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I53" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K53" t="n">
         <v>2.3</v>
@@ -8086,7 +8086,7 @@
         <v>9.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC53" t="n">
         <v>8.5</v>
@@ -8119,7 +8119,7 @@
         <v>15</v>
       </c>
       <c r="AM53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN53" t="n">
         <v>13</v>
@@ -8309,22 +8309,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K55" t="n">
         <v>1.91</v>
       </c>
       <c r="L55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>1.1</v>
@@ -8345,10 +8345,10 @@
         <v>1.48</v>
       </c>
       <c r="S55" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T55" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U55" t="n">
         <v>5.5</v>
@@ -8375,7 +8375,7 @@
         <v>8</v>
       </c>
       <c r="AC55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD55" t="n">
         <v>17</v>
@@ -8402,10 +8402,10 @@
         <v>101</v>
       </c>
       <c r="AL55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN55" t="n">
         <v>15</v>
@@ -8494,10 +8494,10 @@
         <v>1.7</v>
       </c>
       <c r="S56" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U56" t="n">
         <v>3.75</v>
@@ -8569,10 +8569,10 @@
         <v>67</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.34</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="57">
@@ -8607,13 +8607,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I57" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
@@ -8622,13 +8622,13 @@
         <v>1.91</v>
       </c>
       <c r="L57" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O57" t="n">
         <v>1.53</v>
@@ -8684,7 +8684,7 @@
         <v>6</v>
       </c>
       <c r="AH57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI57" t="n">
         <v>23</v>
@@ -8696,10 +8696,10 @@
         <v>1250</v>
       </c>
       <c r="AL57" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AM57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
@@ -8752,40 +8752,40 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H58" t="n">
         <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K58" t="n">
         <v>2.2</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P58" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R58" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8811,7 +8811,7 @@
         <v>8</v>
       </c>
       <c r="AB58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC58" t="n">
         <v>9</v>
@@ -8820,13 +8820,13 @@
         <v>17</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF58" t="n">
         <v>26</v>
       </c>
       <c r="AG58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH58" t="n">
         <v>6</v>
@@ -8841,19 +8841,19 @@
         <v>201</v>
       </c>
       <c r="AL58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM58" t="n">
         <v>21</v>
       </c>
       <c r="AN58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO58" t="n">
         <v>41</v>
       </c>
       <c r="AP58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ58" t="n">
         <v>41</v>
@@ -8896,57 +8896,57 @@
         <v>1.93</v>
       </c>
       <c r="H59" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J59" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="K59" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L59" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M59" t="n">
         <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O59" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P59" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R59" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V59" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W59" t="n">
         <v>1.42</v>
       </c>
       <c r="X59" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AA59" t="n">
         <v>7.3</v>
@@ -8964,40 +8964,40 @@
         <v>16</v>
       </c>
       <c r="AF59" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG59" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH59" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI59" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL59" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN59" t="n">
         <v>13.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP59" t="n">
         <v>37</v>
       </c>
       <c r="AQ59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
@@ -9175,66 +9175,66 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J61" t="n">
         <v>3.5</v>
       </c>
       <c r="K61" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P61" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R61" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V61" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W61" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X61" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y61" t="n">
         <v>1.7</v>
       </c>
       <c r="Z61" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA61" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB61" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC61" t="n">
         <v>11.25</v>
@@ -9249,13 +9249,13 @@
         <v>35</v>
       </c>
       <c r="AG61" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH61" t="n">
         <v>6.9</v>
       </c>
       <c r="AI61" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ61" t="n">
         <v>65</v>
@@ -9264,10 +9264,10 @@
         <v>500</v>
       </c>
       <c r="AL61" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AM61" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AN61" t="n">
         <v>9.5</v>
@@ -9276,10 +9276,10 @@
         <v>24</v>
       </c>
       <c r="AP61" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -9491,18 +9491,18 @@
         <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W63" t="n">
         <v>1.44</v>
@@ -9747,13 +9747,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I65" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J65" t="n">
         <v>2.3</v>
@@ -9762,13 +9762,13 @@
         <v>2.2</v>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N65" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O65" t="n">
         <v>1.29</v>
@@ -9777,18 +9777,18 @@
         <v>3.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R65" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V65" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W65" t="n">
         <v>1.4</v>
@@ -9797,25 +9797,25 @@
         <v>2.75</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA65" t="n">
         <v>7</v>
       </c>
       <c r="AB65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE65" t="n">
         <v>13</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>15</v>
       </c>
       <c r="AF65" t="n">
         <v>29</v>
@@ -9827,7 +9827,7 @@
         <v>6.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
@@ -9839,7 +9839,7 @@
         <v>13</v>
       </c>
       <c r="AM65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN65" t="n">
         <v>17</v>
@@ -9938,10 +9938,10 @@
         <v>3.25</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA66" t="n">
         <v>7</v>
@@ -10059,18 +10059,18 @@
         <v>3.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R67" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V67" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W67" t="n">
         <v>1.4</v>
@@ -10079,10 +10079,10 @@
         <v>2.75</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA67" t="n">
         <v>12</v>
@@ -10220,10 +10220,10 @@
         <v>2.63</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA68" t="n">
         <v>7.5</v>
@@ -10329,10 +10329,10 @@
         <v>8</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O69" t="n">
         <v>1.25</v>
@@ -10364,7 +10364,7 @@
         <v>2.25</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA69" t="n">
         <v>6.5</v>
@@ -10502,10 +10502,10 @@
         <v>2.63</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA70" t="n">
         <v>9</v>
@@ -10593,28 +10593,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J71" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
         <v>2.1</v>
       </c>
       <c r="L71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -10637,10 +10637,10 @@
         <v>1.3</v>
       </c>
       <c r="W71" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X71" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y71" t="n">
         <v>1.8</v>
@@ -10649,16 +10649,16 @@
         <v>1.91</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB71" t="n">
         <v>12</v>
       </c>
       <c r="AC71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE71" t="n">
         <v>21</v>
@@ -10667,7 +10667,7 @@
         <v>29</v>
       </c>
       <c r="AG71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH71" t="n">
         <v>6.5</v>
@@ -10682,22 +10682,22 @@
         <v>251</v>
       </c>
       <c r="AL71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM71" t="n">
         <v>13</v>
       </c>
       <c r="AN71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -10752,10 +10752,10 @@
         <v>8</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O72" t="n">
         <v>1.25</v>
@@ -11016,13 +11016,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H74" t="n">
         <v>3.3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J74" t="n">
         <v>2.88</v>
@@ -11031,7 +11031,7 @@
         <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
@@ -11040,16 +11040,16 @@
         <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R74" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -11075,7 +11075,7 @@
         <v>7.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -11093,7 +11093,7 @@
         <v>9.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI74" t="n">
         <v>15</v>
@@ -11469,10 +11469,10 @@
         <v>3.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R77" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -11580,10 +11580,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I78" t="n">
         <v>5.25</v>
@@ -11598,10 +11598,10 @@
         <v>5.5</v>
       </c>
       <c r="M78" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O78" t="n">
         <v>1.33</v>
@@ -11618,10 +11618,10 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V78" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W78" t="n">
         <v>1.44</v>
@@ -11630,22 +11630,22 @@
         <v>2.63</v>
       </c>
       <c r="Y78" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA78" t="n">
         <v>6.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC78" t="n">
         <v>8.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE78" t="n">
         <v>15</v>
@@ -11654,22 +11654,22 @@
         <v>29</v>
       </c>
       <c r="AG78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH78" t="n">
         <v>7</v>
       </c>
       <c r="AI78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ78" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK78" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM78" t="n">
         <v>26</v>
@@ -11684,7 +11684,7 @@
         <v>41</v>
       </c>
       <c r="AQ78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11721,13 +11721,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J79" t="n">
         <v>2.88</v>
@@ -11736,7 +11736,7 @@
         <v>2.2</v>
       </c>
       <c r="L79" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -11745,16 +11745,16 @@
         <v>11</v>
       </c>
       <c r="O79" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R79" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -11822,10 +11822,10 @@
         <v>34</v>
       </c>
       <c r="AP79" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -12432,10 +12432,10 @@
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
         <v>2.05</v>
@@ -12444,16 +12444,16 @@
         <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O84" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P84" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q84" t="n">
         <v>2.1</v>
@@ -12488,7 +12488,7 @@
         <v>10</v>
       </c>
       <c r="AC84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD84" t="n">
         <v>21</v>
@@ -12567,22 +12567,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J85" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K85" t="n">
         <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M85" t="n">
         <v>1.08</v>
@@ -12597,18 +12597,18 @@
         <v>2.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R85" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V85" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W85" t="n">
         <v>1.5</v>
@@ -12641,7 +12641,7 @@
         <v>34</v>
       </c>
       <c r="AG85" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH85" t="n">
         <v>6</v>
@@ -12653,22 +12653,22 @@
         <v>51</v>
       </c>
       <c r="AK85" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL85" t="n">
         <v>8</v>
       </c>
       <c r="AM85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP85" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ85" t="n">
         <v>41</v>
@@ -12875,10 +12875,10 @@
         <v>3.4</v>
       </c>
       <c r="M87" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O87" t="n">
         <v>1.4</v>
@@ -13306,10 +13306,10 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R90" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
@@ -13322,10 +13322,10 @@
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Z90" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="AA90" t="n">
         <v>15.5</v>
@@ -13413,22 +13413,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H91" t="n">
         <v>4.1</v>
       </c>
       <c r="I91" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="J91" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="K91" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L91" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -13460,13 +13460,13 @@
         <v>8.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AC91" t="n">
         <v>7.1</v>
       </c>
       <c r="AD91" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE91" t="n">
         <v>9.5</v>
@@ -13490,22 +13490,22 @@
         <v>175</v>
       </c>
       <c r="AL91" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM91" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN91" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO91" t="n">
         <v>55</v>
       </c>
       <c r="AP91" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ91" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr"/>
@@ -13542,13 +13542,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H92" t="n">
         <v>3.6</v>
       </c>
       <c r="I92" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J92" t="n">
         <v>5.5</v>
@@ -13557,16 +13557,16 @@
         <v>2.1</v>
       </c>
       <c r="L92" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M92" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
         <v>10</v>
       </c>
       <c r="O92" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P92" t="n">
         <v>3.25</v>
@@ -13583,7 +13583,7 @@
         <v>3.75</v>
       </c>
       <c r="V92" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="W92" t="n">
         <v>1.44</v>
@@ -13601,10 +13601,10 @@
         <v>12</v>
       </c>
       <c r="AB92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC92" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD92" t="n">
         <v>51</v>
@@ -13613,7 +13613,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG92" t="n">
         <v>9</v>
@@ -13631,7 +13631,7 @@
         <v>351</v>
       </c>
       <c r="AL92" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM92" t="n">
         <v>7.5</v>
@@ -13640,7 +13640,7 @@
         <v>8.5</v>
       </c>
       <c r="AO92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP92" t="n">
         <v>15</v>
@@ -13701,30 +13701,30 @@
         <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O93" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P93" t="n">
         <v>3.4</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V93" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="W93" t="n">
         <v>1.44</v>
@@ -13985,10 +13985,10 @@
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P95" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q95" t="n">
         <v>1.87</v>
@@ -13999,10 +13999,10 @@
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="V95" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W95" t="n">
         <v>1.38</v>
@@ -14011,10 +14011,10 @@
         <v>2.47</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA95" t="n">
         <v>9.25</v>
@@ -14243,22 +14243,22 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I97" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J97" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K97" t="n">
         <v>2.38</v>
       </c>
       <c r="L97" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M97" t="n">
         <v>1.03</v>
@@ -14293,13 +14293,13 @@
         <v>3.25</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z97" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA97" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB97" t="n">
         <v>8.5</v>
@@ -14329,7 +14329,7 @@
         <v>41</v>
       </c>
       <c r="AK97" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL97" t="n">
         <v>15</v>
@@ -14344,10 +14344,10 @@
         <v>51</v>
       </c>
       <c r="AP97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
@@ -14561,10 +14561,10 @@
         <v>2.25</v>
       </c>
       <c r="S99" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T99" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U99" t="n">
         <v>2.5</v>
@@ -15404,19 +15404,19 @@
         <v>1.03</v>
       </c>
       <c r="N105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O105" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P105" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R105" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S105" t="n">
         <v>2.05</v>
@@ -15425,10 +15425,10 @@
         <v>1.8</v>
       </c>
       <c r="U105" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W105" t="n">
         <v>1.3</v>
@@ -15443,7 +15443,7 @@
         <v>2.1</v>
       </c>
       <c r="AA105" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB105" t="n">
         <v>9</v>
@@ -15455,13 +15455,13 @@
         <v>13</v>
       </c>
       <c r="AE105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF105" t="n">
         <v>21</v>
       </c>
       <c r="AG105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH105" t="n">
         <v>8.5</v>
@@ -15546,10 +15546,10 @@
         <v>3.5</v>
       </c>
       <c r="M106" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O106" t="n">
         <v>1.33</v>
@@ -15558,10 +15558,10 @@
         <v>3.25</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R106" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S106" t="n">
         <v>3.05</v>
@@ -15844,10 +15844,10 @@
         <v>13</v>
       </c>
       <c r="M108" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N108" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O108" t="n">
         <v>1.25</v>
@@ -15856,10 +15856,10 @@
         <v>3.75</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R108" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S108" t="n">
         <v>2.49</v>
@@ -15993,10 +15993,10 @@
         <v>4.5</v>
       </c>
       <c r="M109" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O109" t="n">
         <v>1.29</v>
@@ -16005,10 +16005,10 @@
         <v>3.5</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R109" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
@@ -16116,16 +16116,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H110" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I110" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K110" t="n">
         <v>2.2</v>
@@ -16166,10 +16166,10 @@
         <v>2.75</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z110" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA110" t="n">
         <v>11</v>
@@ -16193,7 +16193,7 @@
         <v>11</v>
       </c>
       <c r="AH110" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI110" t="n">
         <v>15</v>
@@ -16202,7 +16202,7 @@
         <v>51</v>
       </c>
       <c r="AK110" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL110" t="n">
         <v>7.5</v>
@@ -16217,7 +16217,7 @@
         <v>17</v>
       </c>
       <c r="AP110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ110" t="n">
         <v>26</v>
@@ -16398,13 +16398,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>3.25</v>
       </c>
       <c r="I112" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J112" t="n">
         <v>3.25</v>
@@ -16413,7 +16413,7 @@
         <v>2.2</v>
       </c>
       <c r="L112" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M112" t="n">
         <v>1.05</v>
@@ -16436,10 +16436,10 @@
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V112" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W112" t="n">
         <v>1.4</v>
@@ -16496,13 +16496,13 @@
         <v>10</v>
       </c>
       <c r="AO112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP112" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ112" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
@@ -16545,10 +16545,10 @@
         <v>3.9</v>
       </c>
       <c r="I113" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K113" t="n">
         <v>2.5</v>
@@ -16616,7 +16616,7 @@
         <v>19</v>
       </c>
       <c r="AH113" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI113" t="n">
         <v>13</v>
@@ -16628,7 +16628,7 @@
         <v>101</v>
       </c>
       <c r="AL113" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM113" t="n">
         <v>26</v>
@@ -16637,7 +16637,7 @@
         <v>15</v>
       </c>
       <c r="AO113" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP113" t="n">
         <v>29</v>
@@ -16954,33 +16954,33 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="H116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J116" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.2</v>
       </c>
       <c r="K116" t="n">
         <v>2.1</v>
       </c>
       <c r="L116" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P116" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R116" t="n">
         <v>1.7</v>
@@ -17000,25 +17000,25 @@
         <v>2.45</v>
       </c>
       <c r="Y116" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AA116" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD116" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE116" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF116" t="n">
         <v>30</v>
@@ -17027,28 +17027,28 @@
         <v>9</v>
       </c>
       <c r="AH116" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI116" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ116" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK116" t="n">
         <v>500</v>
       </c>
       <c r="AL116" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AM116" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN116" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO116" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP116" t="n">
         <v>22</v>
@@ -17109,10 +17109,10 @@
         <v>4.33</v>
       </c>
       <c r="M117" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O117" t="n">
         <v>1.36</v>
@@ -17129,10 +17129,10 @@
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V117" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W117" t="n">
         <v>1.5</v>
@@ -17232,22 +17232,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I118" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J118" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K118" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L118" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M118" t="n">
         <v>1.04</v>
@@ -17288,22 +17288,22 @@
         <v>2.1</v>
       </c>
       <c r="AA118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB118" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD118" t="n">
         <v>41</v>
       </c>
       <c r="AE118" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF118" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG118" t="n">
         <v>13</v>
@@ -17312,25 +17312,25 @@
         <v>7.5</v>
       </c>
       <c r="AI118" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ118" t="n">
         <v>41</v>
       </c>
       <c r="AK118" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL118" t="n">
         <v>8.5</v>
       </c>
       <c r="AM118" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN118" t="n">
         <v>8.5</v>
       </c>
       <c r="AO118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP118" t="n">
         <v>15</v>
@@ -17673,10 +17673,10 @@
         <v>2.75</v>
       </c>
       <c r="M121" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O121" t="n">
         <v>1.36</v>
@@ -17967,10 +17967,10 @@
         <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R123" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
@@ -18253,10 +18253,10 @@
         <v>3.25</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R125" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
@@ -18364,40 +18364,40 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H126" t="n">
         <v>3.5</v>
       </c>
       <c r="I126" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="J126" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K126" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L126" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M126" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O126" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P126" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R126" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S126" t="n">
         <v>2.05</v>
@@ -18406,10 +18406,10 @@
         <v>1.8</v>
       </c>
       <c r="U126" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V126" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W126" t="n">
         <v>1.33</v>
@@ -18418,61 +18418,61 @@
         <v>3.25</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z126" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC126" t="n">
         <v>10</v>
       </c>
-      <c r="AB126" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD126" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE126" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF126" t="n">
         <v>23</v>
       </c>
       <c r="AG126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH126" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI126" t="n">
         <v>12</v>
       </c>
       <c r="AJ126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK126" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ126" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
@@ -18650,13 +18650,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H128" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J128" t="n">
         <v>2.3</v>
@@ -18680,13 +18680,17 @@
         <v>4.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R128" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="S128" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U128" t="n">
         <v>2.5</v>
       </c>
@@ -18727,7 +18731,7 @@
         <v>15</v>
       </c>
       <c r="AH128" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI128" t="n">
         <v>13</v>
@@ -18745,13 +18749,13 @@
         <v>23</v>
       </c>
       <c r="AN128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO128" t="n">
         <v>41</v>
       </c>
       <c r="AP128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ128" t="n">
         <v>34</v>
@@ -18898,10 +18902,10 @@
         <v>51</v>
       </c>
       <c r="AR129" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="130">
@@ -18936,96 +18940,96 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H130" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J130" t="n">
         <v>3.1</v>
       </c>
-      <c r="I130" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K130" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L130" t="n">
         <v>4.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N130" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O130" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P130" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R130" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V130" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z130" t="n">
         <v>1.57</v>
       </c>
-      <c r="X130" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AA130" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC130" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD130" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF130" t="n">
         <v>41</v>
       </c>
       <c r="AG130" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH130" t="n">
         <v>6</v>
       </c>
       <c r="AI130" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ130" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK130" t="n">
         <v>101</v>
       </c>
       <c r="AL130" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM130" t="n">
         <v>17</v>
@@ -19043,10 +19047,10 @@
         <v>51</v>
       </c>
       <c r="AR130" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="131">
@@ -19222,48 +19226,48 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I132" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="J132" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K132" t="n">
         <v>2.05</v>
       </c>
       <c r="L132" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M132" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N132" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O132" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P132" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R132" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V132" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W132" t="n">
         <v>1.44</v>
@@ -19272,19 +19276,19 @@
         <v>2.63</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z132" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA132" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB132" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC132" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD132" t="n">
         <v>41</v>
@@ -19296,34 +19300,34 @@
         <v>41</v>
       </c>
       <c r="AG132" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH132" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI132" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ132" t="n">
         <v>51</v>
       </c>
       <c r="AK132" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL132" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM132" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN132" t="n">
         <v>9</v>
       </c>
       <c r="AO132" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP132" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ132" t="n">
         <v>29</v>
@@ -19422,13 +19426,13 @@
         <v>6</v>
       </c>
       <c r="AB133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC133" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC133" t="n">
-        <v>10</v>
-      </c>
       <c r="AD133" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE133" t="n">
         <v>21</v>
@@ -19470,10 +19474,10 @@
         <v>41</v>
       </c>
       <c r="AR133" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="134">
@@ -19926,60 +19930,60 @@
         <v>4.75</v>
       </c>
       <c r="H137" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I137" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J137" t="n">
         <v>5</v>
       </c>
       <c r="K137" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L137" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M137" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N137" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O137" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P137" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R137" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V137" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W137" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X137" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z137" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z137" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA137" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB137" t="n">
         <v>23</v>
@@ -19997,22 +20001,22 @@
         <v>41</v>
       </c>
       <c r="AG137" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH137" t="n">
         <v>7</v>
       </c>
       <c r="AI137" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ137" t="n">
         <v>51</v>
       </c>
       <c r="AK137" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL137" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM137" t="n">
         <v>8</v>
@@ -20024,10 +20028,10 @@
         <v>13</v>
       </c>
       <c r="AP137" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR137" t="inlineStr"/>
       <c r="AS137" t="inlineStr"/>
@@ -20035,7 +20039,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6Vn2KuNU</t>
+          <t>b5qfM1hI</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -20055,90 +20059,90 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="J138" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K138" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L138" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="M138" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N138" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O138" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P138" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="R138" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V138" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W138" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X138" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y138" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z138" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA138" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD138" t="n">
         <v>19</v>
       </c>
-      <c r="AC138" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>41</v>
-      </c>
       <c r="AE138" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AF138" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AG138" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH138" t="n">
         <v>7</v>
@@ -20150,25 +20154,25 @@
         <v>41</v>
       </c>
       <c r="AK138" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL138" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AM138" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AN138" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AO138" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AP138" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AQ138" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
@@ -20176,7 +20180,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>UPiwQqgg</t>
+          <t>6Vn2KuNU</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -20196,31 +20200,31 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H139" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I139" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K139" t="n">
         <v>2.25</v>
       </c>
       <c r="L139" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="M139" t="n">
         <v>1.04</v>
@@ -20235,18 +20239,18 @@
         <v>4</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R139" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V139" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W139" t="n">
         <v>1.36</v>
@@ -20255,31 +20259,31 @@
         <v>3</v>
       </c>
       <c r="Y139" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z139" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA139" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB139" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC139" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD139" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE139" t="n">
         <v>26</v>
       </c>
-      <c r="AE139" t="n">
-        <v>21</v>
-      </c>
       <c r="AF139" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG139" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH139" t="n">
         <v>7</v>
@@ -20294,22 +20298,22 @@
         <v>151</v>
       </c>
       <c r="AL139" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM139" t="n">
         <v>10</v>
       </c>
-      <c r="AM139" t="n">
-        <v>13</v>
-      </c>
       <c r="AN139" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AO139" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ139" t="n">
         <v>23</v>
-      </c>
-      <c r="AP139" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ139" t="n">
-        <v>26</v>
       </c>
       <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr"/>
@@ -20462,7 +20466,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>b5qfM1hI</t>
+          <t>UPiwQqgg</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -20472,7 +20476,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -20482,63 +20486,63 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="J141" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="K141" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L141" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M141" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O141" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P141" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R141" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V141" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W141" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X141" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y141" t="n">
         <v>1.62</v>
@@ -20547,22 +20551,22 @@
         <v>2.2</v>
       </c>
       <c r="AA141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB141" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AC141" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD141" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE141" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF141" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG141" t="n">
         <v>13</v>
@@ -20580,22 +20584,22 @@
         <v>151</v>
       </c>
       <c r="AL141" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM141" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP141" t="n">
         <v>19</v>
       </c>
-      <c r="AN141" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO141" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP141" t="n">
+      <c r="AQ141" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ141" t="n">
-        <v>29</v>
       </c>
       <c r="AR141" t="inlineStr"/>
       <c r="AS141" t="inlineStr"/>
@@ -20632,58 +20636,58 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="H142" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I142" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J142" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K142" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L142" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P142" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R142" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="V142" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z142" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AA142" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB142" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC142" t="n">
         <v>10</v>
@@ -20695,40 +20699,40 @@
         <v>21</v>
       </c>
       <c r="AF142" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG142" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AI142" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ142" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK142" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL142" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AM142" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN142" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AO142" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP142" t="n">
         <v>17</v>
       </c>
       <c r="AQ142" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR142" t="inlineStr"/>
       <c r="AS142" t="inlineStr"/>
@@ -20765,22 +20769,22 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>3.35</v>
       </c>
       <c r="I143" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="J143" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K143" t="n">
         <v>2.12</v>
       </c>
       <c r="L143" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
@@ -20799,10 +20803,10 @@
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V143" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W143" t="n">
         <v>1.39</v>
@@ -20817,25 +20821,25 @@
         <v>2.12</v>
       </c>
       <c r="AA143" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC143" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD143" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE143" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF143" t="n">
         <v>26</v>
       </c>
       <c r="AG143" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH143" t="n">
         <v>6.6</v>
@@ -20850,19 +20854,19 @@
         <v>300</v>
       </c>
       <c r="AL143" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AM143" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AN143" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO143" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AP143" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ143" t="n">
         <v>25</v>
@@ -20905,16 +20909,16 @@
         <v>2.15</v>
       </c>
       <c r="H144" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I144" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J144" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K144" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L144" t="n">
         <v>3.8</v>
@@ -20922,13 +20926,13 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P144" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R144" t="n">
         <v>1.7</v>
@@ -20948,31 +20952,31 @@
         <v>2.55</v>
       </c>
       <c r="Y144" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z144" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AA144" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB144" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC144" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD144" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE144" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF144" t="n">
         <v>27</v>
       </c>
       <c r="AG144" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH144" t="n">
         <v>6</v>
@@ -21002,7 +21006,7 @@
         <v>32</v>
       </c>
       <c r="AQ144" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR144" t="inlineStr"/>
       <c r="AS144" t="inlineStr"/>
@@ -21204,16 +21208,16 @@
         <v>8</v>
       </c>
       <c r="O146" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P146" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R146" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
@@ -21321,22 +21325,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H147" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I147" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J147" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K147" t="n">
         <v>2.1</v>
       </c>
       <c r="L147" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M147" t="n">
         <v>1.08</v>
@@ -21351,10 +21355,10 @@
         <v>3.25</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R147" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
@@ -21380,13 +21384,13 @@
         <v>6.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC147" t="n">
         <v>9</v>
       </c>
       <c r="AD147" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE147" t="n">
         <v>15</v>
@@ -21398,10 +21402,10 @@
         <v>8</v>
       </c>
       <c r="AH147" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI147" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ147" t="n">
         <v>51</v>
@@ -21410,10 +21414,10 @@
         <v>351</v>
       </c>
       <c r="AL147" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM147" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN147" t="n">
         <v>17</v>
@@ -21425,7 +21429,7 @@
         <v>41</v>
       </c>
       <c r="AQ147" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -21641,10 +21645,10 @@
         <v>3.2</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R149" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S149" t="n">
         <v>1.88</v>
@@ -21760,28 +21764,28 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I150" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J150" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K150" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L150" t="n">
         <v>5</v>
       </c>
       <c r="M150" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O150" t="n">
         <v>1.3</v>
@@ -21790,16 +21794,16 @@
         <v>3.4</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S150" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T150" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="U150" t="n">
         <v>3.5</v>
@@ -21808,10 +21812,10 @@
         <v>1.29</v>
       </c>
       <c r="W150" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X150" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y150" t="n">
         <v>1.83</v>
@@ -21829,7 +21833,7 @@
         <v>8.5</v>
       </c>
       <c r="AD150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE150" t="n">
         <v>15</v>
@@ -21838,7 +21842,7 @@
         <v>29</v>
       </c>
       <c r="AG150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH150" t="n">
         <v>7</v>
@@ -21853,10 +21857,10 @@
         <v>301</v>
       </c>
       <c r="AL150" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN150" t="n">
         <v>15</v>
@@ -21871,10 +21875,10 @@
         <v>41</v>
       </c>
       <c r="AR150" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="151">
@@ -21939,10 +21943,10 @@
         <v>3.25</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R151" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
@@ -22191,13 +22195,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H153" t="n">
         <v>3.1</v>
       </c>
       <c r="I153" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J153" t="n">
         <v>3.4</v>
@@ -22206,7 +22210,7 @@
         <v>2</v>
       </c>
       <c r="L153" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M153" t="n">
         <v>1.08</v>
@@ -22221,10 +22225,10 @@
         <v>3</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R153" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
@@ -22247,13 +22251,13 @@
         <v>1.91</v>
       </c>
       <c r="AA153" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB153" t="n">
         <v>12</v>
       </c>
       <c r="AC153" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD153" t="n">
         <v>26</v>
@@ -22473,16 +22477,16 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H155" t="n">
         <v>3.2</v>
       </c>
       <c r="I155" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J155" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K155" t="n">
         <v>2.05</v>
@@ -22491,10 +22495,10 @@
         <v>2.88</v>
       </c>
       <c r="M155" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O155" t="n">
         <v>1.36</v>
@@ -22535,13 +22539,13 @@
         <v>17</v>
       </c>
       <c r="AC155" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD155" t="n">
         <v>41</v>
       </c>
       <c r="AE155" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF155" t="n">
         <v>41</v>
@@ -22550,7 +22554,7 @@
         <v>8</v>
       </c>
       <c r="AH155" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI155" t="n">
         <v>17</v>
@@ -22562,7 +22566,7 @@
         <v>351</v>
       </c>
       <c r="AL155" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM155" t="n">
         <v>9.5</v>
@@ -22632,22 +22636,22 @@
         <v>4</v>
       </c>
       <c r="M156" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O156" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P156" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R156" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
@@ -22805,10 +22809,10 @@
         <v>2.5</v>
       </c>
       <c r="Y157" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA157" t="n">
         <v>8</v>
@@ -22817,7 +22821,7 @@
         <v>12</v>
       </c>
       <c r="AC157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD157" t="n">
         <v>26</v>
@@ -22917,7 +22921,7 @@
         <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O158" t="n">
         <v>1.33</v>
@@ -22934,10 +22938,10 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V158" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W158" t="n">
         <v>1.44</v>
@@ -22946,10 +22950,10 @@
         <v>2.63</v>
       </c>
       <c r="Y158" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA158" t="n">
         <v>12</v>
@@ -23090,7 +23094,7 @@
         <v>2.05</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA159" t="n">
         <v>6</v>
@@ -23178,16 +23182,16 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>3.1</v>
       </c>
       <c r="I160" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J160" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K160" t="n">
         <v>1.95</v>
@@ -23231,7 +23235,7 @@
         <v>2</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA160" t="n">
         <v>7</v>
@@ -23376,7 +23380,7 @@
         <v>2</v>
       </c>
       <c r="Z161" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA161" t="n">
         <v>6</v>
@@ -23517,7 +23521,7 @@
         <v>2</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA162" t="n">
         <v>6</v>
@@ -23764,30 +23768,30 @@
         <v>4</v>
       </c>
       <c r="M164" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N164" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O164" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P164" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R164" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V164" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W164" t="n">
         <v>1.4</v>
@@ -23887,34 +23891,34 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I165" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J165" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K165" t="n">
         <v>2.2</v>
       </c>
       <c r="L165" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M165" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N165" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O165" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P165" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q165" t="n">
         <v>1.8</v>
@@ -23937,25 +23941,25 @@
         <v>3</v>
       </c>
       <c r="Y165" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z165" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA165" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB165" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD165" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE165" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF165" t="n">
         <v>26</v>
@@ -23964,7 +23968,7 @@
         <v>12</v>
       </c>
       <c r="AH165" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI165" t="n">
         <v>13</v>
@@ -23979,16 +23983,16 @@
         <v>10</v>
       </c>
       <c r="AM165" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN165" t="n">
         <v>10</v>
       </c>
       <c r="AO165" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP165" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ165" t="n">
         <v>26</v>
@@ -24310,13 +24314,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H168" t="n">
         <v>3.1</v>
       </c>
       <c r="I168" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J168" t="n">
         <v>3.75</v>
@@ -24331,7 +24335,7 @@
         <v>1.08</v>
       </c>
       <c r="N168" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O168" t="n">
         <v>1.4</v>
@@ -24366,7 +24370,7 @@
         <v>1.8</v>
       </c>
       <c r="AA168" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB168" t="n">
         <v>15</v>
@@ -24460,7 +24464,7 @@
         <v>1.29</v>
       </c>
       <c r="J169" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K169" t="n">
         <v>2.6</v>
@@ -24499,16 +24503,16 @@
         <v>1.5</v>
       </c>
       <c r="W169" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X169" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y169" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z169" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA169" t="n">
         <v>21</v>
@@ -24517,7 +24521,7 @@
         <v>41</v>
       </c>
       <c r="AC169" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD169" t="n">
         <v>101</v>
@@ -24535,13 +24539,13 @@
         <v>11</v>
       </c>
       <c r="AI169" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ169" t="n">
         <v>67</v>
       </c>
       <c r="AK169" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL169" t="n">
         <v>7.5</v>
@@ -24596,7 +24600,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>4.75</v>
@@ -24605,7 +24609,7 @@
         <v>5.75</v>
       </c>
       <c r="J170" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K170" t="n">
         <v>2.3</v>
@@ -24658,7 +24662,7 @@
         <v>7</v>
       </c>
       <c r="AC170" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD170" t="n">
         <v>10</v>
@@ -24670,7 +24674,7 @@
         <v>26</v>
       </c>
       <c r="AG170" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH170" t="n">
         <v>9</v>
@@ -24682,7 +24686,7 @@
         <v>51</v>
       </c>
       <c r="AK170" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL170" t="n">
         <v>15</v>
@@ -24691,10 +24695,10 @@
         <v>29</v>
       </c>
       <c r="AN170" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO170" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP170" t="n">
         <v>41</v>
@@ -24755,10 +24759,10 @@
         <v>4.33</v>
       </c>
       <c r="M171" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N171" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O171" t="n">
         <v>1.44</v>
@@ -24844,10 +24848,10 @@
         <v>41</v>
       </c>
       <c r="AR171" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="172">
@@ -24882,13 +24886,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H172" t="n">
         <v>4.33</v>
       </c>
       <c r="I172" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J172" t="n">
         <v>5.5</v>
@@ -24897,7 +24901,7 @@
         <v>2.3</v>
       </c>
       <c r="L172" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M172" t="n">
         <v>1.04</v>
@@ -24912,10 +24916,10 @@
         <v>4</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R172" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
@@ -24938,13 +24942,13 @@
         <v>1.83</v>
       </c>
       <c r="AA172" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB172" t="n">
         <v>29</v>
       </c>
       <c r="AC172" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD172" t="n">
         <v>51</v>
@@ -24959,7 +24963,7 @@
         <v>13</v>
       </c>
       <c r="AH172" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI172" t="n">
         <v>17</v>
@@ -24968,7 +24972,7 @@
         <v>51</v>
       </c>
       <c r="AK172" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL172" t="n">
         <v>7.5</v>
@@ -24983,10 +24987,10 @@
         <v>11</v>
       </c>
       <c r="AP172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ172" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR172" t="inlineStr"/>
       <c r="AS172" t="inlineStr"/>
@@ -25041,10 +25045,10 @@
         <v>4.75</v>
       </c>
       <c r="M173" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N173" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O173" t="n">
         <v>1.36</v>
@@ -25053,10 +25057,10 @@
         <v>3</v>
       </c>
       <c r="Q173" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R173" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
@@ -25164,28 +25168,28 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H174" t="n">
         <v>3.55</v>
       </c>
       <c r="I174" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="J174" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K174" t="n">
         <v>2.15</v>
       </c>
       <c r="L174" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="M174" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N174" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O174" t="n">
         <v>1.27</v>
@@ -25211,34 +25215,34 @@
         <v>1.4</v>
       </c>
       <c r="X174" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Y174" t="n">
         <v>1.7</v>
       </c>
       <c r="Z174" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA174" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AB174" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC174" t="n">
         <v>14</v>
       </c>
       <c r="AD174" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE174" t="n">
         <v>40</v>
       </c>
       <c r="AF174" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG174" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH174" t="n">
         <v>7.2</v>
@@ -25253,22 +25257,22 @@
         <v>500</v>
       </c>
       <c r="AL174" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AM174" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN174" t="n">
         <v>8.75</v>
       </c>
       <c r="AO174" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP174" t="n">
         <v>15</v>
       </c>
       <c r="AQ174" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR174" t="inlineStr"/>
       <c r="AS174" t="inlineStr"/>
@@ -25308,16 +25312,16 @@
         <v>1.47</v>
       </c>
       <c r="H175" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I175" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K175" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L175" t="n">
         <v>5.9</v>
@@ -25326,13 +25330,13 @@
         <v>1.05</v>
       </c>
       <c r="N175" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O175" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P175" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q175" t="n">
         <v>1.75</v>
@@ -25343,16 +25347,16 @@
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V175" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W175" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X175" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="Y175" t="n">
         <v>1.93</v>
@@ -25370,7 +25374,7 @@
         <v>8.75</v>
       </c>
       <c r="AD175" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE175" t="n">
         <v>12.5</v>
@@ -25379,10 +25383,10 @@
         <v>30</v>
       </c>
       <c r="AG175" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH175" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI175" t="n">
         <v>21</v>
@@ -25446,54 +25450,54 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>3.45</v>
       </c>
       <c r="I176" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="J176" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K176" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L176" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="M176" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N176" t="n">
         <v>7.6</v>
       </c>
       <c r="O176" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P176" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R176" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="V176" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W176" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X176" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Y176" t="n">
         <v>1.78</v>
@@ -25502,13 +25506,13 @@
         <v>1.93</v>
       </c>
       <c r="AA176" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB176" t="n">
         <v>9</v>
       </c>
       <c r="AC176" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD176" t="n">
         <v>16</v>
@@ -25517,13 +25521,13 @@
         <v>15.5</v>
       </c>
       <c r="AF176" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG176" t="n">
         <v>7.6</v>
       </c>
       <c r="AH176" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI176" t="n">
         <v>15.5</v>
@@ -25535,7 +25539,7 @@
         <v>600</v>
       </c>
       <c r="AL176" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM176" t="n">
         <v>28</v>
@@ -25731,25 +25735,25 @@
         <v>1.95</v>
       </c>
       <c r="H178" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I178" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J178" t="n">
         <v>2.5</v>
       </c>
       <c r="K178" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L178" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M178" t="n">
         <v>1.07</v>
       </c>
       <c r="N178" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O178" t="n">
         <v>1.34</v>
@@ -25766,7 +25770,7 @@
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V178" t="n">
         <v>1.29</v>
@@ -25778,13 +25782,13 @@
         <v>2.85</v>
       </c>
       <c r="Y178" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AA178" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB178" t="n">
         <v>9.5</v>
@@ -25793,7 +25797,7 @@
         <v>9</v>
       </c>
       <c r="AD178" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE178" t="n">
         <v>17.5</v>
@@ -25802,13 +25806,13 @@
         <v>32</v>
       </c>
       <c r="AG178" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH178" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI178" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ178" t="n">
         <v>80</v>
@@ -25817,16 +25821,16 @@
         <v>700</v>
       </c>
       <c r="AL178" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM178" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN178" t="n">
         <v>13.5</v>
       </c>
       <c r="AO178" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP178" t="n">
         <v>40</v>
@@ -26433,22 +26437,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H183" t="n">
         <v>3.3</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J183" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K183" t="n">
         <v>2.1</v>
       </c>
       <c r="L183" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M183" t="n">
         <v>1.06</v>
@@ -26489,22 +26493,22 @@
         <v>2</v>
       </c>
       <c r="AA183" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB183" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC183" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD183" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE183" t="n">
         <v>19</v>
       </c>
       <c r="AF183" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG183" t="n">
         <v>10</v>
@@ -26522,19 +26526,19 @@
         <v>201</v>
       </c>
       <c r="AL183" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM183" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO183" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP183" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ183" t="n">
         <v>34</v>
@@ -26574,10 +26578,10 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H184" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I184" t="n">
         <v>3.3</v>
@@ -26598,16 +26602,16 @@
         <v>8</v>
       </c>
       <c r="O184" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P184" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R184" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
@@ -26618,10 +26622,10 @@
         <v>1.17</v>
       </c>
       <c r="W184" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X184" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y184" t="n">
         <v>2.1</v>
@@ -26633,7 +26637,7 @@
         <v>6</v>
       </c>
       <c r="AB184" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC184" t="n">
         <v>9.5</v>
@@ -26648,7 +26652,7 @@
         <v>41</v>
       </c>
       <c r="AG184" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH184" t="n">
         <v>6.5</v>
@@ -26681,10 +26685,10 @@
         <v>41</v>
       </c>
       <c r="AR184" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AS184" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="185">
@@ -26719,19 +26723,19 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H185" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
       </c>
       <c r="J185" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K185" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L185" t="n">
         <v>3.5</v>
@@ -26743,16 +26747,16 @@
         <v>11</v>
       </c>
       <c r="O185" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P185" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q185" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R185" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
@@ -26793,10 +26797,10 @@
         <v>26</v>
       </c>
       <c r="AG185" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH185" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI185" t="n">
         <v>13</v>
@@ -27313,18 +27317,18 @@
         <v>3.25</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R189" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V189" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W189" t="n">
         <v>1.44</v>
@@ -27442,22 +27446,22 @@
         <v>7</v>
       </c>
       <c r="M190" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N190" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O190" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P190" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R190" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
@@ -27531,10 +27535,10 @@
         <v>67</v>
       </c>
       <c r="AR190" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="191">
@@ -27717,7 +27721,7 @@
         <v>1.48</v>
       </c>
       <c r="H192" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I192" t="n">
         <v>5.75</v>
@@ -27726,16 +27730,16 @@
         <v>2</v>
       </c>
       <c r="K192" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L192" t="n">
         <v>6</v>
       </c>
       <c r="M192" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N192" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O192" t="n">
         <v>1.22</v>
@@ -27806,10 +27810,10 @@
         <v>15</v>
       </c>
       <c r="AM192" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN192" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO192" t="n">
         <v>67</v>
@@ -28567,45 +28571,45 @@
         <v>8</v>
       </c>
       <c r="H198" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I198" t="n">
         <v>1.33</v>
       </c>
       <c r="J198" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="K198" t="n">
         <v>2.52</v>
       </c>
       <c r="L198" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="M198" t="n">
         <v>1.03</v>
       </c>
       <c r="N198" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O198" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P198" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R198" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="V198" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W198" t="n">
         <v>1.29</v>
@@ -28614,16 +28618,16 @@
         <v>3.25</v>
       </c>
       <c r="Y198" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Z198" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AA198" t="n">
         <v>24</v>
       </c>
       <c r="AB198" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC198" t="n">
         <v>24</v>
@@ -28638,7 +28642,7 @@
         <v>70</v>
       </c>
       <c r="AG198" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH198" t="n">
         <v>10</v>
@@ -28653,16 +28657,16 @@
         <v>600</v>
       </c>
       <c r="AL198" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AM198" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AN198" t="n">
         <v>8.5</v>
       </c>
       <c r="AO198" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP198" t="n">
         <v>10.5</v>
@@ -28717,19 +28721,19 @@
         <v>2.75</v>
       </c>
       <c r="K199" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L199" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M199" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N199" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O199" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P199" t="n">
         <v>3.7</v>
@@ -28752,7 +28756,7 @@
         <v>1.36</v>
       </c>
       <c r="X199" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Y199" t="n">
         <v>1.6</v>
@@ -28779,10 +28783,10 @@
         <v>23</v>
       </c>
       <c r="AG199" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH199" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI199" t="n">
         <v>12.5</v>
@@ -29005,10 +29009,10 @@
         <v>2.3</v>
       </c>
       <c r="M201" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N201" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O201" t="n">
         <v>1.22</v>
@@ -29158,16 +29162,16 @@
         <v>5</v>
       </c>
       <c r="Q202" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R202" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S202" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T202" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U202" t="n">
         <v>2.38</v>
@@ -29191,7 +29195,7 @@
         <v>9</v>
       </c>
       <c r="AB202" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC202" t="n">
         <v>8.5</v>
@@ -29279,7 +29283,7 @@
         <v>3.2</v>
       </c>
       <c r="I203" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J203" t="n">
         <v>3.25</v>
@@ -29329,10 +29333,10 @@
         <v>1.91</v>
       </c>
       <c r="AA203" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB203" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC203" t="n">
         <v>10</v>
@@ -29350,7 +29354,7 @@
         <v>9</v>
       </c>
       <c r="AH203" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI203" t="n">
         <v>15</v>
@@ -29644,10 +29648,10 @@
         <v>4</v>
       </c>
       <c r="M206" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N206" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O206" t="n">
         <v>1.29</v>
@@ -29767,44 +29771,44 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="H207" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I207" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J207" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="K207" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L207" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P207" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q207" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R207" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="V207" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W207" t="n">
         <v>1.39</v>
@@ -29819,16 +29823,16 @@
         <v>1.4</v>
       </c>
       <c r="AA207" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB207" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AC207" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD207" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE207" t="n">
         <v>250</v>
@@ -29837,22 +29841,22 @@
         <v>200</v>
       </c>
       <c r="AG207" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH207" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI207" t="n">
         <v>37</v>
       </c>
       <c r="AJ207" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AK207" t="n">
         <v>101</v>
       </c>
       <c r="AL207" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AM207" t="n">
         <v>5</v>
@@ -29861,10 +29865,10 @@
         <v>10</v>
       </c>
       <c r="AO207" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AP207" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ207" t="n">
         <v>50</v>
@@ -29913,7 +29917,7 @@
         <v>2.85</v>
       </c>
       <c r="J208" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K208" t="n">
         <v>1.83</v>
@@ -29922,36 +29926,36 @@
         <v>3.6</v>
       </c>
       <c r="M208" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N208" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O208" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P208" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R208" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="V208" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W208" t="n">
         <v>1.57</v>
       </c>
       <c r="X208" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y208" t="n">
         <v>1.98</v>
@@ -29960,13 +29964,13 @@
         <v>1.65</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB208" t="n">
         <v>11.5</v>
       </c>
       <c r="AC208" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD208" t="n">
         <v>30</v>
@@ -30057,7 +30061,7 @@
         <v>2.12</v>
       </c>
       <c r="K209" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L209" t="n">
         <v>5.8</v>
@@ -30091,7 +30095,7 @@
         <v>2.47</v>
       </c>
       <c r="Y209" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z209" t="n">
         <v>1.65</v>
@@ -30106,7 +30110,7 @@
         <v>8.25</v>
       </c>
       <c r="AD209" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE209" t="n">
         <v>13.5</v>
@@ -30182,10 +30186,10 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H210" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I210" t="n">
         <v>3.25</v>
@@ -30194,10 +30198,10 @@
         <v>2.75</v>
       </c>
       <c r="K210" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L210" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M210" t="n">
         <v>1.03</v>
@@ -30206,42 +30210,46 @@
         <v>15</v>
       </c>
       <c r="O210" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P210" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q210" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R210" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S210" t="inlineStr"/>
-      <c r="T210" t="inlineStr"/>
+        <v>2.35</v>
+      </c>
+      <c r="S210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.9</v>
+      </c>
       <c r="U210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z210" t="n">
         <v>2.5</v>
       </c>
-      <c r="V210" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W210" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X210" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y210" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z210" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AA210" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB210" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC210" t="n">
         <v>9.5</v>
@@ -30250,16 +30258,16 @@
         <v>21</v>
       </c>
       <c r="AE210" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF210" t="n">
         <v>21</v>
       </c>
       <c r="AG210" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH210" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI210" t="n">
         <v>11</v>
@@ -30268,10 +30276,10 @@
         <v>34</v>
       </c>
       <c r="AK210" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL210" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM210" t="n">
         <v>19</v>
@@ -30283,10 +30291,10 @@
         <v>34</v>
       </c>
       <c r="AP210" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ210" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR210" t="inlineStr"/>
       <c r="AS210" t="inlineStr"/>
@@ -30344,7 +30352,7 @@
         <v>1.06</v>
       </c>
       <c r="N211" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O211" t="n">
         <v>1.29</v>
@@ -30353,10 +30361,10 @@
         <v>3.5</v>
       </c>
       <c r="Q211" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R211" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S211" t="inlineStr"/>
       <c r="T211" t="inlineStr"/>
@@ -30750,28 +30758,28 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H214" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I214" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J214" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K214" t="n">
         <v>2.3</v>
       </c>
       <c r="L214" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M214" t="n">
         <v>1.04</v>
       </c>
       <c r="N214" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O214" t="n">
         <v>1.22</v>
@@ -30780,10 +30788,10 @@
         <v>4</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R214" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
@@ -30800,25 +30808,25 @@
         <v>3.25</v>
       </c>
       <c r="Y214" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z214" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA214" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB214" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC214" t="n">
         <v>8.5</v>
       </c>
       <c r="AD214" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE214" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF214" t="n">
         <v>23</v>
@@ -30827,22 +30835,22 @@
         <v>12</v>
       </c>
       <c r="AH214" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI214" t="n">
         <v>15</v>
       </c>
       <c r="AJ214" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK214" t="n">
         <v>201</v>
       </c>
       <c r="AL214" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM214" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN214" t="n">
         <v>17</v>
@@ -30921,10 +30929,10 @@
         <v>4.5</v>
       </c>
       <c r="Q215" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R215" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S215" t="n">
         <v>2.05</v>
@@ -31181,16 +31189,16 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H217" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I217" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J217" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K217" t="n">
         <v>2.4</v>
@@ -31225,10 +31233,10 @@
         <v>1.44</v>
       </c>
       <c r="W217" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X217" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y217" t="n">
         <v>1.8</v>
@@ -31267,16 +31275,16 @@
         <v>51</v>
       </c>
       <c r="AK217" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL217" t="n">
         <v>17</v>
       </c>
       <c r="AM217" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN217" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO217" t="n">
         <v>67</v>
@@ -31352,10 +31360,10 @@
         <v>4.5</v>
       </c>
       <c r="Q218" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R218" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S218" t="n">
         <v>2.03</v>
@@ -31467,13 +31475,13 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>3.5</v>
       </c>
       <c r="I219" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J219" t="n">
         <v>2.75</v>
@@ -31482,7 +31490,7 @@
         <v>2.3</v>
       </c>
       <c r="L219" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M219" t="n">
         <v>1.03</v>
@@ -31491,16 +31499,16 @@
         <v>15</v>
       </c>
       <c r="O219" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P219" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q219" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R219" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S219" t="n">
         <v>2.05</v>
@@ -31509,22 +31517,22 @@
         <v>1.8</v>
       </c>
       <c r="U219" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V219" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W219" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X219" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y219" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z219" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA219" t="n">
         <v>10</v>
@@ -31539,13 +31547,13 @@
         <v>21</v>
       </c>
       <c r="AE219" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF219" t="n">
         <v>21</v>
       </c>
       <c r="AG219" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH219" t="n">
         <v>7</v>
@@ -31557,7 +31565,7 @@
         <v>34</v>
       </c>
       <c r="AK219" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL219" t="n">
         <v>13</v>
@@ -31612,107 +31620,107 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="H220" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I220" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="J220" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="K220" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L220" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P220" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="Q220" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R220" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="V220" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W220" t="n">
         <v>1.47</v>
       </c>
       <c r="X220" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Y220" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Z220" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA220" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB220" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC220" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD220" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE220" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF220" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG220" t="n">
         <v>7.1</v>
       </c>
       <c r="AH220" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AI220" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ220" t="n">
         <v>90</v>
       </c>
       <c r="AK220" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL220" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM220" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN220" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AO220" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP220" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AQ220" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR220" t="inlineStr"/>
       <c r="AS220" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -867,10 +867,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -899,7 +899,7 @@
         <v>6.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>8.5</v>
@@ -908,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -932,7 +932,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
         <v>101</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1212,7 +1212,7 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1294,10 +1294,10 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
         <v>2.07</v>
@@ -1306,10 +1306,10 @@
         <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>1.3</v>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>2.6</v>
@@ -1427,10 +1427,10 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1501,16 +1501,16 @@
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>
@@ -1860,10 +1860,10 @@
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.67</v>
@@ -1878,10 +1878,10 @@
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
         <v>1.33</v>
@@ -2432,16 +2432,16 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
         <v>2.05</v>
@@ -2988,16 +2988,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
@@ -3291,7 +3291,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
@@ -3306,10 +3306,10 @@
         <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
@@ -3586,13 +3586,13 @@
         <v>2.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T22" t="n">
         <v>1.19</v>
@@ -3884,10 +3884,10 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>3.6</v>
@@ -4196,7 +4196,7 @@
         <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X26" t="n">
         <v>2.05</v>
@@ -4720,22 +4720,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4756,10 +4756,10 @@
         <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>2.3</v>
@@ -4774,22 +4774,22 @@
         <v>3.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA30" t="n">
         <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC30" t="n">
         <v>8.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -4801,13 +4801,13 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="n">
         <v>126</v>
@@ -4822,13 +4822,13 @@
         <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>4.1</v>
@@ -5437,16 +5437,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K35" t="n">
         <v>2.3</v>
@@ -5458,7 +5458,7 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
@@ -5505,16 +5505,16 @@
         <v>10</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI35" t="n">
         <v>21</v>
@@ -5526,7 +5526,7 @@
         <v>401</v>
       </c>
       <c r="AL35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM35" t="n">
         <v>29</v>
@@ -6290,10 +6290,10 @@
         <v>1.36</v>
       </c>
       <c r="H41" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
         <v>1.83</v>
@@ -6343,13 +6343,13 @@
         <v>1.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="n">
         <v>6.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD41" t="n">
         <v>8.5</v>
@@ -6714,16 +6714,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K44" t="n">
         <v>1.91</v>
@@ -6732,10 +6732,10 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -6744,18 +6744,18 @@
         <v>2.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W44" t="n">
         <v>1.57</v>
@@ -6764,19 +6764,19 @@
         <v>2.25</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB44" t="n">
         <v>10</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD44" t="n">
         <v>23</v>
@@ -6788,7 +6788,7 @@
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH44" t="n">
         <v>6</v>
@@ -6797,7 +6797,7 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="n">
         <v>1250</v>
@@ -6821,10 +6821,10 @@
         <v>41</v>
       </c>
       <c r="AR44" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="45">
@@ -6877,10 +6877,10 @@
         <v>5.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
         <v>1.33</v>
@@ -7000,13 +7000,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H46" t="n">
         <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="n">
         <v>2.75</v>
@@ -7018,10 +7018,10 @@
         <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -7030,10 +7030,10 @@
         <v>3.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7092,7 +7092,7 @@
         <v>11</v>
       </c>
       <c r="AM46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN46" t="n">
         <v>15</v>
@@ -7163,10 +7163,10 @@
         <v>3.1</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
         <v>1.3</v>
@@ -7175,10 +7175,10 @@
         <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R47" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
         <v>2.8</v>
@@ -7187,10 +7187,10 @@
         <v>1.42</v>
       </c>
       <c r="U47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W47" t="n">
         <v>1.4</v>
@@ -7744,60 +7744,60 @@
         <v>2.4</v>
       </c>
       <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J51" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3</v>
       </c>
       <c r="K51" t="n">
         <v>2.1</v>
       </c>
       <c r="L51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB51" t="n">
         <v>12</v>
@@ -7812,28 +7812,28 @@
         <v>19</v>
       </c>
       <c r="AF51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
         <v>6</v>
       </c>
       <c r="AI51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ51" t="n">
         <v>41</v>
       </c>
       <c r="AK51" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN51" t="n">
         <v>12</v>
@@ -7842,7 +7842,7 @@
         <v>34</v>
       </c>
       <c r="AP51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ51" t="n">
         <v>34</v>
@@ -7900,16 +7900,16 @@
         <v>2.75</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q52" t="n">
         <v>1.7</v>
@@ -8309,19 +8309,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H55" t="n">
         <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
       </c>
       <c r="K55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L55" t="n">
         <v>5</v>
@@ -8372,16 +8372,16 @@
         <v>5.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC55" t="n">
         <v>9.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="n">
         <v>41</v>
@@ -8411,7 +8411,7 @@
         <v>15</v>
       </c>
       <c r="AO55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP55" t="n">
         <v>41</v>
@@ -8607,13 +8607,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
@@ -8622,7 +8622,7 @@
         <v>1.91</v>
       </c>
       <c r="L57" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.13</v>
@@ -8684,7 +8684,7 @@
         <v>6</v>
       </c>
       <c r="AH57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI57" t="n">
         <v>23</v>
@@ -8696,10 +8696,10 @@
         <v>1250</v>
       </c>
       <c r="AL57" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AM57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
@@ -8752,40 +8752,40 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H58" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K58" t="n">
         <v>2.2</v>
       </c>
       <c r="L58" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R58" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -8811,7 +8811,7 @@
         <v>8</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC58" t="n">
         <v>9</v>
@@ -8820,13 +8820,13 @@
         <v>17</v>
       </c>
       <c r="AE58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF58" t="n">
         <v>26</v>
       </c>
       <c r="AG58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH58" t="n">
         <v>6</v>
@@ -8841,13 +8841,13 @@
         <v>201</v>
       </c>
       <c r="AL58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM58" t="n">
         <v>21</v>
       </c>
       <c r="AN58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO58" t="n">
         <v>41</v>
@@ -9175,22 +9175,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I61" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="J61" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K61" t="n">
         <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9231,22 +9231,22 @@
         <v>2.02</v>
       </c>
       <c r="AA61" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB61" t="n">
         <v>17.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AD61" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE61" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF61" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG61" t="n">
         <v>7.9</v>
@@ -9264,22 +9264,22 @@
         <v>500</v>
       </c>
       <c r="AL61" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AM61" t="n">
         <v>11.75</v>
       </c>
       <c r="AN61" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO61" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP61" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AQ61" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -9491,18 +9491,18 @@
         <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V63" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W63" t="n">
         <v>1.44</v>
@@ -9620,16 +9620,16 @@
         <v>2.3</v>
       </c>
       <c r="M64" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q64" t="n">
         <v>1.7</v>
@@ -9644,10 +9644,10 @@
         <v>1.74</v>
       </c>
       <c r="U64" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V64" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W64" t="n">
         <v>1.33</v>
@@ -10614,7 +10614,7 @@
         <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -10623,7 +10623,7 @@
         <v>3.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
         <v>1.8</v>
@@ -10631,10 +10631,10 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10682,7 +10682,7 @@
         <v>251</v>
       </c>
       <c r="AL71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM71" t="n">
         <v>13</v>
@@ -10752,10 +10752,10 @@
         <v>8</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O72" t="n">
         <v>1.25</v>
@@ -10878,10 +10878,10 @@
         <v>3.6</v>
       </c>
       <c r="H73" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I73" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J73" t="n">
         <v>4</v>
@@ -10899,16 +10899,16 @@
         <v>10</v>
       </c>
       <c r="O73" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P73" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
@@ -10919,10 +10919,10 @@
         <v>1.3</v>
       </c>
       <c r="W73" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X73" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y73" t="n">
         <v>1.8</v>
@@ -10946,16 +10946,16 @@
         <v>29</v>
       </c>
       <c r="AF73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG73" t="n">
         <v>9.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ73" t="n">
         <v>51</v>
@@ -10979,7 +10979,7 @@
         <v>17</v>
       </c>
       <c r="AQ73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -11040,16 +11040,16 @@
         <v>10</v>
       </c>
       <c r="O74" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R74" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -11187,18 +11187,18 @@
         <v>3.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R75" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W75" t="n">
         <v>1.36</v>
@@ -11745,16 +11745,16 @@
         <v>11</v>
       </c>
       <c r="O79" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P79" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R79" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
@@ -12033,18 +12033,18 @@
         <v>3.5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R81" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W81" t="n">
         <v>1.4</v>
@@ -12092,7 +12092,7 @@
         <v>201</v>
       </c>
       <c r="AL81" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM81" t="n">
         <v>11</v>
@@ -12426,13 +12426,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H84" t="n">
         <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J84" t="n">
         <v>3</v>
@@ -12441,13 +12441,13 @@
         <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M84" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
         <v>1.36</v>
@@ -12515,22 +12515,22 @@
         <v>301</v>
       </c>
       <c r="AL84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM84" t="n">
         <v>15</v>
       </c>
       <c r="AN84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO84" t="n">
         <v>34</v>
       </c>
       <c r="AP84" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -12567,13 +12567,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H85" t="n">
         <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J85" t="n">
         <v>3.25</v>
@@ -12623,25 +12623,25 @@
         <v>1.8</v>
       </c>
       <c r="AA85" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC85" t="n">
         <v>10</v>
       </c>
       <c r="AD85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE85" t="n">
         <v>23</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>21</v>
       </c>
       <c r="AF85" t="n">
         <v>34</v>
       </c>
       <c r="AG85" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH85" t="n">
         <v>6</v>
@@ -12887,10 +12887,10 @@
         <v>2.75</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R87" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -13435,10 +13435,10 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R91" t="n">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -13451,10 +13451,10 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Z91" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="AA91" t="n">
         <v>8.5</v>
@@ -13542,13 +13542,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>3.6</v>
       </c>
       <c r="I92" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J92" t="n">
         <v>5.5</v>
@@ -13572,10 +13572,10 @@
         <v>3.25</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R92" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
@@ -13601,10 +13601,10 @@
         <v>12</v>
       </c>
       <c r="AB92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC92" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD92" t="n">
         <v>51</v>
@@ -13713,18 +13713,18 @@
         <v>3.4</v>
       </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R93" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V93" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W93" t="n">
         <v>1.44</v>
@@ -13824,13 +13824,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H94" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J94" t="n">
         <v>2.2</v>
@@ -13848,10 +13848,10 @@
         <v>13</v>
       </c>
       <c r="O94" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P94" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q94" t="n">
         <v>1.7</v>
@@ -13862,10 +13862,10 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V94" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W94" t="n">
         <v>1.33</v>
@@ -13892,7 +13892,7 @@
         <v>12</v>
       </c>
       <c r="AE94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF94" t="n">
         <v>23</v>
@@ -13919,7 +13919,7 @@
         <v>26</v>
       </c>
       <c r="AN94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO94" t="n">
         <v>51</v>
@@ -15125,10 +15125,10 @@
         <v>13</v>
       </c>
       <c r="O103" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P103" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q103" t="n">
         <v>1.7</v>
@@ -15272,18 +15272,18 @@
         <v>3.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V104" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W104" t="n">
         <v>1.36</v>
@@ -15383,19 +15383,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I105" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K105" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L105" t="n">
         <v>4.75</v>
@@ -15464,7 +15464,7 @@
         <v>15</v>
       </c>
       <c r="AH105" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI105" t="n">
         <v>15</v>
@@ -15485,7 +15485,7 @@
         <v>13</v>
       </c>
       <c r="AO105" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP105" t="n">
         <v>34</v>
@@ -15552,16 +15552,16 @@
         <v>10</v>
       </c>
       <c r="O106" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P106" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R106" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S106" t="n">
         <v>3.05</v>
@@ -15570,10 +15570,10 @@
         <v>1.39</v>
       </c>
       <c r="U106" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V106" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W106" t="n">
         <v>1.44</v>
@@ -15695,10 +15695,10 @@
         <v>2.88</v>
       </c>
       <c r="M107" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O107" t="n">
         <v>1.44</v>
@@ -15856,16 +15856,16 @@
         <v>3.75</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R108" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S108" t="n">
-        <v>2.49</v>
+        <v>2.46</v>
       </c>
       <c r="T108" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U108" t="n">
         <v>3</v>
@@ -15937,7 +15937,7 @@
         <v>126</v>
       </c>
       <c r="AR108" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AS108" t="n">
         <v>2.9</v>
@@ -16257,16 +16257,16 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H111" t="n">
         <v>3.4</v>
       </c>
       <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
         <v>2.88</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3</v>
       </c>
       <c r="K111" t="n">
         <v>2.2</v>
@@ -16287,18 +16287,18 @@
         <v>3.75</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V111" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W111" t="n">
         <v>1.36</v>
@@ -16322,10 +16322,10 @@
         <v>9.5</v>
       </c>
       <c r="AD111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF111" t="n">
         <v>26</v>
@@ -16346,7 +16346,7 @@
         <v>151</v>
       </c>
       <c r="AL111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM111" t="n">
         <v>15</v>
@@ -16358,7 +16358,7 @@
         <v>29</v>
       </c>
       <c r="AP111" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ111" t="n">
         <v>29</v>
@@ -16428,10 +16428,10 @@
         <v>3.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R112" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
@@ -16539,16 +16539,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I113" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K113" t="n">
         <v>2.5</v>
@@ -16574,8 +16574,12 @@
       <c r="R113" t="n">
         <v>2.5</v>
       </c>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T113" t="n">
+        <v>2</v>
+      </c>
       <c r="U113" t="n">
         <v>2.2</v>
       </c>
@@ -16583,10 +16587,10 @@
         <v>1.62</v>
       </c>
       <c r="W113" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X113" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y113" t="n">
         <v>1.53</v>
@@ -16598,7 +16602,7 @@
         <v>11</v>
       </c>
       <c r="AB113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC113" t="n">
         <v>8.5</v>
@@ -16607,7 +16611,7 @@
         <v>15</v>
       </c>
       <c r="AE113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF113" t="n">
         <v>19</v>
@@ -16616,10 +16620,10 @@
         <v>19</v>
       </c>
       <c r="AH113" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI113" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ113" t="n">
         <v>34</v>
@@ -16817,27 +16821,27 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>3.4</v>
       </c>
       <c r="I115" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J115" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K115" t="n">
         <v>2.18</v>
       </c>
       <c r="L115" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P115" t="n">
         <v>3.65</v>
@@ -16846,15 +16850,15 @@
         <v>1.6</v>
       </c>
       <c r="R115" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="V115" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W115" t="n">
         <v>1.4</v>
@@ -16866,7 +16870,7 @@
         <v>1.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AA115" t="n">
         <v>12</v>
@@ -16884,7 +16888,7 @@
         <v>23</v>
       </c>
       <c r="AF115" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG115" t="n">
         <v>13</v>
@@ -16911,10 +16915,10 @@
         <v>8.75</v>
       </c>
       <c r="AO115" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP115" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ115" t="n">
         <v>21</v>
@@ -16954,33 +16958,33 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="H116" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I116" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="J116" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K116" t="n">
         <v>2.1</v>
       </c>
       <c r="L116" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P116" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R116" t="n">
         <v>1.7</v>
@@ -16988,10 +16992,10 @@
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="V116" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W116" t="n">
         <v>1.42</v>
@@ -17009,25 +17013,25 @@
         <v>8.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC116" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD116" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE116" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF116" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG116" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH116" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI116" t="n">
         <v>13.5</v>
@@ -17042,19 +17046,19 @@
         <v>7.9</v>
       </c>
       <c r="AM116" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN116" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AO116" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP116" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ116" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
@@ -17391,10 +17395,10 @@
         <v>1.67</v>
       </c>
       <c r="M119" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O119" t="n">
         <v>1.14</v>
@@ -17403,10 +17407,10 @@
         <v>5.5</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R119" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr"/>
@@ -17447,7 +17451,7 @@
         <v>51</v>
       </c>
       <c r="AG119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH119" t="n">
         <v>12</v>
@@ -17465,13 +17469,13 @@
         <v>8.5</v>
       </c>
       <c r="AM119" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN119" t="n">
         <v>9.5</v>
       </c>
       <c r="AO119" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP119" t="n">
         <v>11</v>
@@ -17514,13 +17518,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I120" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J120" t="n">
         <v>4</v>
@@ -17529,7 +17533,7 @@
         <v>2.05</v>
       </c>
       <c r="L120" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M120" t="n">
         <v>1.07</v>
@@ -17552,10 +17556,10 @@
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V120" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W120" t="n">
         <v>1.44</v>
@@ -17564,16 +17568,16 @@
         <v>2.63</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA120" t="n">
         <v>9</v>
       </c>
       <c r="AB120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC120" t="n">
         <v>12</v>
@@ -17594,25 +17598,25 @@
         <v>6.5</v>
       </c>
       <c r="AI120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ120" t="n">
         <v>51</v>
       </c>
       <c r="AK120" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL120" t="n">
         <v>7</v>
       </c>
       <c r="AM120" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN120" t="n">
         <v>9.5</v>
       </c>
       <c r="AO120" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP120" t="n">
         <v>19</v>
@@ -17796,28 +17800,28 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I122" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J122" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K122" t="n">
         <v>2</v>
       </c>
       <c r="L122" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M122" t="n">
         <v>1.08</v>
       </c>
       <c r="N122" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O122" t="n">
         <v>1.4</v>
@@ -17855,16 +17859,16 @@
         <v>6.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC122" t="n">
         <v>9.5</v>
       </c>
       <c r="AD122" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE122" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF122" t="n">
         <v>34</v>
@@ -17885,10 +17889,10 @@
         <v>351</v>
       </c>
       <c r="AL122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN122" t="n">
         <v>13</v>
@@ -17897,7 +17901,7 @@
         <v>41</v>
       </c>
       <c r="AP122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ122" t="n">
         <v>41</v>
@@ -17937,13 +17941,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>3.3</v>
       </c>
       <c r="I123" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J123" t="n">
         <v>2.75</v>
@@ -17967,10 +17971,10 @@
         <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R123" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr"/>
@@ -17993,19 +17997,19 @@
         <v>1.8</v>
       </c>
       <c r="AA123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB123" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC123" t="n">
         <v>9</v>
       </c>
       <c r="AD123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF123" t="n">
         <v>29</v>
@@ -18017,7 +18021,7 @@
         <v>6.5</v>
       </c>
       <c r="AI123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ123" t="n">
         <v>51</v>
@@ -18029,7 +18033,7 @@
         <v>9.5</v>
       </c>
       <c r="AM123" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN123" t="n">
         <v>13</v>
@@ -18078,28 +18082,28 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H124" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I124" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J124" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K124" t="n">
         <v>2</v>
       </c>
       <c r="L124" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N124" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O124" t="n">
         <v>1.44</v>
@@ -18108,24 +18112,24 @@
         <v>2.63</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R124" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S124" t="inlineStr"/>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V124" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W124" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X124" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y124" t="n">
         <v>2.1</v>
@@ -18137,7 +18141,7 @@
         <v>5.5</v>
       </c>
       <c r="AB124" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC124" t="n">
         <v>9</v>
@@ -18146,7 +18150,7 @@
         <v>15</v>
       </c>
       <c r="AE124" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF124" t="n">
         <v>34</v>
@@ -18167,13 +18171,13 @@
         <v>501</v>
       </c>
       <c r="AL124" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM124" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO124" t="n">
         <v>51</v>
@@ -18185,10 +18189,10 @@
         <v>51</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="125">
@@ -18223,22 +18227,22 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H125" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I125" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J125" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K125" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L125" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M125" t="n">
         <v>1.06</v>
@@ -18267,10 +18271,10 @@
         <v>1.25</v>
       </c>
       <c r="W125" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X125" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y125" t="n">
         <v>1.95</v>
@@ -18282,22 +18286,22 @@
         <v>6.5</v>
       </c>
       <c r="AB125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC125" t="n">
         <v>8.5</v>
       </c>
-      <c r="AC125" t="n">
-        <v>9</v>
-      </c>
       <c r="AD125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF125" t="n">
         <v>29</v>
       </c>
       <c r="AG125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH125" t="n">
         <v>6.5</v>
@@ -18312,13 +18316,13 @@
         <v>351</v>
       </c>
       <c r="AL125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM125" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO125" t="n">
         <v>41</v>
@@ -18364,40 +18368,40 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I126" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J126" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K126" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L126" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M126" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O126" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P126" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R126" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S126" t="n">
         <v>2.05</v>
@@ -18406,10 +18410,10 @@
         <v>1.8</v>
       </c>
       <c r="U126" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V126" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W126" t="n">
         <v>1.33</v>
@@ -18418,22 +18422,22 @@
         <v>3.25</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z126" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC126" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD126" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE126" t="n">
         <v>19</v>
@@ -18442,19 +18446,19 @@
         <v>23</v>
       </c>
       <c r="AG126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH126" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI126" t="n">
         <v>12</v>
       </c>
       <c r="AJ126" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK126" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL126" t="n">
         <v>11</v>
@@ -18463,16 +18467,16 @@
         <v>15</v>
       </c>
       <c r="AN126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO126" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ126" t="n">
         <v>26</v>
-      </c>
-      <c r="AP126" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ126" t="n">
-        <v>23</v>
       </c>
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
@@ -18509,13 +18513,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>3.4</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J127" t="n">
         <v>2.63</v>
@@ -18527,10 +18531,10 @@
         <v>4.75</v>
       </c>
       <c r="M127" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N127" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O127" t="n">
         <v>1.4</v>
@@ -18568,13 +18572,13 @@
         <v>6</v>
       </c>
       <c r="AB127" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC127" t="n">
         <v>9</v>
       </c>
       <c r="AD127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE127" t="n">
         <v>17</v>
@@ -18595,13 +18599,13 @@
         <v>67</v>
       </c>
       <c r="AK127" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL127" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN127" t="n">
         <v>15</v>
@@ -18610,7 +18614,7 @@
         <v>41</v>
       </c>
       <c r="AP127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ127" t="n">
         <v>41</v>
@@ -18650,22 +18654,22 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="H128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L128" t="n">
         <v>4</v>
-      </c>
-      <c r="I128" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K128" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L128" t="n">
-        <v>4.5</v>
       </c>
       <c r="M128" t="n">
         <v>1.03</v>
@@ -18674,16 +18678,16 @@
         <v>15</v>
       </c>
       <c r="O128" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P128" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R128" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S128" t="n">
         <v>2.05</v>
@@ -18692,10 +18696,10 @@
         <v>1.8</v>
       </c>
       <c r="U128" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V128" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W128" t="n">
         <v>1.3</v>
@@ -18710,19 +18714,19 @@
         <v>2.2</v>
       </c>
       <c r="AA128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB128" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC128" t="n">
         <v>8.5</v>
       </c>
       <c r="AD128" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE128" t="n">
         <v>15</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>13</v>
       </c>
       <c r="AF128" t="n">
         <v>21</v>
@@ -18731,7 +18735,7 @@
         <v>15</v>
       </c>
       <c r="AH128" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI128" t="n">
         <v>13</v>
@@ -18743,10 +18747,10 @@
         <v>151</v>
       </c>
       <c r="AL128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM128" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN128" t="n">
         <v>13</v>
@@ -18755,10 +18759,10 @@
         <v>41</v>
       </c>
       <c r="AP128" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ128" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ128" t="n">
-        <v>34</v>
       </c>
       <c r="AR128" t="inlineStr"/>
       <c r="AS128" t="inlineStr"/>
@@ -18795,87 +18799,87 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I129" t="n">
+        <v>4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L129" t="n">
         <v>5</v>
       </c>
-      <c r="J129" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L129" t="n">
-        <v>6</v>
-      </c>
       <c r="M129" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N129" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O129" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P129" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R129" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V129" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W129" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z129" t="n">
         <v>1.57</v>
       </c>
-      <c r="X129" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y129" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z129" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AA129" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC129" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD129" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE129" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF129" t="n">
         <v>41</v>
       </c>
       <c r="AG129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ129" t="n">
         <v>81</v>
@@ -18884,28 +18888,28 @@
         <v>101</v>
       </c>
       <c r="AL129" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AM129" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO129" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP129" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ129" t="n">
         <v>51</v>
       </c>
       <c r="AR129" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="130">
@@ -18940,22 +18944,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I130" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J130" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K130" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L130" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M130" t="n">
         <v>1.13</v>
@@ -18964,24 +18968,24 @@
         <v>6</v>
       </c>
       <c r="O130" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P130" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R130" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V130" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W130" t="n">
         <v>1.62</v>
@@ -18996,25 +19000,25 @@
         <v>1.57</v>
       </c>
       <c r="AA130" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF130" t="n">
         <v>41</v>
       </c>
       <c r="AG130" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH130" t="n">
         <v>6</v>
@@ -19029,28 +19033,28 @@
         <v>101</v>
       </c>
       <c r="AL130" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM130" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AN130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO130" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP130" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ130" t="n">
         <v>51</v>
       </c>
       <c r="AR130" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="131">
@@ -19085,22 +19089,22 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I131" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K131" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L131" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M131" t="n">
         <v>1.04</v>
@@ -19115,10 +19119,10 @@
         <v>4</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R131" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
@@ -19144,16 +19148,16 @@
         <v>8.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC131" t="n">
         <v>8.5</v>
       </c>
       <c r="AD131" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE131" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF131" t="n">
         <v>23</v>
@@ -19177,7 +19181,7 @@
         <v>13</v>
       </c>
       <c r="AM131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN131" t="n">
         <v>13</v>
@@ -19226,7 +19230,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H132" t="n">
         <v>3.1</v>
@@ -19241,7 +19245,7 @@
         <v>2.05</v>
       </c>
       <c r="L132" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M132" t="n">
         <v>1.08</v>
@@ -19270,16 +19274,16 @@
         <v>1.22</v>
       </c>
       <c r="W132" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X132" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z132" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA132" t="n">
         <v>10</v>
@@ -19312,16 +19316,16 @@
         <v>51</v>
       </c>
       <c r="AK132" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL132" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM132" t="n">
         <v>9.5</v>
       </c>
       <c r="AN132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO132" t="n">
         <v>19</v>
@@ -19330,7 +19334,7 @@
         <v>19</v>
       </c>
       <c r="AQ132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR132" t="inlineStr"/>
       <c r="AS132" t="inlineStr"/>
@@ -19367,16 +19371,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>3.2</v>
       </c>
       <c r="I133" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J133" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K133" t="n">
         <v>1.95</v>
@@ -19385,10 +19389,10 @@
         <v>4.33</v>
       </c>
       <c r="M133" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N133" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O133" t="n">
         <v>1.44</v>
@@ -19438,7 +19442,7 @@
         <v>21</v>
       </c>
       <c r="AF133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG133" t="n">
         <v>7</v>
@@ -19456,10 +19460,10 @@
         <v>101</v>
       </c>
       <c r="AL133" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN133" t="n">
         <v>13</v>
@@ -19512,22 +19516,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H134" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K134" t="n">
         <v>2.25</v>
       </c>
       <c r="L134" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134" t="n">
         <v>1.04</v>
@@ -19556,10 +19560,10 @@
         <v>1.4</v>
       </c>
       <c r="W134" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X134" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y134" t="n">
         <v>1.62</v>
@@ -19574,7 +19578,7 @@
         <v>12</v>
       </c>
       <c r="AC134" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD134" t="n">
         <v>21</v>
@@ -19607,7 +19611,7 @@
         <v>17</v>
       </c>
       <c r="AN134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO134" t="n">
         <v>34</v>
@@ -19927,22 +19931,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H137" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I137" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J137" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K137" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L137" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M137" t="n">
         <v>1.06</v>
@@ -19951,16 +19955,16 @@
         <v>9.5</v>
       </c>
       <c r="O137" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P137" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q137" t="n">
         <v>2.05</v>
       </c>
       <c r="R137" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
@@ -19989,7 +19993,7 @@
         <v>23</v>
       </c>
       <c r="AC137" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD137" t="n">
         <v>51</v>
@@ -20019,7 +20023,7 @@
         <v>6.5</v>
       </c>
       <c r="AM137" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN137" t="n">
         <v>8.5</v>
@@ -20098,10 +20102,10 @@
         <v>4.33</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="R138" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
@@ -20233,16 +20237,16 @@
         <v>13</v>
       </c>
       <c r="O139" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P139" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
@@ -20525,10 +20529,10 @@
         <v>4</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R141" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
@@ -20636,30 +20640,30 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="H142" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I142" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="J142" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="K142" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L142" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P142" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q142" t="n">
         <v>1.6</v>
@@ -20670,45 +20674,45 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="V142" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Z142" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AA142" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB142" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC142" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD142" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE142" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG142" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH142" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI142" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ142" t="n">
         <v>40</v>
@@ -20717,22 +20721,22 @@
         <v>250</v>
       </c>
       <c r="AL142" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM142" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN142" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO142" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP142" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ142" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR142" t="inlineStr"/>
       <c r="AS142" t="inlineStr"/>
@@ -20769,44 +20773,44 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H143" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I143" t="n">
         <v>2.57</v>
       </c>
       <c r="J143" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K143" t="n">
         <v>2.12</v>
       </c>
       <c r="L143" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P143" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R143" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="V143" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W143" t="n">
         <v>1.39</v>
@@ -20815,10 +20819,10 @@
         <v>2.57</v>
       </c>
       <c r="Y143" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Z143" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AA143" t="n">
         <v>9.5</v>
@@ -20839,37 +20843,37 @@
         <v>26</v>
       </c>
       <c r="AG143" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH143" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI143" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ143" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK143" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL143" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AM143" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN143" t="n">
         <v>9.5</v>
       </c>
       <c r="AO143" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP143" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ143" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR143" t="inlineStr"/>
       <c r="AS143" t="inlineStr"/>
@@ -21466,28 +21470,28 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H148" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I148" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J148" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K148" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L148" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M148" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N148" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O148" t="n">
         <v>1.25</v>
@@ -21502,10 +21506,10 @@
         <v>2.03</v>
       </c>
       <c r="S148" t="n">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="T148" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U148" t="n">
         <v>3</v>
@@ -21535,7 +21539,7 @@
         <v>8.5</v>
       </c>
       <c r="AD148" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE148" t="n">
         <v>13</v>
@@ -21547,10 +21551,10 @@
         <v>11</v>
       </c>
       <c r="AH148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI148" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ148" t="n">
         <v>51</v>
@@ -21559,16 +21563,16 @@
         <v>251</v>
       </c>
       <c r="AL148" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM148" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN148" t="n">
         <v>19</v>
       </c>
       <c r="AO148" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP148" t="n">
         <v>41</v>
@@ -21577,7 +21581,7 @@
         <v>41</v>
       </c>
       <c r="AR148" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AS148" t="n">
         <v>3</v>
@@ -21615,16 +21619,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H149" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I149" t="n">
         <v>7</v>
       </c>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K149" t="n">
         <v>2.25</v>
@@ -21693,7 +21697,7 @@
         <v>29</v>
       </c>
       <c r="AG149" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH149" t="n">
         <v>8</v>
@@ -21708,7 +21712,7 @@
         <v>351</v>
       </c>
       <c r="AL149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM149" t="n">
         <v>34</v>
@@ -21770,40 +21774,40 @@
         <v>3.6</v>
       </c>
       <c r="I150" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J150" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K150" t="n">
         <v>2.1</v>
       </c>
       <c r="L150" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M150" t="n">
         <v>1.06</v>
       </c>
       <c r="N150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O150" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P150" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q150" t="n">
         <v>2.05</v>
       </c>
       <c r="R150" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S150" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="T150" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U150" t="n">
         <v>3.5</v>
@@ -21818,10 +21822,10 @@
         <v>2.63</v>
       </c>
       <c r="Y150" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA150" t="n">
         <v>6.5</v>
@@ -21854,7 +21858,7 @@
         <v>51</v>
       </c>
       <c r="AK150" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL150" t="n">
         <v>11</v>
@@ -21866,19 +21870,19 @@
         <v>15</v>
       </c>
       <c r="AO150" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP150" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ150" t="n">
         <v>41</v>
       </c>
       <c r="AR150" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="151">
@@ -21943,10 +21947,10 @@
         <v>3.25</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R151" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
@@ -22195,13 +22199,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H153" t="n">
         <v>3.1</v>
       </c>
       <c r="I153" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J153" t="n">
         <v>3.4</v>
@@ -22210,7 +22214,7 @@
         <v>2</v>
       </c>
       <c r="L153" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M153" t="n">
         <v>1.08</v>
@@ -22225,10 +22229,10 @@
         <v>3</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R153" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
@@ -22245,10 +22249,10 @@
         <v>2.5</v>
       </c>
       <c r="Y153" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z153" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA153" t="n">
         <v>7.5</v>
@@ -22257,7 +22261,7 @@
         <v>12</v>
       </c>
       <c r="AC153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD153" t="n">
         <v>26</v>
@@ -22281,19 +22285,19 @@
         <v>51</v>
       </c>
       <c r="AK153" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL153" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM153" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN153" t="n">
         <v>11</v>
       </c>
       <c r="AO153" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP153" t="n">
         <v>23</v>
@@ -22336,16 +22340,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H154" t="n">
         <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J154" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K154" t="n">
         <v>2.1</v>
@@ -22404,7 +22408,7 @@
         <v>29</v>
       </c>
       <c r="AE154" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF154" t="n">
         <v>29</v>
@@ -22431,7 +22435,7 @@
         <v>12</v>
       </c>
       <c r="AN154" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO154" t="n">
         <v>23</v>
@@ -22648,10 +22652,10 @@
         <v>3.25</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R156" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
@@ -22759,13 +22763,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I157" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J157" t="n">
         <v>3.4</v>
@@ -22780,19 +22784,19 @@
         <v>1.08</v>
       </c>
       <c r="N157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O157" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R157" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
@@ -22809,13 +22813,13 @@
         <v>2.5</v>
       </c>
       <c r="Y157" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AA157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB157" t="n">
         <v>12</v>
@@ -22833,7 +22837,7 @@
         <v>34</v>
       </c>
       <c r="AG157" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH157" t="n">
         <v>6</v>
@@ -22845,7 +22849,7 @@
         <v>51</v>
       </c>
       <c r="AK157" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL157" t="n">
         <v>8</v>
@@ -22938,10 +22942,10 @@
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V158" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W158" t="n">
         <v>1.44</v>
@@ -22950,10 +22954,10 @@
         <v>2.63</v>
       </c>
       <c r="Y158" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA158" t="n">
         <v>12</v>
@@ -23094,7 +23098,7 @@
         <v>2.05</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA159" t="n">
         <v>6</v>
@@ -23203,7 +23207,7 @@
         <v>1.08</v>
       </c>
       <c r="N160" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O160" t="n">
         <v>1.44</v>
@@ -23235,7 +23239,7 @@
         <v>2</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA160" t="n">
         <v>7</v>
@@ -23380,7 +23384,7 @@
         <v>2</v>
       </c>
       <c r="Z161" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA161" t="n">
         <v>6</v>
@@ -23486,10 +23490,10 @@
         <v>4.75</v>
       </c>
       <c r="M162" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N162" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O162" t="n">
         <v>1.36</v>
@@ -23498,10 +23502,10 @@
         <v>3</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R162" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr"/>
@@ -23521,7 +23525,7 @@
         <v>2</v>
       </c>
       <c r="Z162" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA162" t="n">
         <v>6</v>
@@ -23750,16 +23754,16 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I164" t="n">
         <v>3.6</v>
       </c>
       <c r="J164" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K164" t="n">
         <v>2.1</v>
@@ -23788,22 +23792,22 @@
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V164" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W164" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X164" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y164" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z164" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA164" t="n">
         <v>8</v>
@@ -23900,7 +23904,7 @@
         <v>2.5</v>
       </c>
       <c r="J165" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K165" t="n">
         <v>2.2</v>
@@ -23909,10 +23913,10 @@
         <v>3</v>
       </c>
       <c r="M165" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N165" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O165" t="n">
         <v>1.22</v>
@@ -23921,10 +23925,10 @@
         <v>4</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R165" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
@@ -23962,7 +23966,7 @@
         <v>21</v>
       </c>
       <c r="AF165" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG165" t="n">
         <v>12</v>
@@ -24277,7 +24281,7 @@
         <v>101</v>
       </c>
       <c r="AQ167" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR167" t="inlineStr"/>
       <c r="AS167" t="inlineStr"/>
@@ -24335,7 +24339,7 @@
         <v>1.08</v>
       </c>
       <c r="N168" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O168" t="n">
         <v>1.4</v>
@@ -24344,10 +24348,10 @@
         <v>3</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R168" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
@@ -24370,7 +24374,7 @@
         <v>1.8</v>
       </c>
       <c r="AA168" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB168" t="n">
         <v>15</v>
@@ -24382,7 +24386,7 @@
         <v>34</v>
       </c>
       <c r="AE168" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF168" t="n">
         <v>41</v>
@@ -25045,10 +25049,10 @@
         <v>4.75</v>
       </c>
       <c r="M173" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N173" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O173" t="n">
         <v>1.36</v>
@@ -25057,10 +25061,10 @@
         <v>3</v>
       </c>
       <c r="Q173" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R173" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
@@ -25168,22 +25172,22 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H174" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I174" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="J174" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="K174" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L174" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="M174" t="n">
         <v>1.05</v>
@@ -25192,30 +25196,30 @@
         <v>8.25</v>
       </c>
       <c r="O174" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P174" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R174" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="V174" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W174" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X174" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Y174" t="n">
         <v>1.7</v>
@@ -25224,31 +25228,31 @@
         <v>2.02</v>
       </c>
       <c r="AA174" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB174" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC174" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD174" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE174" t="n">
         <v>40</v>
       </c>
       <c r="AF174" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG174" t="n">
         <v>8.25</v>
       </c>
       <c r="AH174" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI174" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ174" t="n">
         <v>65</v>
@@ -25257,19 +25261,19 @@
         <v>500</v>
       </c>
       <c r="AL174" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AM174" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AN174" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO174" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP174" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ174" t="n">
         <v>26</v>
@@ -25309,22 +25313,22 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H175" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I175" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="J175" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="K175" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L175" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="M175" t="n">
         <v>1.05</v>
@@ -25336,13 +25340,13 @@
         <v>1.25</v>
       </c>
       <c r="P175" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q175" t="n">
         <v>1.75</v>
       </c>
       <c r="R175" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
@@ -25353,28 +25357,28 @@
         <v>1.4</v>
       </c>
       <c r="W175" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X175" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Y175" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Z175" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AA175" t="n">
         <v>6.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC175" t="n">
         <v>8.75</v>
       </c>
       <c r="AD175" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE175" t="n">
         <v>12.5</v>
@@ -25386,34 +25390,34 @@
         <v>8.75</v>
       </c>
       <c r="AH175" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI175" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ175" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK175" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL175" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM175" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN175" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO175" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP175" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AQ175" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR175" t="inlineStr"/>
       <c r="AS175" t="inlineStr"/>
@@ -25591,72 +25595,72 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H177" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I177" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="J177" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K177" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L177" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="M177" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N177" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O177" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P177" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R177" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="V177" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W177" t="n">
         <v>1.4</v>
       </c>
       <c r="X177" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Y177" t="n">
         <v>1.8</v>
       </c>
       <c r="Z177" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AA177" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB177" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AC177" t="n">
         <v>8.5</v>
       </c>
       <c r="AD177" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE177" t="n">
         <v>14</v>
@@ -25665,13 +25669,13 @@
         <v>28</v>
       </c>
       <c r="AG177" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH177" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AI177" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ177" t="n">
         <v>80</v>
@@ -25680,13 +25684,13 @@
         <v>700</v>
       </c>
       <c r="AL177" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM177" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN177" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO177" t="n">
         <v>90</v>
@@ -26299,63 +26303,63 @@
         <v>1.7</v>
       </c>
       <c r="H182" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I182" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J182" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K182" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L182" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="M182" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N182" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O182" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P182" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q182" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R182" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="V182" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W182" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="X182" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="Y182" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Z182" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AA182" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB182" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AC182" t="n">
         <v>8.25</v>
@@ -26370,13 +26374,13 @@
         <v>28</v>
       </c>
       <c r="AG182" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH182" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI182" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ182" t="n">
         <v>80</v>
@@ -26385,10 +26389,10 @@
         <v>700</v>
       </c>
       <c r="AL182" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM182" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN182" t="n">
         <v>15</v>
@@ -26437,22 +26441,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H183" t="n">
         <v>3.3</v>
       </c>
       <c r="I183" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J183" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K183" t="n">
         <v>2.1</v>
       </c>
       <c r="L183" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M183" t="n">
         <v>1.06</v>
@@ -26493,22 +26497,22 @@
         <v>2</v>
       </c>
       <c r="AA183" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC183" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD183" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE183" t="n">
         <v>19</v>
       </c>
       <c r="AF183" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG183" t="n">
         <v>10</v>
@@ -26526,19 +26530,19 @@
         <v>201</v>
       </c>
       <c r="AL183" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM183" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN183" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO183" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP183" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ183" t="n">
         <v>34</v>
@@ -26578,13 +26582,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>3.2</v>
       </c>
       <c r="I184" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J184" t="n">
         <v>2.88</v>
@@ -26596,10 +26600,10 @@
         <v>4.5</v>
       </c>
       <c r="M184" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N184" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O184" t="n">
         <v>1.5</v>
@@ -26628,16 +26632,16 @@
         <v>2.25</v>
       </c>
       <c r="Y184" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z184" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA184" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB184" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC184" t="n">
         <v>9.5</v>
@@ -26685,10 +26689,10 @@
         <v>41</v>
       </c>
       <c r="AR184" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="185">
@@ -26723,7 +26727,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H185" t="n">
         <v>3.25</v>
@@ -26732,7 +26736,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K185" t="n">
         <v>2.1</v>
@@ -26747,16 +26751,16 @@
         <v>11</v>
       </c>
       <c r="O185" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P185" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q185" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R185" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
@@ -26864,7 +26868,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H186" t="n">
         <v>3.1</v>
@@ -26888,10 +26892,10 @@
         <v>10</v>
       </c>
       <c r="O186" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P186" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q186" t="n">
         <v>2.05</v>
@@ -26926,13 +26930,13 @@
         <v>11</v>
       </c>
       <c r="AC186" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD186" t="n">
         <v>23</v>
       </c>
       <c r="AE186" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF186" t="n">
         <v>29</v>
@@ -26953,7 +26957,7 @@
         <v>251</v>
       </c>
       <c r="AL186" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM186" t="n">
         <v>15</v>
@@ -27029,16 +27033,16 @@
         <v>8</v>
       </c>
       <c r="O187" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P187" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R187" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
@@ -27176,10 +27180,10 @@
         <v>3.75</v>
       </c>
       <c r="Q188" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R188" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
@@ -27305,22 +27309,22 @@
         <v>4.5</v>
       </c>
       <c r="M189" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N189" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O189" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P189" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R189" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
@@ -27883,16 +27887,16 @@
         <v>15</v>
       </c>
       <c r="O193" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P193" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q193" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R193" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
@@ -28427,22 +28431,22 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H197" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L197" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J197" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K197" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L197" t="n">
-        <v>3.6</v>
       </c>
       <c r="M197" t="n">
         <v>1.04</v>
@@ -28454,57 +28458,57 @@
         <v>1.22</v>
       </c>
       <c r="P197" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q197" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R197" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="V197" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W197" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X197" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y197" t="n">
         <v>1.57</v>
       </c>
       <c r="Z197" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AA197" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB197" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AC197" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD197" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE197" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF197" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG197" t="n">
         <v>8.25</v>
       </c>
       <c r="AH197" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI197" t="n">
         <v>12</v>
@@ -28516,22 +28520,22 @@
         <v>300</v>
       </c>
       <c r="AL197" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM197" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN197" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO197" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP197" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ197" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR197" t="inlineStr"/>
       <c r="AS197" t="inlineStr"/>
@@ -28850,99 +28854,99 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H200" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="I200" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J200" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K200" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L200" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="M200" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N200" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="O200" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P200" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q200" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R200" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="V200" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="W200" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X200" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="Y200" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Z200" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AA200" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AB200" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC200" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD200" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE200" t="n">
         <v>10.5</v>
       </c>
       <c r="AF200" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL200" t="n">
         <v>21</v>
       </c>
-      <c r="AG200" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH200" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI200" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ200" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK200" t="n">
-        <v>350</v>
-      </c>
-      <c r="AL200" t="n">
-        <v>25</v>
-      </c>
       <c r="AM200" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN200" t="n">
         <v>22</v>
@@ -28951,10 +28955,10 @@
         <v>175</v>
       </c>
       <c r="AP200" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ200" t="n">
         <v>65</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>50</v>
       </c>
       <c r="AR200" t="inlineStr"/>
       <c r="AS200" t="inlineStr"/>
@@ -28994,10 +28998,10 @@
         <v>4.5</v>
       </c>
       <c r="H201" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I201" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J201" t="n">
         <v>4.75</v>
@@ -29006,7 +29010,7 @@
         <v>2.3</v>
       </c>
       <c r="L201" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M201" t="n">
         <v>1.04</v>
@@ -29047,7 +29051,7 @@
         <v>2</v>
       </c>
       <c r="AA201" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB201" t="n">
         <v>23</v>
@@ -29295,10 +29299,10 @@
         <v>3.4</v>
       </c>
       <c r="M203" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O203" t="n">
         <v>1.33</v>
@@ -29307,10 +29311,10 @@
         <v>3.25</v>
       </c>
       <c r="Q203" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R203" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S203" t="inlineStr"/>
       <c r="T203" t="inlineStr"/>
@@ -29507,10 +29511,10 @@
         <v>4.5</v>
       </c>
       <c r="M205" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N205" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O205" t="n">
         <v>1.36</v>
@@ -29630,22 +29634,22 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H206" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I206" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J206" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K206" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L206" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M206" t="n">
         <v>1.05</v>
@@ -29660,10 +29664,10 @@
         <v>3.5</v>
       </c>
       <c r="Q206" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R206" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
@@ -29689,13 +29693,13 @@
         <v>8</v>
       </c>
       <c r="AB206" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC206" t="n">
         <v>9</v>
       </c>
       <c r="AD206" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE206" t="n">
         <v>17</v>
@@ -29710,16 +29714,16 @@
         <v>6.5</v>
       </c>
       <c r="AI206" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ206" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK206" t="n">
         <v>201</v>
       </c>
       <c r="AL206" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM206" t="n">
         <v>17</v>
@@ -29908,22 +29912,22 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H208" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="I208" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J208" t="n">
         <v>3.4</v>
       </c>
       <c r="K208" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L208" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M208" t="n">
         <v>1.11</v>
@@ -29949,7 +29953,7 @@
         <v>4.1</v>
       </c>
       <c r="V208" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W208" t="n">
         <v>1.57</v>
@@ -29964,13 +29968,13 @@
         <v>1.65</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB208" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC208" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD208" t="n">
         <v>30</v>
@@ -29982,37 +29986,37 @@
         <v>45</v>
       </c>
       <c r="AG208" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AH208" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI208" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ208" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK208" t="n">
         <v>1000</v>
       </c>
       <c r="AL208" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AM208" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN208" t="n">
         <v>11</v>
       </c>
       <c r="AO208" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP208" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ208" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR208" t="inlineStr"/>
       <c r="AS208" t="inlineStr"/>
@@ -30222,16 +30226,16 @@
         <v>2.35</v>
       </c>
       <c r="S210" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T210" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U210" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V210" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W210" t="n">
         <v>1.29</v>
@@ -30361,10 +30365,10 @@
         <v>3.5</v>
       </c>
       <c r="Q211" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R211" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S211" t="inlineStr"/>
       <c r="T211" t="inlineStr"/>
@@ -30635,10 +30639,10 @@
         <v>5.5</v>
       </c>
       <c r="M213" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N213" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O213" t="n">
         <v>1.29</v>
@@ -30647,10 +30651,10 @@
         <v>3.5</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R213" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
@@ -30899,22 +30903,22 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H215" t="n">
         <v>3.5</v>
       </c>
       <c r="I215" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J215" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K215" t="n">
         <v>2.3</v>
       </c>
       <c r="L215" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M215" t="n">
         <v>1.03</v>
@@ -30947,10 +30951,10 @@
         <v>1.5</v>
       </c>
       <c r="W215" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X215" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y215" t="n">
         <v>1.53</v>
@@ -30989,7 +30993,7 @@
         <v>34</v>
       </c>
       <c r="AK215" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL215" t="n">
         <v>12</v>
@@ -31001,7 +31005,7 @@
         <v>10</v>
       </c>
       <c r="AO215" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP215" t="n">
         <v>19</v>
@@ -31330,22 +31334,22 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H218" t="n">
         <v>3.5</v>
       </c>
       <c r="I218" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J218" t="n">
         <v>2.75</v>
       </c>
       <c r="K218" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L218" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M218" t="n">
         <v>1.03</v>
@@ -31360,10 +31364,10 @@
         <v>4.5</v>
       </c>
       <c r="Q218" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R218" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S218" t="n">
         <v>2.03</v>
@@ -31396,13 +31400,13 @@
         <v>13</v>
       </c>
       <c r="AC218" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD218" t="n">
         <v>21</v>
       </c>
       <c r="AE218" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF218" t="n">
         <v>21</v>
@@ -31429,13 +31433,13 @@
         <v>19</v>
       </c>
       <c r="AN218" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO218" t="n">
         <v>34</v>
       </c>
       <c r="AP218" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ218" t="n">
         <v>26</v>
@@ -31505,10 +31509,10 @@
         <v>4.5</v>
       </c>
       <c r="Q219" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R219" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S219" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -707,7 +707,7 @@
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -728,22 +728,22 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y2" t="n">
         <v>1.67</v>
@@ -755,25 +755,25 @@
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>51</v>
       </c>
       <c r="AE2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -788,13 +788,13 @@
         <v>9</v>
       </c>
       <c r="AM2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN2" t="n">
         <v>8.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
@@ -837,63 +837,63 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
         <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>6.5</v>
@@ -908,13 +908,13 @@
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -923,10 +923,10 @@
         <v>67</v>
       </c>
       <c r="AK3" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
@@ -996,13 +996,13 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1014,16 +1014,16 @@
         <v>2.38</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>1.29</v>
@@ -1056,7 +1056,7 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>9.5</v>
@@ -1840,67 +1840,67 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.3</v>
       </c>
-      <c r="L10" t="n">
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z10" t="n">
         <v>2.38</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
@@ -1912,43 +1912,43 @@
         <v>41</v>
       </c>
       <c r="AE10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF10" t="n">
         <v>29</v>
       </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>7.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AL10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN10" t="n">
         <v>8.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
@@ -2139,54 +2139,54 @@
         <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z12" t="n">
         <v>1.95</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
@@ -2198,13 +2198,13 @@
         <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
@@ -2216,13 +2216,13 @@
         <v>51</v>
       </c>
       <c r="AK12" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN12" t="n">
         <v>10</v>
@@ -2231,10 +2231,10 @@
         <v>23</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -2280,10 +2280,10 @@
         <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
         <v>4.5</v>
@@ -2301,10 +2301,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2321,13 +2321,13 @@
         <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z13" t="n">
         <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
         <v>9</v>
@@ -2339,13 +2339,13 @@
         <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2415,10 +2415,10 @@
         <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
         <v>2.1</v>
@@ -2466,16 +2466,16 @@
         <v>3.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA14" t="n">
         <v>8.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.5</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L15" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2587,10 +2587,10 @@
         <v>7</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S15" t="n">
         <v>1.83</v>
@@ -2605,10 +2605,10 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y15" t="n">
         <v>1.5</v>
@@ -2617,28 +2617,28 @@
         <v>2.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF15" t="n">
         <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>29</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -2653,13 +2653,13 @@
         <v>12</v>
       </c>
       <c r="AM15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>11</v>
@@ -2732,10 +2732,10 @@
         <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
         <v>2.05</v>
@@ -2756,10 +2756,10 @@
         <v>2.63</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AA16" t="n">
         <v>10</v>
@@ -2859,10 +2859,10 @@
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2901,7 +2901,7 @@
         <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z17" t="n">
         <v>2</v>
@@ -2943,13 +2943,13 @@
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP17" t="n">
         <v>41</v>
@@ -3133,13 +3133,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -3151,10 +3151,10 @@
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.5</v>
@@ -3163,18 +3163,18 @@
         <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W19" t="n">
         <v>1.57</v>
@@ -3240,10 +3240,10 @@
         <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="20">
@@ -3278,22 +3278,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3302,28 +3302,28 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T20" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
         <v>1.29</v>
@@ -3338,10 +3338,10 @@
         <v>2.38</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
         <v>13</v>
@@ -3356,7 +3356,7 @@
         <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>7.5</v>
@@ -3368,10 +3368,10 @@
         <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM20" t="n">
         <v>11</v>
@@ -3386,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3461,10 +3461,10 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
         <v>1.44</v>
@@ -3567,10 +3567,10 @@
         <v>2.35</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3731,10 +3731,10 @@
         <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3749,10 +3749,10 @@
         <v>1.73</v>
       </c>
       <c r="S23" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U23" t="n">
         <v>3.75</v>
@@ -3824,10 +3824,10 @@
         <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="24">
@@ -3862,28 +3862,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3892,10 +3892,10 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>3.5</v>
@@ -3910,7 +3910,7 @@
         <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X24" t="n">
         <v>2.5</v>
@@ -3925,7 +3925,7 @@
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC24" t="n">
         <v>9</v>
@@ -3934,7 +3934,7 @@
         <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>34</v>
@@ -3955,16 +3955,16 @@
         <v>501</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN24" t="n">
         <v>19</v>
       </c>
       <c r="AO24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP24" t="n">
         <v>51</v>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
@@ -4020,19 +4020,19 @@
         <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
         <v>1.57</v>
@@ -4041,10 +4041,10 @@
         <v>2.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
         <v>4.8</v>
@@ -4059,7 +4059,7 @@
         <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X25" t="n">
         <v>2.2</v>
@@ -4074,7 +4074,7 @@
         <v>5.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
@@ -4089,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
@@ -4178,10 +4178,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -4301,66 +4301,66 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W27" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X27" t="n">
         <v>2.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>12</v>
@@ -4375,7 +4375,7 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
         <v>5.5</v>
@@ -4390,22 +4390,22 @@
         <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4486,10 +4486,10 @@
         <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y28" t="n">
         <v>2.1</v>
@@ -4587,28 +4587,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K29" t="n">
         <v>1.83</v>
       </c>
       <c r="L29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>1.62</v>
@@ -4631,7 +4631,7 @@
         <v>1.11</v>
       </c>
       <c r="W29" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X29" t="n">
         <v>2.1</v>
@@ -4652,7 +4652,7 @@
         <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -4664,10 +4664,10 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ29" t="n">
         <v>126</v>
@@ -4676,10 +4676,10 @@
         <v>101</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN29" t="n">
         <v>21</v>
@@ -5163,40 +5163,40 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -5219,25 +5219,25 @@
         <v>1.95</v>
       </c>
       <c r="AA33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
         <v>41</v>
       </c>
       <c r="AE33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
         <v>6.5</v>
@@ -5252,19 +5252,19 @@
         <v>251</v>
       </c>
       <c r="AL33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM33" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AN33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ33" t="n">
         <v>26</v>
@@ -5304,22 +5304,22 @@
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L34" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -5328,16 +5328,16 @@
         <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R34" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -5363,13 +5363,13 @@
         <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE34" t="n">
         <v>23</v>
@@ -5378,10 +5378,10 @@
         <v>29</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI34" t="n">
         <v>13</v>
@@ -5402,7 +5402,7 @@
         <v>9.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
@@ -5445,22 +5445,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K35" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
@@ -5475,7 +5475,7 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
         <v>2</v>
@@ -5483,10 +5483,10 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W35" t="n">
         <v>1.36</v>
@@ -5510,19 +5510,19 @@
         <v>8.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
         <v>29</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI35" t="n">
         <v>21</v>
@@ -5534,19 +5534,19 @@
         <v>451</v>
       </c>
       <c r="AL35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN35" t="n">
         <v>19</v>
       </c>
       <c r="AO35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ35" t="n">
         <v>51</v>
@@ -6154,22 +6154,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -6178,30 +6178,30 @@
         <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X40" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y40" t="n">
         <v>1.75</v>
@@ -6210,7 +6210,7 @@
         <v>2</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB40" t="n">
         <v>8.5</v>
@@ -6219,7 +6219,7 @@
         <v>8.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE40" t="n">
         <v>13</v>
@@ -6228,34 +6228,34 @@
         <v>23</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
       </c>
       <c r="AJ40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK40" t="n">
         <v>201</v>
       </c>
       <c r="AL40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN40" t="n">
         <v>15</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>17</v>
       </c>
       <c r="AO40" t="n">
         <v>51</v>
       </c>
       <c r="AP40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
@@ -6295,34 +6295,34 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H41" t="n">
         <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J41" t="n">
         <v>1.91</v>
       </c>
       <c r="K41" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L41" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
         <v>1.7</v>
@@ -6337,55 +6337,55 @@
         <v>1.8</v>
       </c>
       <c r="U41" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC41" t="n">
         <v>8.5</v>
       </c>
       <c r="AD41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH41" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>9</v>
-      </c>
       <c r="AI41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK41" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="n">
         <v>19</v>
@@ -6403,7 +6403,7 @@
         <v>51</v>
       </c>
       <c r="AQ41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6440,22 +6440,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>2.3</v>
       </c>
       <c r="L42" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -6476,10 +6476,10 @@
         <v>2.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T42" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="U42" t="n">
         <v>2.5</v>
@@ -6515,19 +6515,19 @@
         <v>21</v>
       </c>
       <c r="AF42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI42" t="n">
         <v>12</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="n">
         <v>126</v>
@@ -6542,7 +6542,7 @@
         <v>9.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP42" t="n">
         <v>17</v>
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>3.7</v>
@@ -6609,24 +6609,24 @@
         <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W43" t="n">
         <v>1.36</v>
@@ -6674,7 +6674,7 @@
         <v>151</v>
       </c>
       <c r="AL43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM43" t="n">
         <v>11</v>
@@ -7324,10 +7324,10 @@
         <v>4.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
         <v>1.29</v>
@@ -7336,10 +7336,10 @@
         <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R48" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S48" t="n">
         <v>2.65</v>
@@ -7348,10 +7348,10 @@
         <v>1.47</v>
       </c>
       <c r="U48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W48" t="n">
         <v>1.4</v>
@@ -7399,10 +7399,10 @@
         <v>251</v>
       </c>
       <c r="AL48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM48" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN48" t="n">
         <v>13</v>
@@ -7411,7 +7411,7 @@
         <v>41</v>
       </c>
       <c r="AP48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>
@@ -7455,22 +7455,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H49" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I49" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K49" t="n">
         <v>2.3</v>
       </c>
-      <c r="K49" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L49" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7485,10 +7485,10 @@
         <v>4.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R49" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S49" t="n">
         <v>2.06</v>
@@ -7509,22 +7509,22 @@
         <v>3.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC49" t="n">
         <v>8.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE49" t="n">
         <v>13</v>
@@ -7539,7 +7539,7 @@
         <v>7.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ49" t="n">
         <v>41</v>
@@ -7548,28 +7548,28 @@
         <v>151</v>
       </c>
       <c r="AL49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS49" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="50">
@@ -7604,16 +7604,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H50" t="n">
         <v>3.2</v>
       </c>
       <c r="I50" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K50" t="n">
         <v>2.2</v>
@@ -7622,10 +7622,10 @@
         <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
         <v>1.25</v>
@@ -7667,16 +7667,16 @@
         <v>8</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC50" t="n">
         <v>9</v>
       </c>
       <c r="AD50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE50" t="n">
         <v>17</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>15</v>
       </c>
       <c r="AF50" t="n">
         <v>26</v>
@@ -7700,7 +7700,7 @@
         <v>12</v>
       </c>
       <c r="AM50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN50" t="n">
         <v>13</v>
@@ -8325,13 +8325,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
@@ -8343,16 +8343,16 @@
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P55" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q55" t="n">
         <v>2.6</v>
@@ -8373,10 +8373,10 @@
         <v>1.14</v>
       </c>
       <c r="W55" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y55" t="n">
         <v>2.25</v>
@@ -8388,13 +8388,13 @@
         <v>5.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE55" t="n">
         <v>21</v>
@@ -8418,7 +8418,7 @@
         <v>101</v>
       </c>
       <c r="AL55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM55" t="n">
         <v>19</v>
@@ -8427,7 +8427,7 @@
         <v>15</v>
       </c>
       <c r="AO55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP55" t="n">
         <v>41</v>
@@ -8436,10 +8436,10 @@
         <v>51</v>
       </c>
       <c r="AR55" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="56">
@@ -8768,13 +8768,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J58" t="n">
         <v>2.75</v>
@@ -8783,7 +8783,7 @@
         <v>2.2</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -8792,24 +8792,24 @@
         <v>10</v>
       </c>
       <c r="O58" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R58" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W58" t="n">
         <v>1.4</v>
@@ -8827,10 +8827,10 @@
         <v>8.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD58" t="n">
         <v>19</v>
@@ -9191,40 +9191,40 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H61" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I61" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="J61" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K61" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L61" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O61" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R61" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -9235,43 +9235,43 @@
         <v>1.33</v>
       </c>
       <c r="W61" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X61" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Y61" t="n">
         <v>1.7</v>
       </c>
       <c r="Z61" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA61" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB61" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC61" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD61" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF61" t="n">
         <v>37</v>
       </c>
       <c r="AG61" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH61" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI61" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ61" t="n">
         <v>65</v>
@@ -9280,19 +9280,19 @@
         <v>500</v>
       </c>
       <c r="AL61" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AM61" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AN61" t="n">
         <v>9.25</v>
       </c>
       <c r="AO61" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ61" t="n">
         <v>28</v>
@@ -9763,22 +9763,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="H65" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K65" t="n">
         <v>2.2</v>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>1.06</v>
@@ -9787,16 +9787,16 @@
         <v>10</v>
       </c>
       <c r="O65" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P65" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="R65" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -9813,25 +9813,25 @@
         <v>2.75</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB65" t="n">
         <v>7</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>8</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE65" t="n">
         <v>13</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>15</v>
       </c>
       <c r="AF65" t="n">
         <v>29</v>
@@ -9840,34 +9840,34 @@
         <v>9.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ65" t="n">
         <v>51</v>
       </c>
       <c r="AK65" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM65" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN65" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO65" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP65" t="n">
         <v>51</v>
       </c>
-      <c r="AP65" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -10186,13 +10186,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J68" t="n">
         <v>2.75</v>
@@ -10207,7 +10207,7 @@
         <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -10245,13 +10245,13 @@
         <v>7</v>
       </c>
       <c r="AB68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC68" t="n">
         <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE68" t="n">
         <v>17</v>
@@ -10278,7 +10278,7 @@
         <v>10</v>
       </c>
       <c r="AM68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN68" t="n">
         <v>13</v>
@@ -10287,7 +10287,7 @@
         <v>41</v>
       </c>
       <c r="AP68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ68" t="n">
         <v>41</v>
@@ -10327,13 +10327,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H69" t="n">
         <v>5.25</v>
       </c>
       <c r="I69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J69" t="n">
         <v>1.8</v>
@@ -10342,7 +10342,7 @@
         <v>2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M69" t="n">
         <v>1.05</v>
@@ -10377,10 +10377,10 @@
         <v>3</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA69" t="n">
         <v>6</v>
@@ -10404,7 +10404,7 @@
         <v>11</v>
       </c>
       <c r="AH69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI69" t="n">
         <v>29</v>
@@ -10416,19 +10416,19 @@
         <v>1250</v>
       </c>
       <c r="AL69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM69" t="n">
         <v>41</v>
       </c>
       <c r="AN69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO69" t="n">
         <v>126</v>
       </c>
       <c r="AP69" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AQ69" t="n">
         <v>67</v>
@@ -14545,40 +14545,40 @@
         </is>
       </c>
       <c r="G99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.4</v>
       </c>
-      <c r="H99" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I99" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J99" t="n">
         <v>3.75</v>
       </c>
       <c r="K99" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L99" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M99" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N99" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O99" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P99" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="R99" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S99" t="n">
         <v>2.05</v>
@@ -14587,28 +14587,28 @@
         <v>1.8</v>
       </c>
       <c r="U99" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V99" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W99" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X99" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y99" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z99" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AA99" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC99" t="n">
         <v>12</v>
@@ -14617,19 +14617,19 @@
         <v>34</v>
       </c>
       <c r="AE99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF99" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG99" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI99" t="n">
         <v>13</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>12</v>
       </c>
       <c r="AJ99" t="n">
         <v>41</v>
@@ -14638,7 +14638,7 @@
         <v>151</v>
       </c>
       <c r="AL99" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM99" t="n">
         <v>11</v>
@@ -14650,10 +14650,10 @@
         <v>19</v>
       </c>
       <c r="AP99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR99" t="inlineStr"/>
       <c r="AS99" t="inlineStr"/>
@@ -15850,10 +15850,10 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H108" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I108" t="n">
         <v>13</v>
@@ -15862,16 +15862,16 @@
         <v>1.73</v>
       </c>
       <c r="K108" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M108" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N108" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O108" t="n">
         <v>1.25</v>
@@ -15880,22 +15880,22 @@
         <v>3.75</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R108" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S108" t="n">
         <v>2.5</v>
       </c>
       <c r="T108" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U108" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V108" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W108" t="n">
         <v>1.36</v>
@@ -15916,7 +15916,7 @@
         <v>5.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD108" t="n">
         <v>7</v>
@@ -15952,13 +15952,13 @@
         <v>34</v>
       </c>
       <c r="AO108" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP108" t="n">
         <v>101</v>
       </c>
       <c r="AQ108" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR108" t="n">
         <v>1.43</v>
@@ -16140,22 +16140,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H110" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I110" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J110" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K110" t="n">
         <v>2.25</v>
       </c>
       <c r="L110" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M110" t="n">
         <v>1.04</v>
@@ -16199,16 +16199,16 @@
         <v>12</v>
       </c>
       <c r="AB110" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD110" t="n">
         <v>41</v>
       </c>
       <c r="AE110" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF110" t="n">
         <v>34</v>
@@ -16226,16 +16226,16 @@
         <v>41</v>
       </c>
       <c r="AK110" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN110" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AM110" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>9</v>
       </c>
       <c r="AO110" t="n">
         <v>17</v>
@@ -16311,10 +16311,10 @@
         <v>3.75</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R111" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
@@ -17404,25 +17404,25 @@
         <v>9</v>
       </c>
       <c r="H119" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I119" t="n">
         <v>1.22</v>
       </c>
       <c r="J119" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K119" t="n">
         <v>2.75</v>
       </c>
       <c r="L119" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M119" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O119" t="n">
         <v>1.14</v>
@@ -17437,16 +17437,16 @@
         <v>2.5</v>
       </c>
       <c r="S119" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T119" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U119" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V119" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W119" t="n">
         <v>1.25</v>
@@ -17482,10 +17482,10 @@
         <v>17</v>
       </c>
       <c r="AH119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI119" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ119" t="n">
         <v>67</v>
@@ -17546,10 +17546,10 @@
         </is>
       </c>
       <c r="G120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H120" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H120" t="n">
-        <v>3.2</v>
       </c>
       <c r="I120" t="n">
         <v>2.2</v>
@@ -17558,51 +17558,51 @@
         <v>4</v>
       </c>
       <c r="K120" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M120" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N120" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O120" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P120" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R120" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S120" t="inlineStr"/>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="V120" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W120" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X120" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA120" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB120" t="n">
         <v>15</v>
@@ -17620,13 +17620,13 @@
         <v>41</v>
       </c>
       <c r="AG120" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH120" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ120" t="n">
         <v>51</v>
@@ -17635,7 +17635,7 @@
         <v>301</v>
       </c>
       <c r="AL120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM120" t="n">
         <v>10</v>
@@ -17647,7 +17647,7 @@
         <v>21</v>
       </c>
       <c r="AP120" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ120" t="n">
         <v>34</v>
@@ -18263,22 +18263,22 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J125" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K125" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M125" t="n">
         <v>1.08</v>
@@ -18293,10 +18293,10 @@
         <v>3</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R125" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
@@ -18319,16 +18319,16 @@
         <v>1.8</v>
       </c>
       <c r="AA125" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC125" t="n">
         <v>9.5</v>
       </c>
       <c r="AD125" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE125" t="n">
         <v>19</v>
@@ -18337,7 +18337,7 @@
         <v>34</v>
       </c>
       <c r="AG125" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH125" t="n">
         <v>6</v>
@@ -18349,7 +18349,7 @@
         <v>51</v>
       </c>
       <c r="AK125" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL125" t="n">
         <v>9.5</v>
@@ -18364,7 +18364,7 @@
         <v>41</v>
       </c>
       <c r="AP125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ125" t="n">
         <v>41</v>
@@ -20126,34 +20126,34 @@
         <v>3.75</v>
       </c>
       <c r="M138" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N138" t="n">
         <v>15</v>
       </c>
       <c r="O138" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P138" t="n">
         <v>4.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R138" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S138" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T138" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U138" t="n">
         <v>2.5</v>
       </c>
       <c r="V138" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W138" t="n">
         <v>1.3</v>
@@ -20259,7 +20259,7 @@
         <v>3.6</v>
       </c>
       <c r="I139" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J139" t="n">
         <v>3.75</v>
@@ -20394,13 +20394,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H140" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I140" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J140" t="n">
         <v>2.2</v>
@@ -20418,34 +20418,34 @@
         <v>17</v>
       </c>
       <c r="O140" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P140" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R140" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S140" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T140" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="U140" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V140" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W140" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X140" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y140" t="n">
         <v>1.57</v>
@@ -20463,7 +20463,7 @@
         <v>8.5</v>
       </c>
       <c r="AD140" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE140" t="n">
         <v>12</v>
@@ -20472,10 +20472,10 @@
         <v>19</v>
       </c>
       <c r="AG140" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH140" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI140" t="n">
         <v>13</v>
@@ -20487,10 +20487,10 @@
         <v>126</v>
       </c>
       <c r="AL140" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN140" t="n">
         <v>15</v>
@@ -20502,7 +20502,7 @@
         <v>34</v>
       </c>
       <c r="AQ140" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr"/>
@@ -20539,22 +20539,22 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H141" t="n">
         <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J141" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K141" t="n">
         <v>2.25</v>
       </c>
       <c r="L141" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M141" t="n">
         <v>1.04</v>
@@ -20598,7 +20598,7 @@
         <v>10</v>
       </c>
       <c r="AB141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC141" t="n">
         <v>10</v>
@@ -20631,7 +20631,7 @@
         <v>10</v>
       </c>
       <c r="AM141" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN141" t="n">
         <v>10</v>
@@ -21234,7 +21234,7 @@
         <v>3.1</v>
       </c>
       <c r="I146" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J146" t="n">
         <v>5</v>
@@ -21261,7 +21261,7 @@
         <v>2.2</v>
       </c>
       <c r="R146" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
@@ -21369,7 +21369,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H147" t="n">
         <v>3.5</v>
@@ -21399,10 +21399,10 @@
         <v>3.25</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R147" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
@@ -21510,28 +21510,28 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="I148" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="J148" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="K148" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L148" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M148" t="n">
         <v>1.04</v>
       </c>
       <c r="N148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O148" t="n">
         <v>1.22</v>
@@ -21540,91 +21540,91 @@
         <v>4</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R148" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S148" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="T148" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="U148" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V148" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W148" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X148" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y148" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Z148" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA148" t="n">
         <v>7</v>
       </c>
       <c r="AB148" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC148" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD148" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE148" t="n">
         <v>12</v>
       </c>
       <c r="AF148" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH148" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI148" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ148" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK148" t="n">
         <v>351</v>
       </c>
       <c r="AL148" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM148" t="n">
         <v>41</v>
       </c>
       <c r="AN148" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO148" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP148" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ148" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR148" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AS148" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="149">
@@ -21659,13 +21659,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H149" t="n">
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J149" t="n">
         <v>2.05</v>
@@ -21674,7 +21674,7 @@
         <v>2.2</v>
       </c>
       <c r="L149" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M149" t="n">
         <v>1.07</v>
@@ -21683,16 +21683,16 @@
         <v>6.9</v>
       </c>
       <c r="O149" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P149" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q149" t="n">
         <v>2.05</v>
       </c>
       <c r="R149" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S149" t="n">
         <v>1.88</v>
@@ -21701,28 +21701,28 @@
         <v>1.98</v>
       </c>
       <c r="U149" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="V149" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W149" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X149" t="n">
         <v>2.57</v>
       </c>
       <c r="Y149" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AA149" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB149" t="n">
         <v>6</v>
-      </c>
-      <c r="AB149" t="n">
-        <v>6.5</v>
       </c>
       <c r="AC149" t="n">
         <v>9</v>
@@ -21737,16 +21737,16 @@
         <v>34</v>
       </c>
       <c r="AG149" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH149" t="n">
         <v>8</v>
       </c>
       <c r="AI149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ149" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK149" t="n">
         <v>351</v>
@@ -21755,10 +21755,10 @@
         <v>15</v>
       </c>
       <c r="AM149" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN149" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO149" t="n">
         <v>81</v>
@@ -21767,13 +21767,13 @@
         <v>51</v>
       </c>
       <c r="AQ149" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR149" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="150">
@@ -21844,7 +21844,7 @@
         <v>1.83</v>
       </c>
       <c r="S150" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="T150" t="n">
         <v>1.45</v>
@@ -22098,48 +22098,48 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="H152" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J152" t="n">
         <v>3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.1</v>
       </c>
       <c r="K152" t="n">
         <v>2.1</v>
       </c>
       <c r="L152" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M152" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O152" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P152" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R152" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V152" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W152" t="n">
         <v>1.44</v>
@@ -22154,31 +22154,31 @@
         <v>2</v>
       </c>
       <c r="AA152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB152" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC152" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD152" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF152" t="n">
         <v>29</v>
       </c>
       <c r="AG152" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH152" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ152" t="n">
         <v>41</v>
@@ -22187,19 +22187,19 @@
         <v>201</v>
       </c>
       <c r="AL152" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM152" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN152" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO152" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP152" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ152" t="n">
         <v>34</v>
@@ -22257,10 +22257,10 @@
         <v>3.4</v>
       </c>
       <c r="M153" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N153" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O153" t="n">
         <v>1.36</v>
@@ -22269,10 +22269,10 @@
         <v>3</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R153" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
@@ -22521,16 +22521,16 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>3.25</v>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J155" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K155" t="n">
         <v>2.05</v>
@@ -22539,10 +22539,10 @@
         <v>2.75</v>
       </c>
       <c r="M155" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O155" t="n">
         <v>1.36</v>
@@ -22577,7 +22577,7 @@
         <v>1.8</v>
       </c>
       <c r="AA155" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB155" t="n">
         <v>17</v>
@@ -22616,10 +22616,10 @@
         <v>9</v>
       </c>
       <c r="AN155" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP155" t="n">
         <v>19</v>
@@ -22662,19 +22662,19 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>3</v>
       </c>
       <c r="I156" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J156" t="n">
         <v>3</v>
       </c>
       <c r="K156" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L156" t="n">
         <v>3.75</v>
@@ -22692,10 +22692,10 @@
         <v>3.25</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R156" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
@@ -22715,7 +22715,7 @@
         <v>1.8</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA156" t="n">
         <v>7.5</v>
@@ -22730,7 +22730,7 @@
         <v>21</v>
       </c>
       <c r="AE156" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF156" t="n">
         <v>29</v>
@@ -22742,7 +22742,7 @@
         <v>6</v>
       </c>
       <c r="AI156" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ156" t="n">
         <v>51</v>
@@ -22754,7 +22754,7 @@
         <v>9.5</v>
       </c>
       <c r="AM156" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN156" t="n">
         <v>12</v>
@@ -22763,10 +22763,10 @@
         <v>34</v>
       </c>
       <c r="AP156" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ156" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR156" t="inlineStr"/>
       <c r="AS156" t="inlineStr"/>
@@ -22944,66 +22944,66 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H158" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I158" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J158" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L158" t="n">
         <v>2.2</v>
       </c>
-      <c r="L158" t="n">
-        <v>2.3</v>
-      </c>
       <c r="M158" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O158" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P158" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="R158" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V158" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W158" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X158" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Y158" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA158" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB158" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC158" t="n">
         <v>17</v>
@@ -23018,22 +23018,22 @@
         <v>41</v>
       </c>
       <c r="AG158" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL158" t="n">
         <v>7</v>
-      </c>
-      <c r="AI158" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ158" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK158" t="n">
-        <v>401</v>
-      </c>
-      <c r="AL158" t="n">
-        <v>6.5</v>
       </c>
       <c r="AM158" t="n">
         <v>7.5</v>
@@ -23042,13 +23042,13 @@
         <v>8.5</v>
       </c>
       <c r="AO158" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP158" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ158" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR158" t="inlineStr"/>
       <c r="AS158" t="inlineStr"/>
@@ -23085,13 +23085,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>3.5</v>
       </c>
       <c r="I159" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J159" t="n">
         <v>2.5</v>
@@ -23115,7 +23115,7 @@
         <v>2.75</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R159" t="n">
         <v>1.62</v>
@@ -23129,22 +23129,22 @@
         <v>1.22</v>
       </c>
       <c r="W159" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X159" t="n">
         <v>2.5</v>
       </c>
       <c r="Y159" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA159" t="n">
         <v>6</v>
       </c>
       <c r="AB159" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC159" t="n">
         <v>9</v>
@@ -23159,7 +23159,7 @@
         <v>34</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH159" t="n">
         <v>7</v>
@@ -23171,7 +23171,7 @@
         <v>67</v>
       </c>
       <c r="AK159" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL159" t="n">
         <v>10</v>
@@ -23653,13 +23653,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H163" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I163" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J163" t="n">
         <v>2.5</v>
@@ -23697,7 +23697,7 @@
         <v>1.44</v>
       </c>
       <c r="W163" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X163" t="n">
         <v>3.25</v>
@@ -23712,7 +23712,7 @@
         <v>9</v>
       </c>
       <c r="AB163" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC163" t="n">
         <v>9</v>
@@ -23730,7 +23730,7 @@
         <v>13</v>
       </c>
       <c r="AH163" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI163" t="n">
         <v>13</v>
@@ -23745,7 +23745,7 @@
         <v>13</v>
       </c>
       <c r="AM163" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN163" t="n">
         <v>13</v>
@@ -23794,22 +23794,22 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H164" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I164" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J164" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K164" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L164" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M164" t="n">
         <v>1.07</v>
@@ -23824,10 +23824,10 @@
         <v>3</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R164" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
@@ -23838,16 +23838,16 @@
         <v>1.22</v>
       </c>
       <c r="W164" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X164" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y164" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z164" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA164" t="n">
         <v>8</v>
@@ -23935,13 +23935,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H165" t="n">
         <v>3.3</v>
       </c>
       <c r="I165" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J165" t="n">
         <v>3</v>
@@ -23953,33 +23953,33 @@
         <v>3.25</v>
       </c>
       <c r="M165" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N165" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O165" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P165" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q165" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R165" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V165" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W165" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X165" t="n">
         <v>2.75</v>
@@ -24003,7 +24003,7 @@
         <v>23</v>
       </c>
       <c r="AE165" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF165" t="n">
         <v>29</v>
@@ -24024,7 +24024,7 @@
         <v>151</v>
       </c>
       <c r="AL165" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM165" t="n">
         <v>15</v>
@@ -24036,7 +24036,7 @@
         <v>29</v>
       </c>
       <c r="AP165" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ165" t="n">
         <v>29</v>
@@ -24505,13 +24505,13 @@
         <v>5.75</v>
       </c>
       <c r="I169" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J169" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K169" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L169" t="n">
         <v>1.8</v>
@@ -24523,16 +24523,16 @@
         <v>15</v>
       </c>
       <c r="O169" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P169" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R169" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S169" t="n">
         <v>2.05</v>
@@ -24541,10 +24541,10 @@
         <v>1.8</v>
       </c>
       <c r="U169" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V169" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W169" t="n">
         <v>1.3</v>
@@ -24553,10 +24553,10 @@
         <v>3.4</v>
       </c>
       <c r="Y169" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z169" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA169" t="n">
         <v>19</v>
@@ -24565,7 +24565,7 @@
         <v>41</v>
       </c>
       <c r="AC169" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD169" t="n">
         <v>101</v>
@@ -24586,22 +24586,22 @@
         <v>23</v>
       </c>
       <c r="AJ169" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK169" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL169" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM169" t="n">
         <v>6.5</v>
       </c>
       <c r="AN169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO169" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AO169" t="n">
-        <v>8</v>
       </c>
       <c r="AP169" t="n">
         <v>11</v>
@@ -27625,66 +27625,66 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>3</v>
       </c>
       <c r="I191" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J191" t="n">
         <v>3.1</v>
       </c>
       <c r="K191" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L191" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M191" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N191" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O191" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P191" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q191" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R191" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V191" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W191" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X191" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y191" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z191" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA191" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB191" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC191" t="n">
         <v>10</v>
@@ -27705,7 +27705,7 @@
         <v>6</v>
       </c>
       <c r="AI191" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ191" t="n">
         <v>67</v>
@@ -27723,7 +27723,7 @@
         <v>13</v>
       </c>
       <c r="AO191" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP191" t="n">
         <v>34</v>
@@ -27732,10 +27732,10 @@
         <v>41</v>
       </c>
       <c r="AR191" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -27915,22 +27915,22 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H193" t="n">
         <v>4.33</v>
       </c>
       <c r="I193" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J193" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K193" t="n">
         <v>2.38</v>
       </c>
       <c r="L193" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M193" t="n">
         <v>1.03</v>
@@ -27939,24 +27939,24 @@
         <v>15</v>
       </c>
       <c r="O193" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P193" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q193" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R193" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V193" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W193" t="n">
         <v>1.33</v>
@@ -27971,7 +27971,7 @@
         <v>2</v>
       </c>
       <c r="AA193" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB193" t="n">
         <v>8.5</v>
@@ -27983,7 +27983,7 @@
         <v>13</v>
       </c>
       <c r="AE193" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF193" t="n">
         <v>23</v>
@@ -28004,10 +28004,10 @@
         <v>201</v>
       </c>
       <c r="AL193" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM193" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN193" t="n">
         <v>15</v>
@@ -28056,58 +28056,58 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="H194" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J194" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N194" t="n">
+        <v>19</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P194" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X194" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K194" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L194" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M194" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N194" t="n">
-        <v>15</v>
-      </c>
-      <c r="O194" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P194" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q194" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R194" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S194" t="n">
-        <v>2</v>
-      </c>
-      <c r="T194" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U194" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V194" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W194" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X194" t="n">
-        <v>3.4</v>
       </c>
       <c r="Y194" t="n">
         <v>1.53</v>
@@ -28116,31 +28116,31 @@
         <v>2.38</v>
       </c>
       <c r="AA194" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC194" t="n">
         <v>15</v>
       </c>
-      <c r="AB194" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC194" t="n">
-        <v>12</v>
-      </c>
       <c r="AD194" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE194" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF194" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG194" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH194" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI194" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ194" t="n">
         <v>41</v>
@@ -28152,19 +28152,19 @@
         <v>10</v>
       </c>
       <c r="AM194" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AN194" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO194" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP194" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AQ194" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR194" t="inlineStr"/>
       <c r="AS194" t="inlineStr"/>
@@ -28225,24 +28225,24 @@
         <v>13</v>
       </c>
       <c r="O195" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P195" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q195" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R195" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
       <c r="U195" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V195" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W195" t="n">
         <v>1.33</v>
@@ -28342,111 +28342,111 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H196" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="I196" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="J196" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="K196" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L196" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="M196" t="n">
         <v>1.05</v>
       </c>
       <c r="N196" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O196" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P196" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q196" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R196" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="V196" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W196" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X196" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Y196" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Z196" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA196" t="n">
         <v>6.6</v>
       </c>
       <c r="AB196" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AC196" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD196" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AE196" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF196" t="n">
         <v>27</v>
       </c>
       <c r="AG196" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AH196" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AI196" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ196" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK196" t="n">
         <v>700</v>
       </c>
       <c r="AL196" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM196" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN196" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO196" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP196" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AQ196" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR196" t="inlineStr"/>
       <c r="AS196" t="inlineStr"/>
@@ -29197,7 +29197,7 @@
         <v>5.5</v>
       </c>
       <c r="J202" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K202" t="n">
         <v>2.5</v>
@@ -29224,10 +29224,10 @@
         <v>2.35</v>
       </c>
       <c r="S202" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T202" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U202" t="n">
         <v>2.38</v>
@@ -29257,10 +29257,10 @@
         <v>8.5</v>
       </c>
       <c r="AD202" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE202" t="n">
         <v>11</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>12</v>
       </c>
       <c r="AF202" t="n">
         <v>21</v>
@@ -29281,10 +29281,10 @@
         <v>151</v>
       </c>
       <c r="AL202" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM202" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN202" t="n">
         <v>17</v>
@@ -29699,7 +29699,7 @@
         <v>3.2</v>
       </c>
       <c r="J206" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K206" t="n">
         <v>2.1</v>
@@ -29708,30 +29708,30 @@
         <v>4</v>
       </c>
       <c r="M206" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N206" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O206" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P206" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q206" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R206" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V206" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W206" t="n">
         <v>1.4</v>
@@ -30112,7 +30112,7 @@
         <v>1.53</v>
       </c>
       <c r="H209" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I209" t="n">
         <v>6.1</v>
@@ -30121,7 +30121,7 @@
         <v>2.1</v>
       </c>
       <c r="K209" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L209" t="n">
         <v>6.1</v>
@@ -30164,10 +30164,10 @@
         <v>5.9</v>
       </c>
       <c r="AB209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AC209" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD209" t="n">
         <v>10.75</v>
@@ -30182,10 +30182,10 @@
         <v>8.75</v>
       </c>
       <c r="AH209" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AI209" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ209" t="n">
         <v>110</v>
@@ -30194,7 +30194,7 @@
         <v>900</v>
       </c>
       <c r="AL209" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM209" t="n">
         <v>37</v>
@@ -30206,10 +30206,10 @@
         <v>150</v>
       </c>
       <c r="AP209" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AQ209" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR209" t="inlineStr"/>
       <c r="AS209" t="inlineStr"/>
@@ -30246,28 +30246,28 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H210" t="n">
         <v>3.6</v>
       </c>
       <c r="I210" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J210" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K210" t="n">
         <v>2.38</v>
       </c>
       <c r="L210" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M210" t="n">
         <v>1.03</v>
       </c>
       <c r="N210" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O210" t="n">
         <v>1.17</v>
@@ -30276,28 +30276,28 @@
         <v>5</v>
       </c>
       <c r="Q210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S210" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V210" t="n">
         <v>1.57</v>
       </c>
-      <c r="R210" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S210" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T210" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U210" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V210" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W210" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X210" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y210" t="n">
         <v>1.5</v>
@@ -30312,7 +30312,7 @@
         <v>13</v>
       </c>
       <c r="AC210" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD210" t="n">
         <v>21</v>
@@ -30324,7 +30324,7 @@
         <v>21</v>
       </c>
       <c r="AG210" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH210" t="n">
         <v>7</v>
@@ -30351,7 +30351,7 @@
         <v>34</v>
       </c>
       <c r="AP210" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ210" t="n">
         <v>26</v>
@@ -30391,10 +30391,10 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I211" t="n">
         <v>2.88</v>
@@ -30403,10 +30403,10 @@
         <v>3.25</v>
       </c>
       <c r="K211" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L211" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M211" t="n">
         <v>1.07</v>
@@ -30441,16 +30441,16 @@
         <v>2.63</v>
       </c>
       <c r="Y211" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z211" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA211" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB211" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC211" t="n">
         <v>10</v>
@@ -30462,10 +30462,10 @@
         <v>21</v>
       </c>
       <c r="AF211" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG211" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH211" t="n">
         <v>6</v>
@@ -30474,13 +30474,13 @@
         <v>13</v>
       </c>
       <c r="AJ211" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK211" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL211" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM211" t="n">
         <v>13</v>
@@ -30562,10 +30562,10 @@
         <v>4.33</v>
       </c>
       <c r="Q212" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R212" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S212" t="n">
         <v>2.03</v>
@@ -30586,7 +30586,7 @@
         <v>3.25</v>
       </c>
       <c r="Y212" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z212" t="n">
         <v>2.25</v>
@@ -30677,22 +30677,22 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I213" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J213" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K213" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L213" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M213" t="n">
         <v>1.05</v>
@@ -30701,16 +30701,16 @@
         <v>11</v>
       </c>
       <c r="O213" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P213" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R213" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
@@ -30721,52 +30721,52 @@
         <v>1.3</v>
       </c>
       <c r="W213" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X213" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y213" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Z213" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="AA213" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB213" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC213" t="n">
         <v>8.5</v>
       </c>
       <c r="AD213" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE213" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF213" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG213" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH213" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI213" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ213" t="n">
         <v>51</v>
       </c>
       <c r="AK213" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL213" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM213" t="n">
         <v>23</v>
@@ -30818,16 +30818,16 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H214" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I214" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J214" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K214" t="n">
         <v>2.3</v>
@@ -30848,10 +30848,10 @@
         <v>4</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R214" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
@@ -30862,19 +30862,19 @@
         <v>1.4</v>
       </c>
       <c r="W214" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X214" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y214" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z214" t="n">
         <v>2</v>
       </c>
       <c r="AA214" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB214" t="n">
         <v>8.5</v>
@@ -30913,7 +30913,7 @@
         <v>26</v>
       </c>
       <c r="AN214" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO214" t="n">
         <v>51</v>
@@ -30989,10 +30989,10 @@
         <v>4.33</v>
       </c>
       <c r="Q215" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R215" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S215" t="n">
         <v>2.05</v>
@@ -31013,7 +31013,7 @@
         <v>3.25</v>
       </c>
       <c r="Y215" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z215" t="n">
         <v>2.25</v>
@@ -31158,7 +31158,7 @@
         <v>3.25</v>
       </c>
       <c r="Y216" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z216" t="n">
         <v>2.2</v>
@@ -31249,16 +31249,16 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H217" t="n">
         <v>4.5</v>
       </c>
       <c r="I217" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J217" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K217" t="n">
         <v>2.4</v>
@@ -31299,13 +31299,13 @@
         <v>3.4</v>
       </c>
       <c r="Y217" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z217" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA217" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB217" t="n">
         <v>7.5</v>
@@ -31314,7 +31314,7 @@
         <v>8.5</v>
       </c>
       <c r="AD217" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE217" t="n">
         <v>12</v>
@@ -31335,7 +31335,7 @@
         <v>51</v>
       </c>
       <c r="AK217" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL217" t="n">
         <v>17</v>
@@ -31390,40 +31390,40 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H218" t="n">
         <v>3.4</v>
       </c>
       <c r="I218" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J218" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K218" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L218" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M218" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N218" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O218" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P218" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q218" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R218" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S218" t="n">
         <v>2.05</v>
@@ -31432,55 +31432,55 @@
         <v>1.8</v>
       </c>
       <c r="U218" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V218" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W218" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X218" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y218" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Z218" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA218" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB218" t="n">
         <v>11</v>
       </c>
-      <c r="AB218" t="n">
+      <c r="AC218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG218" t="n">
         <v>13</v>
       </c>
-      <c r="AC218" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD218" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE218" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF218" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>15</v>
-      </c>
       <c r="AH218" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI218" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ218" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK218" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL218" t="n">
         <v>13</v>
@@ -31489,16 +31489,16 @@
         <v>19</v>
       </c>
       <c r="AN218" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO218" t="n">
         <v>34</v>
       </c>
       <c r="AP218" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ218" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR218" t="inlineStr"/>
       <c r="AS218" t="inlineStr"/>
@@ -31535,13 +31535,13 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H219" t="n">
         <v>3.4</v>
       </c>
       <c r="I219" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J219" t="n">
         <v>2.88</v>
@@ -31550,7 +31550,7 @@
         <v>2.2</v>
       </c>
       <c r="L219" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M219" t="n">
         <v>1.04</v>
@@ -31583,7 +31583,7 @@
         <v>1.4</v>
       </c>
       <c r="W219" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X219" t="n">
         <v>3</v>
@@ -31680,22 +31680,22 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.22</v>
+        <v>2.47</v>
       </c>
       <c r="H220" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I220" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J220" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="K220" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L220" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
@@ -31703,18 +31703,18 @@
         <v>1.42</v>
       </c>
       <c r="P220" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Q220" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R220" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="V220" t="n">
         <v>1.19</v>
@@ -31723,7 +31723,7 @@
         <v>1.47</v>
       </c>
       <c r="X220" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Y220" t="n">
         <v>1.87</v>
@@ -31732,31 +31732,31 @@
         <v>1.75</v>
       </c>
       <c r="AA220" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB220" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AC220" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AD220" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE220" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF220" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG220" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AH220" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI220" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ220" t="n">
         <v>90</v>
@@ -31765,22 +31765,22 @@
         <v>800</v>
       </c>
       <c r="AL220" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AM220" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AN220" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO220" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP220" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ220" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR220" t="inlineStr"/>
       <c r="AS220" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
@@ -855,22 +855,22 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.36</v>
@@ -887,10 +887,10 @@
         <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -923,7 +923,7 @@
         <v>67</v>
       </c>
       <c r="AK3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
         <v>2.6</v>
@@ -996,13 +996,13 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1014,16 +1014,16 @@
         <v>2.38</v>
       </c>
       <c r="S4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>1.29</v>
@@ -1032,22 +1032,22 @@
         <v>3.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1056,10 +1056,10 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1071,22 +1071,22 @@
         <v>251</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP4" t="n">
         <v>51</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -2280,10 +2280,10 @@
         <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
         <v>4.5</v>
@@ -2295,24 +2295,24 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
         <v>1.36</v>
@@ -2321,13 +2321,13 @@
         <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z13" t="n">
         <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB13" t="n">
         <v>9</v>
@@ -2339,16 +2339,16 @@
         <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
         <v>15</v>
@@ -2363,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>15</v>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
@@ -2711,7 +2711,7 @@
         <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
@@ -2756,10 +2756,10 @@
         <v>2.63</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA16" t="n">
         <v>10</v>
@@ -2856,13 +2856,13 @@
         <v>6.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2901,28 +2901,28 @@
         <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE17" t="n">
         <v>11</v>
       </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -2943,13 +2943,13 @@
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP17" t="n">
         <v>41</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3453,10 +3453,10 @@
         <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3482,28 +3482,28 @@
         <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
         <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
         <v>51</v>
@@ -3518,7 +3518,7 @@
         <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
@@ -3564,22 +3564,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>1.8</v>
       </c>
       <c r="L22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.14</v>
@@ -3594,16 +3594,16 @@
         <v>2.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U22" t="n">
         <v>7</v>
@@ -3612,43 +3612,43 @@
         <v>1.1</v>
       </c>
       <c r="W22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
         <v>6</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
         <v>101</v>
@@ -3660,10 +3660,10 @@
         <v>7</v>
       </c>
       <c r="AM22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN22" t="n">
         <v>15</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>41</v>
@@ -3713,28 +3713,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3794,10 +3794,10 @@
         <v>8.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>67</v>
@@ -3815,10 +3815,10 @@
         <v>19</v>
       </c>
       <c r="AO23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP23" t="n">
         <v>51</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>41</v>
       </c>
       <c r="AQ23" t="n">
         <v>51</v>
@@ -3862,28 +3862,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3892,46 +3892,46 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="U24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC24" t="n">
         <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -3940,16 +3940,16 @@
         <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK24" t="n">
         <v>501</v>
@@ -3958,16 +3958,16 @@
         <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO24" t="n">
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ24" t="n">
         <v>51</v>
@@ -4041,10 +4041,10 @@
         <v>2.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
         <v>4.8</v>
@@ -4059,7 +4059,7 @@
         <v>1.13</v>
       </c>
       <c r="W25" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
         <v>2.2</v>
@@ -4160,28 +4160,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.73</v>
@@ -4190,42 +4190,42 @@
         <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X26" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA26" t="n">
         <v>5.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE26" t="n">
         <v>34</v>
@@ -4234,13 +4234,13 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AH26" t="n">
         <v>5.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>101</v>
@@ -4252,13 +4252,13 @@
         <v>6.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN26" t="n">
         <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP26" t="n">
         <v>41</v>
@@ -4301,22 +4301,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M27" t="n">
         <v>1.17</v>
@@ -4345,7 +4345,7 @@
         <v>1.11</v>
       </c>
       <c r="W27" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
         <v>2.1</v>
@@ -4357,22 +4357,22 @@
         <v>1.53</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC27" t="n">
         <v>11</v>
       </c>
-      <c r="AC27" t="n">
-        <v>12</v>
-      </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="n">
         <v>5</v>
@@ -4390,19 +4390,19 @@
         <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
@@ -4486,10 +4486,10 @@
         <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y28" t="n">
         <v>2.1</v>
@@ -4602,13 +4602,13 @@
         <v>1.83</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.62</v>
@@ -4631,7 +4631,7 @@
         <v>1.11</v>
       </c>
       <c r="W29" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X29" t="n">
         <v>2.1</v>
@@ -4661,13 +4661,13 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AH29" t="n">
         <v>7</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>126</v>
@@ -6301,64 +6301,64 @@
         <v>4.75</v>
       </c>
       <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N41" t="n">
+        <v>17</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA41" t="n">
         <v>7.5</v>
       </c>
-      <c r="J41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N41" t="n">
-        <v>13</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA41" t="n">
+      <c r="AB41" t="n">
         <v>7</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>6.5</v>
       </c>
       <c r="AC41" t="n">
         <v>8.5</v>
@@ -6367,28 +6367,28 @@
         <v>9</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
         <v>9.5</v>
       </c>
       <c r="AI41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL41" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>19</v>
       </c>
       <c r="AM41" t="n">
         <v>41</v>
@@ -6440,19 +6440,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
         <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L42" t="n">
         <v>2.75</v>
@@ -6476,10 +6476,10 @@
         <v>2.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="T42" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="n">
         <v>2.5</v>
@@ -6500,7 +6500,7 @@
         <v>2.38</v>
       </c>
       <c r="AA42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB42" t="n">
         <v>17</v>
@@ -6509,7 +6509,7 @@
         <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="n">
         <v>21</v>
@@ -6527,7 +6527,7 @@
         <v>12</v>
       </c>
       <c r="AJ42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK42" t="n">
         <v>126</v>
@@ -6539,13 +6539,13 @@
         <v>13</v>
       </c>
       <c r="AN42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO42" t="n">
         <v>21</v>
       </c>
       <c r="AP42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ42" t="n">
         <v>21</v>
@@ -6585,22 +6585,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
         <v>2.25</v>
       </c>
       <c r="L43" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6615,10 +6615,10 @@
         <v>3.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -6635,58 +6635,58 @@
         <v>3</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA43" t="n">
         <v>11</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF43" t="n">
         <v>34</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>29</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
       </c>
       <c r="AK43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL43" t="n">
         <v>8.5</v>
       </c>
       <c r="AM43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ43" t="n">
         <v>23</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L48" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O48" t="n">
         <v>1.29</v>
@@ -7336,22 +7336,22 @@
         <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S48" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="T48" t="n">
         <v>1.47</v>
       </c>
       <c r="U48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W48" t="n">
         <v>1.4</v>
@@ -7360,25 +7360,25 @@
         <v>2.75</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC48" t="n">
         <v>9</v>
       </c>
-      <c r="AC48" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE48" t="n">
         <v>17</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>15</v>
       </c>
       <c r="AF48" t="n">
         <v>26</v>
@@ -7390,31 +7390,31 @@
         <v>6.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN48" t="n">
         <v>12</v>
       </c>
-      <c r="AM48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>13</v>
-      </c>
       <c r="AO48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>41</v>
       </c>
       <c r="AR48" t="n">
         <v>1.46</v>
@@ -7455,16 +7455,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H49" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K49" t="n">
         <v>2.3</v>
@@ -7485,7 +7485,7 @@
         <v>4.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R49" t="n">
         <v>2.15</v>
@@ -7515,19 +7515,19 @@
         <v>2.2</v>
       </c>
       <c r="AA49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC49" t="n">
         <v>9</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD49" t="n">
         <v>17</v>
       </c>
       <c r="AE49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
         <v>21</v>
@@ -7551,16 +7551,16 @@
         <v>13</v>
       </c>
       <c r="AM49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO49" t="n">
         <v>41</v>
       </c>
       <c r="AP49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ49" t="n">
         <v>29</v>
@@ -8325,34 +8325,34 @@
         </is>
       </c>
       <c r="G55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K55" t="n">
         <v>1.95</v>
       </c>
-      <c r="H55" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P55" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q55" t="n">
         <v>2.6</v>
@@ -8373,10 +8373,10 @@
         <v>1.14</v>
       </c>
       <c r="W55" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y55" t="n">
         <v>2.25</v>
@@ -8385,19 +8385,19 @@
         <v>1.57</v>
       </c>
       <c r="AA55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB55" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE55" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="n">
         <v>41</v>
@@ -8418,16 +8418,16 @@
         <v>101</v>
       </c>
       <c r="AL55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP55" t="n">
         <v>41</v>
@@ -8436,10 +8436,10 @@
         <v>51</v>
       </c>
       <c r="AR55" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="56">
@@ -8474,28 +8474,28 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K56" t="n">
         <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O56" t="n">
         <v>1.33</v>
@@ -8528,10 +8528,10 @@
         <v>2.63</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA56" t="n">
         <v>5.5</v>
@@ -8543,7 +8543,7 @@
         <v>9</v>
       </c>
       <c r="AD56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -8570,7 +8570,7 @@
         <v>15</v>
       </c>
       <c r="AM56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="n">
         <v>23</v>
@@ -8579,7 +8579,7 @@
         <v>81</v>
       </c>
       <c r="AP56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ56" t="n">
         <v>67</v>
@@ -9793,10 +9793,10 @@
         <v>3.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -10186,28 +10186,28 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K68" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L68" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M68" t="n">
         <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -10245,16 +10245,16 @@
         <v>7</v>
       </c>
       <c r="AB68" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC68" t="n">
         <v>9</v>
       </c>
       <c r="AD68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF68" t="n">
         <v>29</v>
@@ -10278,7 +10278,7 @@
         <v>10</v>
       </c>
       <c r="AM68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN68" t="n">
         <v>13</v>
@@ -10287,7 +10287,7 @@
         <v>41</v>
       </c>
       <c r="AP68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ68" t="n">
         <v>41</v>
@@ -10327,22 +10327,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H69" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J69" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K69" t="n">
         <v>2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M69" t="n">
         <v>1.05</v>
@@ -10377,22 +10377,22 @@
         <v>3</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA69" t="n">
         <v>6</v>
       </c>
       <c r="AB69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AC69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD69" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE69" t="n">
         <v>13</v>
@@ -10404,31 +10404,31 @@
         <v>11</v>
       </c>
       <c r="AH69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ69" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="n">
         <v>1250</v>
       </c>
       <c r="AL69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM69" t="n">
         <v>41</v>
       </c>
       <c r="AN69" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO69" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP69" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AQ69" t="n">
         <v>67</v>
@@ -10468,13 +10468,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H70" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I70" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J70" t="n">
         <v>3.6</v>
@@ -10486,10 +10486,10 @@
         <v>3.1</v>
       </c>
       <c r="M70" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O70" t="n">
         <v>1.33</v>
@@ -10518,10 +10518,10 @@
         <v>2.63</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA70" t="n">
         <v>9</v>
@@ -10533,16 +10533,16 @@
         <v>11</v>
       </c>
       <c r="AD70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE70" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF70" t="n">
         <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH70" t="n">
         <v>6.5</v>
@@ -10557,7 +10557,7 @@
         <v>251</v>
       </c>
       <c r="AL70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM70" t="n">
         <v>11</v>
@@ -10566,10 +10566,10 @@
         <v>9.5</v>
       </c>
       <c r="AO70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP70" t="n">
         <v>21</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>19</v>
       </c>
       <c r="AQ70" t="n">
         <v>29</v>
@@ -13844,22 +13844,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I94" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K94" t="n">
         <v>2.38</v>
       </c>
       <c r="L94" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M94" t="n">
         <v>1.04</v>
@@ -13868,24 +13868,24 @@
         <v>13</v>
       </c>
       <c r="O94" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P94" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R94" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V94" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W94" t="n">
         <v>1.33</v>
@@ -13894,16 +13894,16 @@
         <v>3.25</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z94" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA94" t="n">
         <v>8</v>
       </c>
       <c r="AB94" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC94" t="n">
         <v>8.5</v>
@@ -13912,7 +13912,7 @@
         <v>12</v>
       </c>
       <c r="AE94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF94" t="n">
         <v>23</v>
@@ -13924,10 +13924,10 @@
         <v>8</v>
       </c>
       <c r="AI94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ94" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK94" t="n">
         <v>201</v>
@@ -13936,10 +13936,10 @@
         <v>15</v>
       </c>
       <c r="AM94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO94" t="n">
         <v>51</v>
@@ -14545,28 +14545,28 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I99" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L99" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M99" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N99" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O99" t="n">
         <v>1.25</v>
@@ -14575,10 +14575,10 @@
         <v>3.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R99" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S99" t="n">
         <v>2.05</v>
@@ -14605,16 +14605,16 @@
         <v>2.1</v>
       </c>
       <c r="AA99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC99" t="n">
         <v>12</v>
       </c>
       <c r="AD99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE99" t="n">
         <v>26</v>
@@ -14623,10 +14623,10 @@
         <v>34</v>
       </c>
       <c r="AG99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH99" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI99" t="n">
         <v>13</v>
@@ -14641,16 +14641,16 @@
         <v>8.5</v>
       </c>
       <c r="AM99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN99" t="n">
         <v>9</v>
       </c>
       <c r="AO99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ99" t="n">
         <v>23</v>
@@ -16284,60 +16284,60 @@
         <v>2.35</v>
       </c>
       <c r="H111" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I111" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
         <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L111" t="n">
         <v>3.5</v>
       </c>
       <c r="M111" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O111" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P111" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="R111" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V111" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W111" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X111" t="n">
         <v>2.75</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA111" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB111" t="n">
         <v>12</v>
@@ -16352,10 +16352,10 @@
         <v>19</v>
       </c>
       <c r="AF111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH111" t="n">
         <v>6.5</v>
@@ -16367,10 +16367,10 @@
         <v>41</v>
       </c>
       <c r="AK111" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL111" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM111" t="n">
         <v>15</v>
@@ -16385,7 +16385,7 @@
         <v>23</v>
       </c>
       <c r="AQ111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
@@ -20126,34 +20126,34 @@
         <v>3.75</v>
       </c>
       <c r="M138" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N138" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O138" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P138" t="n">
         <v>4.5</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R138" t="n">
         <v>2.3</v>
       </c>
       <c r="S138" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T138" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U138" t="n">
         <v>2.5</v>
       </c>
       <c r="V138" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W138" t="n">
         <v>1.3</v>
@@ -20268,7 +20268,7 @@
         <v>2.25</v>
       </c>
       <c r="L139" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M139" t="n">
         <v>1.04</v>
@@ -20283,18 +20283,18 @@
         <v>4</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R139" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V139" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W139" t="n">
         <v>1.36</v>
@@ -20418,40 +20418,40 @@
         <v>17</v>
       </c>
       <c r="O140" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P140" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y140" t="n">
         <v>1.53</v>
       </c>
-      <c r="R140" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S140" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T140" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U140" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V140" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W140" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X140" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y140" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Z140" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA140" t="n">
         <v>10</v>
@@ -20472,7 +20472,7 @@
         <v>19</v>
       </c>
       <c r="AG140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH140" t="n">
         <v>8</v>
@@ -20481,7 +20481,7 @@
         <v>13</v>
       </c>
       <c r="AJ140" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK140" t="n">
         <v>126</v>
@@ -20499,7 +20499,7 @@
         <v>51</v>
       </c>
       <c r="AP140" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ140" t="n">
         <v>29</v>
@@ -20825,32 +20825,32 @@
         <v>3.05</v>
       </c>
       <c r="K143" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L143" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P143" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R143" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="V143" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W143" t="n">
         <v>1.39</v>
@@ -20859,13 +20859,13 @@
         <v>2.57</v>
       </c>
       <c r="Y143" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Z143" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AA143" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB143" t="n">
         <v>13.5</v>
@@ -20883,37 +20883,37 @@
         <v>26</v>
       </c>
       <c r="AG143" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH143" t="n">
         <v>6.6</v>
       </c>
       <c r="AI143" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ143" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK143" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL143" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM143" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN143" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO143" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP143" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ143" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR143" t="inlineStr"/>
       <c r="AS143" t="inlineStr"/>
@@ -21228,16 +21228,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H146" t="n">
         <v>3.1</v>
       </c>
       <c r="I146" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J146" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K146" t="n">
         <v>2.05</v>
@@ -21261,7 +21261,7 @@
         <v>2.2</v>
       </c>
       <c r="R146" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
@@ -21284,10 +21284,10 @@
         <v>1.73</v>
       </c>
       <c r="AA146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB146" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC146" t="n">
         <v>17</v>
@@ -21326,7 +21326,7 @@
         <v>9</v>
       </c>
       <c r="AO146" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP146" t="n">
         <v>17</v>
@@ -21369,7 +21369,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>3.5</v>
@@ -21399,10 +21399,10 @@
         <v>3.25</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R147" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
@@ -21659,16 +21659,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H149" t="n">
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J149" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K149" t="n">
         <v>2.2</v>
@@ -21701,7 +21701,7 @@
         <v>1.98</v>
       </c>
       <c r="U149" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V149" t="n">
         <v>1.28</v>
@@ -21713,10 +21713,10 @@
         <v>2.57</v>
       </c>
       <c r="Y149" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AA149" t="n">
         <v>5.5</v>
@@ -21728,7 +21728,7 @@
         <v>9</v>
       </c>
       <c r="AD149" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE149" t="n">
         <v>13</v>
@@ -21752,7 +21752,7 @@
         <v>351</v>
       </c>
       <c r="AL149" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM149" t="n">
         <v>41</v>
@@ -21761,19 +21761,19 @@
         <v>23</v>
       </c>
       <c r="AO149" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP149" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ149" t="n">
         <v>67</v>
       </c>
       <c r="AR149" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="150">
@@ -21808,40 +21808,40 @@
         </is>
       </c>
       <c r="G150" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N150" t="n">
+        <v>11</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>2</v>
+      </c>
+      <c r="R150" t="n">
         <v>1.85</v>
-      </c>
-      <c r="H150" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I150" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J150" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K150" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L150" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N150" t="n">
-        <v>10</v>
-      </c>
-      <c r="O150" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P150" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R150" t="n">
-        <v>1.83</v>
       </c>
       <c r="S150" t="n">
         <v>2.8</v>
@@ -21856,10 +21856,10 @@
         <v>1.3</v>
       </c>
       <c r="W150" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X150" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y150" t="n">
         <v>1.83</v>
@@ -21871,13 +21871,13 @@
         <v>7</v>
       </c>
       <c r="AB150" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC150" t="n">
         <v>8.5</v>
       </c>
       <c r="AD150" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE150" t="n">
         <v>15</v>
@@ -21886,7 +21886,7 @@
         <v>29</v>
       </c>
       <c r="AG150" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH150" t="n">
         <v>6.5</v>
@@ -21901,19 +21901,19 @@
         <v>301</v>
       </c>
       <c r="AL150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM150" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN150" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO150" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP150" t="n">
         <v>41</v>
-      </c>
-      <c r="AP150" t="n">
-        <v>34</v>
       </c>
       <c r="AQ150" t="n">
         <v>41</v>
@@ -22239,60 +22239,60 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H153" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>2.7</v>
       </c>
       <c r="J153" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K153" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L153" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M153" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N153" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O153" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P153" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R153" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V153" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="W153" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X153" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y153" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z153" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA153" t="n">
         <v>7.5</v>
@@ -22304,31 +22304,31 @@
         <v>11</v>
       </c>
       <c r="AD153" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE153" t="n">
         <v>26</v>
       </c>
-      <c r="AE153" t="n">
-        <v>23</v>
-      </c>
       <c r="AF153" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG153" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH153" t="n">
         <v>6</v>
       </c>
       <c r="AI153" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ153" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK153" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AL153" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM153" t="n">
         <v>12</v>
@@ -22340,13 +22340,17 @@
         <v>26</v>
       </c>
       <c r="AP153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ153" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR153" t="inlineStr"/>
-      <c r="AS153" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -22692,30 +22696,30 @@
         <v>3.25</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R156" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V156" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W156" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X156" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y156" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA156" t="n">
         <v>7.5</v>
@@ -23118,7 +23122,7 @@
         <v>2.2</v>
       </c>
       <c r="R159" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
@@ -23653,28 +23657,28 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H163" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I163" t="n">
         <v>3.6</v>
       </c>
-      <c r="I163" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J163" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K163" t="n">
         <v>2.25</v>
       </c>
       <c r="L163" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M163" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N163" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O163" t="n">
         <v>1.22</v>
@@ -23697,7 +23701,7 @@
         <v>1.44</v>
       </c>
       <c r="W163" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X163" t="n">
         <v>3.25</v>
@@ -23712,7 +23716,7 @@
         <v>9</v>
       </c>
       <c r="AB163" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC163" t="n">
         <v>9</v>
@@ -23730,7 +23734,7 @@
         <v>13</v>
       </c>
       <c r="AH163" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI163" t="n">
         <v>13</v>
@@ -23745,7 +23749,7 @@
         <v>13</v>
       </c>
       <c r="AM163" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN163" t="n">
         <v>13</v>
@@ -23754,10 +23758,10 @@
         <v>41</v>
       </c>
       <c r="AP163" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ163" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR163" t="inlineStr"/>
       <c r="AS163" t="inlineStr"/>
@@ -23794,22 +23798,22 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H164" t="n">
         <v>3.4</v>
       </c>
       <c r="I164" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J164" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K164" t="n">
         <v>2.05</v>
       </c>
       <c r="L164" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M164" t="n">
         <v>1.07</v>
@@ -23824,10 +23828,10 @@
         <v>3</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R164" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
@@ -23838,10 +23842,10 @@
         <v>1.22</v>
       </c>
       <c r="W164" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X164" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y164" t="n">
         <v>2</v>
@@ -23935,28 +23939,28 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H165" t="n">
         <v>3.3</v>
       </c>
       <c r="I165" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J165" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K165" t="n">
         <v>2.1</v>
       </c>
       <c r="L165" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N165" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O165" t="n">
         <v>1.29</v>
@@ -23965,10 +23969,10 @@
         <v>3.5</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R165" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
@@ -23979,7 +23983,7 @@
         <v>1.33</v>
       </c>
       <c r="W165" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X165" t="n">
         <v>2.75</v>
@@ -24000,7 +24004,7 @@
         <v>10</v>
       </c>
       <c r="AD165" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE165" t="n">
         <v>19</v>
@@ -27770,40 +27774,40 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I192" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J192" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K192" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L192" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M192" t="n">
         <v>1.04</v>
       </c>
       <c r="N192" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O192" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P192" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q192" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R192" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S192" t="n">
         <v>2.05</v>
@@ -27812,73 +27816,73 @@
         <v>1.8</v>
       </c>
       <c r="U192" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V192" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W192" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X192" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y192" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z192" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA192" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB192" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AC192" t="n">
         <v>8.5</v>
       </c>
       <c r="AD192" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE192" t="n">
         <v>12</v>
       </c>
       <c r="AF192" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG192" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH192" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI192" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ192" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK192" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL192" t="n">
         <v>15</v>
       </c>
       <c r="AM192" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN192" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO192" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP192" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ192" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR192" t="inlineStr"/>
       <c r="AS192" t="inlineStr"/>
@@ -28201,28 +28205,28 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H195" t="n">
         <v>3.4</v>
       </c>
       <c r="I195" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J195" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K195" t="n">
         <v>2.25</v>
       </c>
       <c r="L195" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M195" t="n">
         <v>1.04</v>
       </c>
       <c r="N195" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O195" t="n">
         <v>1.22</v>
@@ -28231,10 +28235,10 @@
         <v>4</v>
       </c>
       <c r="Q195" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R195" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
@@ -28257,25 +28261,25 @@
         <v>2.25</v>
       </c>
       <c r="AA195" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB195" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC195" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD195" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE195" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF195" t="n">
         <v>23</v>
       </c>
       <c r="AG195" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH195" t="n">
         <v>6.5</v>
@@ -28290,22 +28294,22 @@
         <v>151</v>
       </c>
       <c r="AL195" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM195" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN195" t="n">
         <v>11</v>
       </c>
       <c r="AO195" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP195" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ195" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR195" t="inlineStr"/>
       <c r="AS195" t="inlineStr"/>
@@ -30246,22 +30250,22 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L210" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J210" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K210" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L210" t="n">
-        <v>3.5</v>
       </c>
       <c r="M210" t="n">
         <v>1.03</v>
@@ -30270,10 +30274,10 @@
         <v>17</v>
       </c>
       <c r="O210" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P210" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q210" t="n">
         <v>1.53</v>
@@ -30282,10 +30286,10 @@
         <v>2.4</v>
       </c>
       <c r="S210" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T210" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U210" t="n">
         <v>2.25</v>
@@ -30309,25 +30313,25 @@
         <v>11</v>
       </c>
       <c r="AB210" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC210" t="n">
         <v>9</v>
       </c>
       <c r="AD210" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE210" t="n">
         <v>15</v>
       </c>
       <c r="AF210" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG210" t="n">
         <v>17</v>
       </c>
       <c r="AH210" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI210" t="n">
         <v>11</v>
@@ -30342,13 +30346,13 @@
         <v>15</v>
       </c>
       <c r="AM210" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN210" t="n">
         <v>12</v>
       </c>
       <c r="AO210" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP210" t="n">
         <v>23</v>
@@ -30391,13 +30395,13 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H211" t="n">
         <v>3.1</v>
       </c>
       <c r="I211" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J211" t="n">
         <v>3.25</v>
@@ -30406,25 +30410,25 @@
         <v>2.05</v>
       </c>
       <c r="L211" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M211" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N211" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O211" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P211" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q211" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R211" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S211" t="inlineStr"/>
       <c r="T211" t="inlineStr"/>
@@ -30441,10 +30445,10 @@
         <v>2.63</v>
       </c>
       <c r="Y211" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z211" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA211" t="n">
         <v>8</v>
@@ -30465,19 +30469,19 @@
         <v>34</v>
       </c>
       <c r="AG211" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH211" t="n">
         <v>6</v>
       </c>
       <c r="AI211" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ211" t="n">
         <v>51</v>
       </c>
       <c r="AK211" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL211" t="n">
         <v>8.5</v>
@@ -30532,19 +30536,19 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H212" t="n">
         <v>3.5</v>
       </c>
       <c r="I212" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J212" t="n">
         <v>3.25</v>
       </c>
       <c r="K212" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L212" t="n">
         <v>3</v>
@@ -30586,13 +30590,13 @@
         <v>3.25</v>
       </c>
       <c r="Y212" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z212" t="n">
         <v>2.25</v>
       </c>
       <c r="AA212" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB212" t="n">
         <v>15</v>
@@ -30613,7 +30617,7 @@
         <v>13</v>
       </c>
       <c r="AH212" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI212" t="n">
         <v>12</v>
@@ -30637,7 +30641,7 @@
         <v>23</v>
       </c>
       <c r="AP212" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ212" t="n">
         <v>23</v>
@@ -30707,10 +30711,10 @@
         <v>3.5</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R213" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
@@ -30727,10 +30731,10 @@
         <v>2.75</v>
       </c>
       <c r="Y213" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Z213" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA213" t="n">
         <v>6.5</v>
@@ -30848,10 +30852,10 @@
         <v>4</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R214" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="inlineStr"/>
@@ -30868,7 +30872,7 @@
         <v>3</v>
       </c>
       <c r="Y214" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z214" t="n">
         <v>2</v>
@@ -31013,7 +31017,7 @@
         <v>3.25</v>
       </c>
       <c r="Y215" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z215" t="n">
         <v>2.25</v>
@@ -31122,10 +31126,10 @@
         <v>3.75</v>
       </c>
       <c r="M216" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N216" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O216" t="n">
         <v>1.2</v>
@@ -31134,10 +31138,10 @@
         <v>4.33</v>
       </c>
       <c r="Q216" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R216" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S216" t="n">
         <v>2.05</v>
@@ -31158,7 +31162,7 @@
         <v>3.25</v>
       </c>
       <c r="Y216" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z216" t="n">
         <v>2.2</v>
@@ -31279,10 +31283,10 @@
         <v>4.33</v>
       </c>
       <c r="Q217" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R217" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S217" t="inlineStr"/>
       <c r="T217" t="inlineStr"/>
@@ -31299,10 +31303,10 @@
         <v>3.4</v>
       </c>
       <c r="Y217" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z217" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA217" t="n">
         <v>7.5</v>
@@ -31444,7 +31448,7 @@
         <v>3.25</v>
       </c>
       <c r="Y218" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z218" t="n">
         <v>2.25</v>
@@ -31583,7 +31587,7 @@
         <v>1.4</v>
       </c>
       <c r="W219" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X219" t="n">
         <v>3</v>
@@ -31680,22 +31684,22 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="H220" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I220" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J220" t="n">
         <v>3</v>
       </c>
-      <c r="J220" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K220" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L220" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
@@ -31703,10 +31707,10 @@
         <v>1.42</v>
       </c>
       <c r="P220" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="Q220" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R220" t="n">
         <v>1.52</v>
@@ -31714,7 +31718,7 @@
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="V220" t="n">
         <v>1.19</v>
@@ -31723,7 +31727,7 @@
         <v>1.47</v>
       </c>
       <c r="X220" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Y220" t="n">
         <v>1.87</v>
@@ -31732,31 +31736,31 @@
         <v>1.75</v>
       </c>
       <c r="AA220" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB220" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC220" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD220" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE220" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF220" t="n">
         <v>37</v>
       </c>
       <c r="AG220" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AH220" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI220" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ220" t="n">
         <v>90</v>
@@ -31765,22 +31769,22 @@
         <v>800</v>
       </c>
       <c r="AL220" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AM220" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN220" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO220" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP220" t="n">
         <v>30</v>
       </c>
       <c r="AQ220" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR220" t="inlineStr"/>
       <c r="AS220" t="inlineStr"/>
@@ -31958,22 +31962,22 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H222" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I222" t="n">
         <v>3.15</v>
       </c>
       <c r="J222" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="K222" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L222" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
@@ -31981,7 +31985,7 @@
         <v>1.32</v>
       </c>
       <c r="P222" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q222" t="n">
         <v>1.93</v>
@@ -31992,10 +31996,10 @@
       <c r="S222" t="inlineStr"/>
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="V222" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W222" t="n">
         <v>1.39</v>
@@ -32007,25 +32011,25 @@
         <v>1.7</v>
       </c>
       <c r="Z222" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AA222" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB222" t="n">
         <v>11</v>
       </c>
       <c r="AC222" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD222" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE222" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF222" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG222" t="n">
         <v>8.5</v>
@@ -32034,31 +32038,31 @@
         <v>5.9</v>
       </c>
       <c r="AI222" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ222" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK222" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL222" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM222" t="n">
         <v>17</v>
       </c>
       <c r="AN222" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AO222" t="n">
         <v>45</v>
       </c>
       <c r="AP222" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ222" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR222" t="inlineStr"/>
       <c r="AS222" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS223"/>
+  <dimension ref="A1:AS222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3713,22 +3713,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
         <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3737,16 +3737,16 @@
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
         <v>3</v>
@@ -3767,22 +3767,22 @@
         <v>2.63</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -3791,7 +3791,7 @@
         <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
         <v>7</v>
@@ -3803,25 +3803,25 @@
         <v>67</v>
       </c>
       <c r="AK23" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
         <v>1.57</v>
@@ -3886,10 +3886,10 @@
         <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>2.25</v>
@@ -4041,10 +4041,10 @@
         <v>2.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
         <v>4.8</v>
@@ -4442,13 +4442,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -4460,10 +4460,10 @@
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -4486,10 +4486,10 @@
         <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y28" t="n">
         <v>2.1</v>
@@ -4537,7 +4537,7 @@
         <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>41</v>
@@ -4611,10 +4611,10 @@
         <v>5.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
         <v>3.1</v>
@@ -7312,7 +7312,7 @@
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J48" t="n">
         <v>2.88</v>
@@ -7324,13 +7324,13 @@
         <v>3.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
         <v>11</v>
       </c>
       <c r="O48" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
         <v>3.5</v>
@@ -7351,7 +7351,7 @@
         <v>3.4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W48" t="n">
         <v>1.4</v>
@@ -7360,10 +7360,10 @@
         <v>2.75</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z48" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA48" t="n">
         <v>8</v>
@@ -7372,16 +7372,16 @@
         <v>11</v>
       </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD48" t="n">
         <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG48" t="n">
         <v>10</v>
@@ -7390,19 +7390,19 @@
         <v>6.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN48" t="n">
         <v>12</v>
@@ -7473,34 +7473,34 @@
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
         <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
         <v>4.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R49" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S49" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T49" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U49" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V49" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W49" t="n">
         <v>1.33</v>
@@ -7509,7 +7509,7 @@
         <v>3.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z49" t="n">
         <v>2.2</v>
@@ -7566,10 +7566,10 @@
         <v>29</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS49" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="50">
@@ -7604,52 +7604,52 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J50" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V50" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W50" t="n">
         <v>1.4</v>
@@ -7667,22 +7667,22 @@
         <v>8</v>
       </c>
       <c r="AB50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE50" t="n">
         <v>19</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>17</v>
       </c>
       <c r="AF50" t="n">
         <v>26</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH50" t="n">
         <v>6</v>
@@ -7697,25 +7697,25 @@
         <v>201</v>
       </c>
       <c r="AL50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN50" t="n">
         <v>12</v>
       </c>
-      <c r="AM50" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>13</v>
-      </c>
       <c r="AO50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ50" t="n">
         <v>34</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AS50" t="n">
         <v>2.7</v>
@@ -8474,13 +8474,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H56" t="n">
         <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J56" t="n">
         <v>2.05</v>
@@ -8528,10 +8528,10 @@
         <v>2.63</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA56" t="n">
         <v>5.5</v>
@@ -8543,7 +8543,7 @@
         <v>9</v>
       </c>
       <c r="AD56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -8558,7 +8558,7 @@
         <v>7.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ56" t="n">
         <v>81</v>
@@ -8567,16 +8567,16 @@
         <v>101</v>
       </c>
       <c r="AL56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM56" t="n">
         <v>41</v>
       </c>
       <c r="AN56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO56" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP56" t="n">
         <v>67</v>
@@ -10327,28 +10327,28 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J69" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K69" t="n">
         <v>2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N69" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O69" t="n">
         <v>1.25</v>
@@ -10377,22 +10377,22 @@
         <v>3</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA69" t="n">
         <v>6</v>
       </c>
       <c r="AB69" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE69" t="n">
         <v>13</v>
@@ -10407,10 +10407,10 @@
         <v>10</v>
       </c>
       <c r="AI69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ69" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="n">
         <v>1250</v>
@@ -10422,10 +10422,10 @@
         <v>41</v>
       </c>
       <c r="AN69" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO69" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP69" t="n">
         <v>67</v>
@@ -10468,22 +10468,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="H70" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="J70" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K70" t="n">
         <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
@@ -10518,25 +10518,25 @@
         <v>2.63</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD70" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE70" t="n">
         <v>29</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>23</v>
       </c>
       <c r="AF70" t="n">
         <v>34</v>
@@ -10557,19 +10557,19 @@
         <v>251</v>
       </c>
       <c r="AL70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO70" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ70" t="n">
         <v>29</v>
@@ -20108,28 +20108,28 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H138" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I138" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J138" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K138" t="n">
         <v>2.38</v>
       </c>
       <c r="L138" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M138" t="n">
         <v>1.03</v>
       </c>
       <c r="N138" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O138" t="n">
         <v>1.18</v>
@@ -20162,22 +20162,22 @@
         <v>3.4</v>
       </c>
       <c r="Y138" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z138" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC138" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD138" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE138" t="n">
         <v>15</v>
@@ -20186,16 +20186,16 @@
         <v>21</v>
       </c>
       <c r="AG138" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH138" t="n">
         <v>7.5</v>
       </c>
       <c r="AI138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ138" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK138" t="n">
         <v>126</v>
@@ -20204,19 +20204,19 @@
         <v>13</v>
       </c>
       <c r="AM138" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP138" t="n">
         <v>21</v>
       </c>
-      <c r="AN138" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO138" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP138" t="n">
+      <c r="AQ138" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ138" t="n">
-        <v>29</v>
       </c>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
@@ -20253,22 +20253,22 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H139" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I139" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K139" t="n">
         <v>2.25</v>
       </c>
       <c r="L139" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M139" t="n">
         <v>1.04</v>
@@ -20327,7 +20327,7 @@
         <v>29</v>
       </c>
       <c r="AG139" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH139" t="n">
         <v>7</v>
@@ -20342,13 +20342,13 @@
         <v>151</v>
       </c>
       <c r="AL139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO139" t="n">
         <v>19</v>
@@ -20394,13 +20394,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H140" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I140" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J140" t="n">
         <v>2.2</v>
@@ -20424,34 +20424,34 @@
         <v>5.5</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R140" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S140" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T140" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U140" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V140" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W140" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X140" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z140" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA140" t="n">
         <v>10</v>
@@ -20472,16 +20472,16 @@
         <v>19</v>
       </c>
       <c r="AG140" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH140" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI140" t="n">
         <v>13</v>
       </c>
       <c r="AJ140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK140" t="n">
         <v>126</v>
@@ -20499,7 +20499,7 @@
         <v>51</v>
       </c>
       <c r="AP140" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ140" t="n">
         <v>29</v>
@@ -20539,13 +20539,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H141" t="n">
         <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J141" t="n">
         <v>3.1</v>
@@ -20813,44 +20813,44 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="H143" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I143" t="n">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K143" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L143" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P143" t="n">
         <v>3.25</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R143" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="V143" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W143" t="n">
         <v>1.39</v>
@@ -20859,61 +20859,61 @@
         <v>2.57</v>
       </c>
       <c r="Y143" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z143" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AA143" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB143" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC143" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD143" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE143" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AF143" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG143" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH143" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI143" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ143" t="n">
         <v>50</v>
       </c>
       <c r="AK143" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL143" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM143" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AN143" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO143" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AP143" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ143" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR143" t="inlineStr"/>
       <c r="AS143" t="inlineStr"/>
@@ -21369,99 +21369,99 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H147" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I147" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J147" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K147" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L147" t="n">
         <v>4.75</v>
       </c>
       <c r="M147" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N147" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O147" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P147" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R147" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="V147" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W147" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X147" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y147" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB147" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC147" t="n">
         <v>9</v>
       </c>
       <c r="AD147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE147" t="n">
         <v>17</v>
       </c>
       <c r="AF147" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG147" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH147" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI147" t="n">
         <v>17</v>
       </c>
       <c r="AJ147" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK147" t="n">
         <v>351</v>
       </c>
       <c r="AL147" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM147" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN147" t="n">
         <v>15</v>
@@ -21470,7 +21470,7 @@
         <v>41</v>
       </c>
       <c r="AP147" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ147" t="n">
         <v>41</v>
@@ -21826,22 +21826,22 @@
         <v>5</v>
       </c>
       <c r="M150" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O150" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P150" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q150" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R150" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S150" t="n">
         <v>2.8</v>
@@ -29806,7 +29806,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>n16aDmI5</t>
+          <t>hEHR5R2E</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -29816,7 +29816,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -29826,116 +29826,120 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Ch. Odesa</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>11.5</v>
+        <v>2.87</v>
       </c>
       <c r="H207" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="I207" t="n">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="J207" t="n">
-        <v>9.75</v>
+        <v>3.75</v>
       </c>
       <c r="K207" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L207" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N207" t="n">
+        <v>4.35</v>
+      </c>
       <c r="O207" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="P207" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q207" t="n">
-        <v>1.83</v>
+        <v>2.65</v>
       </c>
       <c r="R207" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="V207" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="W207" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="X207" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="Y207" t="n">
-        <v>2.55</v>
+        <v>2.12</v>
       </c>
       <c r="Z207" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AA207" t="n">
-        <v>22</v>
+        <v>6.2</v>
       </c>
       <c r="AB207" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AC207" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AD207" t="n">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AE207" t="n">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="AF207" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AG207" t="n">
-        <v>9.5</v>
+        <v>4.7</v>
       </c>
       <c r="AH207" t="n">
-        <v>10.75</v>
+        <v>5.5</v>
       </c>
       <c r="AI207" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ207" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AK207" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AL207" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AM207" t="n">
-        <v>4.9</v>
+        <v>11.75</v>
       </c>
       <c r="AN207" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AO207" t="n">
-        <v>6.6</v>
+        <v>32</v>
       </c>
       <c r="AP207" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AQ207" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR207" t="inlineStr"/>
       <c r="AS207" t="inlineStr"/>
@@ -29943,7 +29947,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>hEHR5R2E</t>
+          <t>EgZYdSXO</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -29953,7 +29957,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -29963,120 +29967,116 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ch. Odesa</t>
+          <t>Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Oleksandriya</t>
         </is>
       </c>
       <c r="G208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I208" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P208" t="n">
         <v>2.87</v>
       </c>
-      <c r="H208" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J208" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K208" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L208" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M208" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N208" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O208" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P208" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q208" t="n">
-        <v>2.65</v>
+        <v>1.91</v>
       </c>
       <c r="R208" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="V208" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="W208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z208" t="n">
         <v>1.65</v>
       </c>
-      <c r="X208" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y208" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z208" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AA208" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB208" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE208" t="n">
         <v>13</v>
       </c>
-      <c r="AC208" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD208" t="n">
+      <c r="AF208" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>900</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM208" t="n">
         <v>37</v>
       </c>
-      <c r="AE208" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF208" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG208" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AH208" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI208" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ208" t="n">
+      <c r="AN208" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO208" t="n">
         <v>150</v>
       </c>
-      <c r="AK208" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL208" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM208" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AN208" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO208" t="n">
-        <v>32</v>
-      </c>
       <c r="AP208" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AQ208" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AR208" t="inlineStr"/>
       <c r="AS208" t="inlineStr"/>
@@ -30084,7 +30084,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>EgZYdSXO</t>
+          <t>2TKbaO8e</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -30094,126 +30094,134 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Oleksandriya</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>3.7</v>
       </c>
       <c r="I209" t="n">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="J209" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K209" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L209" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
+        <v>3.6</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N209" t="n">
+        <v>17</v>
+      </c>
       <c r="O209" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="P209" t="n">
-        <v>2.87</v>
+        <v>5.5</v>
       </c>
       <c r="Q209" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="R209" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr"/>
+        <v>2.4</v>
+      </c>
+      <c r="S209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2</v>
+      </c>
       <c r="U209" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="V209" t="n">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="W209" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="X209" t="n">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Y209" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="AA209" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="AB209" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AC209" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AD209" t="n">
-        <v>10.75</v>
+        <v>19</v>
       </c>
       <c r="AE209" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF209" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AG209" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AH209" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AI209" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AJ209" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AK209" t="n">
-        <v>900</v>
+        <v>101</v>
       </c>
       <c r="AL209" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AM209" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AN209" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AO209" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AP209" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AQ209" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AR209" t="inlineStr"/>
       <c r="AS209" t="inlineStr"/>
@@ -30221,7 +30229,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2TKbaO8e</t>
+          <t>zsJ6c2w8</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -30231,7 +30239,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -30241,124 +30249,120 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="H210" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I210" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="J210" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="K210" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L210" t="n">
         <v>3.6</v>
       </c>
       <c r="M210" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N210" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O210" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="P210" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q210" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="R210" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S210" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T210" t="n">
-        <v>2</v>
-      </c>
+        <v>1.67</v>
+      </c>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
       <c r="U210" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="V210" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="W210" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X210" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y210" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="Z210" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="AA210" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AB210" t="n">
         <v>12</v>
       </c>
       <c r="AC210" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD210" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE210" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI210" t="n">
         <v>15</v>
       </c>
-      <c r="AF210" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG210" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH210" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI210" t="n">
+      <c r="AJ210" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN210" t="n">
         <v>11</v>
       </c>
-      <c r="AJ210" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK210" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL210" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM210" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN210" t="n">
-        <v>12</v>
-      </c>
       <c r="AO210" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP210" t="n">
         <v>23</v>
       </c>
       <c r="AQ210" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR210" t="inlineStr"/>
       <c r="AS210" t="inlineStr"/>
@@ -30366,7 +30370,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>zsJ6c2w8</t>
+          <t>WWQwdAJ0</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -30376,7 +30380,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -30386,75 +30390,79 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J211" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L211" t="n">
         <v>3.1</v>
       </c>
-      <c r="I211" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J211" t="n">
+      <c r="M211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N211" t="n">
+        <v>13</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P211" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S211" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X211" t="n">
         <v>3.25</v>
       </c>
-      <c r="K211" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L211" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M211" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N211" t="n">
-        <v>8</v>
-      </c>
-      <c r="O211" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P211" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q211" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R211" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S211" t="inlineStr"/>
-      <c r="T211" t="inlineStr"/>
-      <c r="U211" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V211" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W211" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X211" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Y211" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="Z211" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AA211" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB211" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC211" t="n">
         <v>10</v>
@@ -30466,40 +30474,40 @@
         <v>21</v>
       </c>
       <c r="AF211" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG211" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH211" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI211" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ211" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK211" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AL211" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AM211" t="n">
         <v>13</v>
       </c>
       <c r="AN211" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO211" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP211" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ211" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ211" t="n">
-        <v>34</v>
       </c>
       <c r="AR211" t="inlineStr"/>
       <c r="AS211" t="inlineStr"/>
@@ -30507,7 +30515,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>WWQwdAJ0</t>
+          <t>pGSVcWll</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -30527,124 +30535,120 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.88</v>
+        <v>1.75</v>
       </c>
       <c r="H212" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J212" t="n">
         <v>2.4</v>
       </c>
-      <c r="J212" t="n">
+      <c r="K212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>5</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N212" t="n">
+        <v>10</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P212" t="n">
         <v>3.25</v>
       </c>
-      <c r="K212" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L212" t="n">
-        <v>3</v>
-      </c>
-      <c r="M212" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N212" t="n">
+      <c r="Q212" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD212" t="n">
         <v>13</v>
       </c>
-      <c r="O212" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P212" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q212" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R212" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S212" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T212" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U212" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V212" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W212" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X212" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y212" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z212" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA212" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB212" t="n">
+      <c r="AE212" t="n">
         <v>15</v>
       </c>
-      <c r="AC212" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD212" t="n">
+      <c r="AF212" t="n">
         <v>29</v>
       </c>
-      <c r="AE212" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF212" t="n">
-        <v>26</v>
-      </c>
       <c r="AG212" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH212" t="n">
         <v>7</v>
       </c>
       <c r="AI212" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ212" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP212" t="n">
         <v>41</v>
       </c>
-      <c r="AK212" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL212" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM212" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN212" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO212" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP212" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ212" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR212" t="inlineStr"/>
       <c r="AS212" t="inlineStr"/>
@@ -30652,7 +30656,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>pGSVcWll</t>
+          <t>0ria3hRQ</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -30672,75 +30676,75 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H213" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I213" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K213" t="n">
         <v>2.3</v>
-      </c>
-      <c r="K213" t="n">
-        <v>2.2</v>
       </c>
       <c r="L213" t="n">
         <v>5</v>
       </c>
       <c r="M213" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N213" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O213" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P213" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="R213" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V213" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W213" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X213" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Y213" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="Z213" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AA213" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB213" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC213" t="n">
         <v>8.5</v>
@@ -30749,34 +30753,34 @@
         <v>13</v>
       </c>
       <c r="AE213" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI213" t="n">
         <v>15</v>
       </c>
-      <c r="AF213" t="n">
+      <c r="AJ213" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM213" t="n">
         <v>29</v>
       </c>
-      <c r="AG213" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH213" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI213" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ213" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK213" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL213" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM213" t="n">
-        <v>23</v>
-      </c>
       <c r="AN213" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO213" t="n">
         <v>51</v>
@@ -30793,7 +30797,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>0ria3hRQ</t>
+          <t>hImi5EdE</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -30813,31 +30817,31 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.7</v>
+        <v>2.63</v>
       </c>
       <c r="H214" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I214" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="J214" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K214" t="n">
         <v>2.3</v>
       </c>
       <c r="L214" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M214" t="n">
         <v>1.04</v>
@@ -30846,87 +30850,91 @@
         <v>13</v>
       </c>
       <c r="O214" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P214" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q214" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R214" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S214" t="n">
         <v>2.05</v>
       </c>
-      <c r="S214" t="inlineStr"/>
-      <c r="T214" t="inlineStr"/>
+      <c r="T214" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U214" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V214" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W214" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X214" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y214" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="Z214" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AA214" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AB214" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AC214" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD214" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AE214" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF214" t="n">
         <v>23</v>
       </c>
       <c r="AG214" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH214" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI214" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ214" t="n">
         <v>41</v>
       </c>
       <c r="AK214" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AL214" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM214" t="n">
         <v>15</v>
       </c>
-      <c r="AM214" t="n">
+      <c r="AN214" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO214" t="n">
         <v>26</v>
       </c>
-      <c r="AN214" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO214" t="n">
-        <v>51</v>
-      </c>
       <c r="AP214" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AQ214" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR214" t="inlineStr"/>
       <c r="AS214" t="inlineStr"/>
@@ -30934,7 +30942,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>hImi5EdE</t>
+          <t>EgP6aqQh</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -30944,7 +30952,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -30954,37 +30962,37 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H215" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I215" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="J215" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K215" t="n">
         <v>2.25</v>
       </c>
       <c r="L215" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M215" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N215" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O215" t="n">
         <v>1.2</v>
@@ -30993,10 +31001,10 @@
         <v>4.33</v>
       </c>
       <c r="Q215" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R215" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S215" t="n">
         <v>2.05</v>
@@ -31017,25 +31025,25 @@
         <v>3.25</v>
       </c>
       <c r="Y215" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z215" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA215" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB215" t="n">
         <v>11</v>
       </c>
-      <c r="AB215" t="n">
+      <c r="AC215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE215" t="n">
         <v>15</v>
-      </c>
-      <c r="AC215" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD215" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE215" t="n">
-        <v>19</v>
       </c>
       <c r="AF215" t="n">
         <v>23</v>
@@ -31044,7 +31052,7 @@
         <v>13</v>
       </c>
       <c r="AH215" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI215" t="n">
         <v>12</v>
@@ -31053,25 +31061,25 @@
         <v>41</v>
       </c>
       <c r="AK215" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL215" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM215" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AN215" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO215" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP215" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ215" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR215" t="inlineStr"/>
       <c r="AS215" t="inlineStr"/>
@@ -31079,7 +31087,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>EgP6aqQh</t>
+          <t>SbKnfllD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -31099,37 +31107,37 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="H216" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I216" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="J216" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="K216" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L216" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M216" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N216" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O216" t="n">
         <v>1.2</v>
@@ -31138,17 +31146,13 @@
         <v>4.33</v>
       </c>
       <c r="Q216" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R216" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S216" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T216" t="n">
-        <v>1.8</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
       <c r="U216" t="n">
         <v>2.63</v>
       </c>
@@ -31156,31 +31160,31 @@
         <v>1.44</v>
       </c>
       <c r="W216" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X216" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y216" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="Z216" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AA216" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB216" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AC216" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD216" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE216" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF216" t="n">
         <v>23</v>
@@ -31189,34 +31193,34 @@
         <v>13</v>
       </c>
       <c r="AH216" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI216" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ216" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP216" t="n">
         <v>41</v>
       </c>
-      <c r="AK216" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL216" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM216" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN216" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO216" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP216" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ216" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR216" t="inlineStr"/>
       <c r="AS216" t="inlineStr"/>
@@ -31224,7 +31228,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SbKnfllD</t>
+          <t>IRVc15et</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -31244,37 +31248,37 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="H217" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I217" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J217" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="K217" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L217" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M217" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N217" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O217" t="n">
         <v>1.2</v>
@@ -31288,8 +31292,12 @@
       <c r="R217" t="n">
         <v>2.1</v>
       </c>
-      <c r="S217" t="inlineStr"/>
-      <c r="T217" t="inlineStr"/>
+      <c r="S217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U217" t="n">
         <v>2.63</v>
       </c>
@@ -31297,31 +31305,31 @@
         <v>1.44</v>
       </c>
       <c r="W217" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X217" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y217" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="Z217" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AA217" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB217" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AC217" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD217" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE217" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF217" t="n">
         <v>23</v>
@@ -31330,34 +31338,34 @@
         <v>13</v>
       </c>
       <c r="AH217" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI217" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ217" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK217" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AL217" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AM217" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO217" t="n">
         <v>34</v>
       </c>
-      <c r="AN217" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO217" t="n">
-        <v>67</v>
-      </c>
       <c r="AP217" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AQ217" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR217" t="inlineStr"/>
       <c r="AS217" t="inlineStr"/>
@@ -31365,7 +31373,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>IRVc15et</t>
+          <t>61sEcNf5</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -31375,7 +31383,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -31385,31 +31393,31 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H218" t="n">
         <v>3.4</v>
       </c>
       <c r="I218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L218" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J218" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K218" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L218" t="n">
-        <v>3.75</v>
       </c>
       <c r="M218" t="n">
         <v>1.04</v>
@@ -31418,16 +31426,16 @@
         <v>13</v>
       </c>
       <c r="O218" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P218" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q218" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R218" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S218" t="n">
         <v>2.05</v>
@@ -31436,43 +31444,43 @@
         <v>1.8</v>
       </c>
       <c r="U218" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V218" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W218" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X218" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y218" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z218" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA218" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB218" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC218" t="n">
         <v>9</v>
       </c>
       <c r="AD218" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE218" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF218" t="n">
         <v>23</v>
       </c>
       <c r="AG218" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH218" t="n">
         <v>6.5</v>
@@ -31484,13 +31492,13 @@
         <v>41</v>
       </c>
       <c r="AK218" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL218" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM218" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN218" t="n">
         <v>12</v>
@@ -31499,7 +31507,7 @@
         <v>34</v>
       </c>
       <c r="AP218" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ218" t="n">
         <v>29</v>
@@ -31510,7 +31518,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>61sEcNf5</t>
+          <t>x80FdZKt</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -31520,134 +31528,126 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H219" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I219" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J219" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L219" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P219" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q219" t="n">
         <v>2.2</v>
       </c>
-      <c r="L219" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M219" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N219" t="n">
-        <v>13</v>
-      </c>
-      <c r="O219" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P219" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q219" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R219" t="n">
-        <v>2</v>
-      </c>
-      <c r="S219" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T219" t="n">
-        <v>1.8</v>
-      </c>
+        <v>1.52</v>
+      </c>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
       <c r="U219" t="n">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="V219" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="W219" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="X219" t="n">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="Y219" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="Z219" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AA219" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AB219" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC219" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD219" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE219" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AF219" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AG219" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH219" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="AI219" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AJ219" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AK219" t="n">
-        <v>151</v>
+        <v>800</v>
       </c>
       <c r="AL219" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AM219" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AN219" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AO219" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AP219" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AQ219" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AR219" t="inlineStr"/>
       <c r="AS219" t="inlineStr"/>
@@ -31655,7 +31655,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>x80FdZKt</t>
+          <t>U1wltEz0</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -31665,7 +31665,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -31675,113 +31675,117 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Anzoategui FC</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.35</v>
+        <v>3.8</v>
       </c>
       <c r="H220" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="I220" t="n">
-        <v>3.15</v>
+        <v>2.15</v>
       </c>
       <c r="J220" t="n">
-        <v>3</v>
+        <v>4.35</v>
       </c>
       <c r="K220" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L220" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr"/>
+        <v>2.85</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N220" t="n">
+        <v>6.2</v>
+      </c>
       <c r="O220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P220" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R220" t="n">
         <v>1.42</v>
-      </c>
-      <c r="P220" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R220" t="n">
-        <v>1.52</v>
       </c>
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="inlineStr"/>
       <c r="U220" t="n">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="V220" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="W220" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="X220" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="Y220" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="Z220" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA220" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AB220" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC220" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AN220" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD220" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE220" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF220" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG220" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH220" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI220" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ220" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK220" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL220" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM220" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AN220" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AO220" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AP220" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AQ220" t="n">
         <v>45</v>
@@ -31792,7 +31796,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>U1wltEz0</t>
+          <t>OdS70rME</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -31812,120 +31816,116 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Anzoategui FC</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.8</v>
+        <v>2.47</v>
       </c>
       <c r="H221" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="I221" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="J221" t="n">
-        <v>4.35</v>
+        <v>3</v>
       </c>
       <c r="K221" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="L221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P221" t="n">
         <v>2.85</v>
       </c>
-      <c r="M221" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N221" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O221" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P221" t="n">
-        <v>2.22</v>
-      </c>
       <c r="Q221" t="n">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="R221" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="S221" t="inlineStr"/>
       <c r="T221" t="inlineStr"/>
       <c r="U221" t="n">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="V221" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="W221" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="X221" t="n">
-        <v>2.18</v>
+        <v>2.55</v>
       </c>
       <c r="Y221" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="Z221" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AA221" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB221" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AC221" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM221" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD221" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE221" t="n">
-        <v>45</v>
-      </c>
-      <c r="AF221" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG221" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AH221" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AI221" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ221" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK221" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL221" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AM221" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AN221" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO221" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AP221" t="n">
         <v>23</v>
       </c>
       <c r="AQ221" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AR221" t="inlineStr"/>
       <c r="AS221" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>OdS70rME</t>
+          <t>r53NfDkg</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -31953,256 +31953,119 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Universidad Central</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H222" t="n">
         <v>3</v>
       </c>
       <c r="I222" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J222" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="K222" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L222" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="P222" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="Q222" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R222" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S222" t="inlineStr"/>
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="V222" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="W222" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="X222" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Y222" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Z222" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AA222" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AB222" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AC222" t="n">
         <v>9</v>
       </c>
       <c r="AD222" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE222" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF222" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG222" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH222" t="n">
         <v>5.9</v>
       </c>
       <c r="AI222" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AJ222" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK222" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="AL222" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM222" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN222" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO222" t="n">
         <v>45</v>
       </c>
       <c r="AP222" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AQ222" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AR222" t="inlineStr"/>
       <c r="AS222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>r53NfDkg</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>01/03/2025</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Universidad Central</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="G223" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H223" t="n">
-        <v>3</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J223" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K223" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L223" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P223" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q223" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R223" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S223" t="inlineStr"/>
-      <c r="T223" t="inlineStr"/>
-      <c r="U223" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V223" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W223" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X223" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y223" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z223" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA223" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB223" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AC223" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD223" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE223" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF223" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG223" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH223" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AI223" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ223" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK223" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL223" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AM223" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN223" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO223" t="n">
-        <v>45</v>
-      </c>
-      <c r="AP223" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ223" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR223" t="inlineStr"/>
-      <c r="AS223" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-01.xlsx
@@ -3862,34 +3862,34 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
         <v>2.25</v>
@@ -3916,22 +3916,22 @@
         <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC24" t="n">
         <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -3946,31 +3946,31 @@
         <v>6.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>67</v>
       </c>
       <c r="AK24" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP24" t="n">
         <v>41</v>
       </c>
       <c r="AQ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
         <v>1.78</v>
@@ -4011,28 +4011,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.57</v>
@@ -4074,7 +4074,7 @@
         <v>5.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
@@ -4104,7 +4104,7 @@
         <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
@@ -4116,7 +4116,7 @@
         <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ25" t="n">
         <v>51</v>
@@ -4611,10 +4611,10 @@
         <v>5.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q29" t="n">
         <v>3.1</v>
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I56" t="n">
         <v>8.5</v>
@@ -8510,10 +8510,10 @@
         <v>1.7</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T56" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U56" t="n">
         <v>3.75</v>
@@ -8528,10 +8528,10 @@
         <v>2.63</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA56" t="n">
         <v>5.5</v>
@@ -8555,7 +8555,7 @@
         <v>8</v>
       </c>
       <c r="AH56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI56" t="n">
         <v>23</v>
@@ -8585,10 +8585,10 @@
         <v>67</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="57">
@@ -10486,10 +10486,10 @@
         <v>2.88</v>
       </c>
       <c r="M70" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O70" t="n">
         <v>1.33</v>
@@ -20394,16 +20394,16 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H140" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I140" t="n">
         <v>4.75</v>
       </c>
       <c r="J140" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K140" t="n">
         <v>2.5</v>
@@ -20412,10 +20412,10 @@
         <v>4.5</v>
       </c>
       <c r="M140" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O140" t="n">
         <v>1.14</v>
@@ -20424,37 +20424,37 @@
         <v>5.5</v>
       </c>
       <c r="Q140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y140" t="n">
         <v>1.53</v>
       </c>
-      <c r="R140" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S140" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T140" t="n">
-        <v>2</v>
-      </c>
-      <c r="U140" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V140" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W140" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X140" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y140" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Z140" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB140" t="n">
         <v>10</v>
@@ -20463,7 +20463,7 @@
         <v>8.5</v>
       </c>
       <c r="AD140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE140" t="n">
         <v>12</v>
@@ -20472,7 +20472,7 @@
         <v>19</v>
       </c>
       <c r="AG140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH140" t="n">
         <v>8.5</v>
@@ -20481,16 +20481,16 @@
         <v>13</v>
       </c>
       <c r="AJ140" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK140" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM140" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN140" t="n">
         <v>15</v>
@@ -20950,22 +20950,22 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I144" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J144" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="K144" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L144" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
@@ -20973,7 +20973,7 @@
         <v>1.31</v>
       </c>
       <c r="P144" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Q144" t="n">
         <v>1.91</v>
@@ -20996,34 +20996,34 @@
         <v>2.55</v>
       </c>
       <c r="Y144" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z144" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AA144" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB144" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC144" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD144" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE144" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF144" t="n">
         <v>27</v>
       </c>
       <c r="AG144" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH144" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI144" t="n">
         <v>13.5</v>
@@ -21035,19 +21035,19 @@
         <v>500</v>
       </c>
       <c r="AL144" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AM144" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN144" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AO144" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP144" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ144" t="n">
         <v>37</v>
@@ -21808,22 +21808,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="H150" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I150" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J150" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K150" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L150" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M150" t="n">
         <v>1.06</v>
@@ -21838,10 +21838,10 @@
         <v>3.4</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S150" t="n">
         <v>2.8</v>
@@ -21850,16 +21850,16 @@
         <v>1.45</v>
       </c>
       <c r="U150" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V150" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W150" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X150" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y150" t="n">
         <v>1.83</v>
@@ -21871,22 +21871,22 @@
         <v>7</v>
       </c>
       <c r="AB150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC150" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD150" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE150" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF150" t="n">
         <v>29</v>
       </c>
       <c r="AG150" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH150" t="n">
         <v>6.5</v>
@@ -21898,22 +21898,22 @@
         <v>51</v>
       </c>
       <c r="AK150" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL150" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN150" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO150" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP150" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ150" t="n">
         <v>41</v>
@@ -30399,40 +30399,40 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H211" t="n">
         <v>3.5</v>
       </c>
       <c r="I211" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J211" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K211" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L211" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M211" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N211" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O211" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P211" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q211" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R211" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S211" t="n">
         <v>2.03</v>
@@ -30441,10 +30441,10 @@
         <v>1.83</v>
       </c>
       <c r="U211" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V211" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W211" t="n">
         <v>1.33</v>
@@ -30468,7 +30468,7 @@
         <v>10</v>
       </c>
       <c r="AD211" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE211" t="n">
         <v>21</v>
@@ -30480,7 +30480,7 @@
         <v>13</v>
       </c>
       <c r="AH211" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI211" t="n">
         <v>12</v>
@@ -30498,13 +30498,13 @@
         <v>13</v>
       </c>
       <c r="AN211" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO211" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP211" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ211" t="n">
         <v>23</v>
@@ -30544,16 +30544,16 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I212" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J212" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K212" t="n">
         <v>2.1</v>
@@ -30568,16 +30568,16 @@
         <v>10</v>
       </c>
       <c r="O212" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P212" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R212" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S212" t="inlineStr"/>
       <c r="T212" t="inlineStr"/>
@@ -30609,7 +30609,7 @@
         <v>8.5</v>
       </c>
       <c r="AD212" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE212" t="n">
         <v>15</v>
@@ -30618,7 +30618,7 @@
         <v>29</v>
       </c>
       <c r="AG212" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH212" t="n">
         <v>7</v>
@@ -30826,22 +30826,22 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>3.4</v>
       </c>
       <c r="I214" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J214" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K214" t="n">
         <v>2.3</v>
       </c>
       <c r="L214" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M214" t="n">
         <v>1.04</v>
@@ -30895,7 +30895,7 @@
         <v>10</v>
       </c>
       <c r="AD214" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE214" t="n">
         <v>19</v>
@@ -30971,22 +30971,22 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H215" t="n">
         <v>3.6</v>
       </c>
       <c r="I215" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J215" t="n">
         <v>2.75</v>
       </c>
       <c r="K215" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L215" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M215" t="n">
         <v>1.03</v>
@@ -31025,16 +31025,16 @@
         <v>3.25</v>
       </c>
       <c r="Y215" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z215" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA215" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB215" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC215" t="n">
         <v>9</v>
@@ -31046,7 +31046,7 @@
         <v>15</v>
       </c>
       <c r="AF215" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG215" t="n">
         <v>13</v>
@@ -31061,10 +31061,10 @@
         <v>41</v>
       </c>
       <c r="AK215" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL215" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM215" t="n">
         <v>19</v>
@@ -31116,22 +31116,22 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H216" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I216" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J216" t="n">
         <v>1.95</v>
       </c>
       <c r="K216" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L216" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M216" t="n">
         <v>1.03</v>
@@ -31140,24 +31140,24 @@
         <v>15</v>
       </c>
       <c r="O216" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P216" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q216" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R216" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S216" t="inlineStr"/>
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V216" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W216" t="n">
         <v>1.3</v>
@@ -31172,7 +31172,7 @@
         <v>1.95</v>
       </c>
       <c r="AA216" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB216" t="n">
         <v>7.5</v>
@@ -31184,16 +31184,16 @@
         <v>10</v>
       </c>
       <c r="AE216" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF216" t="n">
         <v>23</v>
       </c>
       <c r="AG216" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH216" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI216" t="n">
         <v>17</v>
@@ -31205,7 +31205,7 @@
         <v>251</v>
       </c>
       <c r="AL216" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM216" t="n">
         <v>34</v>
@@ -31257,40 +31257,40 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H217" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I217" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J217" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K217" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L217" t="n">
+        <v>4</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N217" t="n">
+        <v>15</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R217" t="n">
         <v>2.25</v>
-      </c>
-      <c r="L217" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M217" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N217" t="n">
-        <v>13</v>
-      </c>
-      <c r="O217" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P217" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q217" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R217" t="n">
-        <v>2.1</v>
       </c>
       <c r="S217" t="n">
         <v>2.05</v>
@@ -31299,16 +31299,16 @@
         <v>1.8</v>
       </c>
       <c r="U217" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V217" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W217" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X217" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y217" t="n">
         <v>1.57</v>
@@ -31317,49 +31317,49 @@
         <v>2.25</v>
       </c>
       <c r="AA217" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB217" t="n">
         <v>11</v>
       </c>
       <c r="AC217" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD217" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE217" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG217" t="n">
         <v>15</v>
       </c>
-      <c r="AF217" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG217" t="n">
-        <v>13</v>
-      </c>
       <c r="AH217" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI217" t="n">
         <v>12</v>
       </c>
       <c r="AJ217" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK217" t="n">
         <v>126</v>
       </c>
       <c r="AL217" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN217" t="n">
         <v>13</v>
       </c>
-      <c r="AM217" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN217" t="n">
-        <v>12</v>
-      </c>
       <c r="AO217" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP217" t="n">
         <v>26</v>
@@ -31402,22 +31402,22 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H218" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I218" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J218" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K218" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L218" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M218" t="n">
         <v>1.04</v>
@@ -31426,16 +31426,16 @@
         <v>13</v>
       </c>
       <c r="O218" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P218" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q218" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R218" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S218" t="n">
         <v>2.05</v>
@@ -31444,16 +31444,16 @@
         <v>1.8</v>
       </c>
       <c r="U218" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V218" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W218" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X218" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y218" t="n">
         <v>1.62</v>
@@ -31462,25 +31462,25 @@
         <v>2.2</v>
       </c>
       <c r="AA218" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB218" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC218" t="n">
         <v>9</v>
       </c>
       <c r="AD218" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF218" t="n">
         <v>21</v>
       </c>
-      <c r="AE218" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF218" t="n">
-        <v>23</v>
-      </c>
       <c r="AG218" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH218" t="n">
         <v>6.5</v>
@@ -31495,19 +31495,19 @@
         <v>151</v>
       </c>
       <c r="AL218" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM218" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN218" t="n">
         <v>12</v>
       </c>
       <c r="AO218" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP218" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ218" t="n">
         <v>29</v>
@@ -31962,33 +31962,33 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I222" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J222" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="K222" t="n">
         <v>1.98</v>
       </c>
       <c r="L222" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P222" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="Q222" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R222" t="n">
         <v>1.57</v>
@@ -31996,70 +31996,70 @@
       <c r="S222" t="inlineStr"/>
       <c r="T222" t="inlineStr"/>
       <c r="U222" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="V222" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W222" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X222" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Y222" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Z222" t="n">
         <v>1.78</v>
       </c>
       <c r="AA222" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB222" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC222" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD222" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE222" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF222" t="n">
         <v>32</v>
       </c>
       <c r="AG222" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AH222" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI222" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ222" t="n">
         <v>80</v>
       </c>
       <c r="AK222" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL222" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AM222" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AN222" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO222" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP222" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ222" t="n">
         <v>45</v>
